--- a/01_metadata/AdultHW_census.xlsx
+++ b/01_metadata/AdultHW_census.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/rosemonde_power_sydney_edu_au/Documents/Documents/HW_WGS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/rosemonde_power_sydney_edu_au/Documents/Documents/GitHub/heartworm_genome/01_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1304" documentId="8_{D2844F2A-C08A-4D67-958C-86A1BD40D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2005B75F-4965-4C96-A2EF-F6C36BA61690}"/>
+  <xr:revisionPtr revIDLastSave="1330" documentId="8_{D2844F2A-C08A-4D67-958C-86A1BD40D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5941323-7AFE-4B8A-B493-58768F2E9CE0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="193">
   <si>
     <t>HWs from Swaid</t>
   </si>
@@ -654,6 +654,18 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>FastQC</t>
+  </si>
+  <si>
+    <t>Low reads</t>
+  </si>
+  <si>
+    <t>Abnormal GC</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -731,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,8 +804,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -894,11 +912,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,6 +997,19 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,13 +1019,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,19 +1040,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1387,22 +1424,22 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.08984375" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1468,11 +1505,11 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1503,9 +1540,9 @@
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1536,9 +1573,9 @@
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1550,7 +1587,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1604,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1584,7 +1621,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1601,7 +1638,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1655,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1630,7 +1667,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1665,7 +1702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1700,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1770,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>117</v>
       </c>
@@ -1791,7 +1828,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1812,7 +1849,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1833,7 +1870,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1869,74 +1906,76 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="12" width="9.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5546875" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.77734375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" style="1" customWidth="1"/>
-    <col min="25" max="26" width="8.77734375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.54296875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9.81640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.36328125" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="1" customWidth="1"/>
+    <col min="25" max="26" width="8.81640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.08984375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.54296875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.54296875" customWidth="1"/>
+    <col min="30" max="30" width="9.81640625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="30"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="19" t="s">
         <v>92</v>
       </c>
@@ -1946,7 +1985,7 @@
       <c r="S1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="35" t="s">
         <v>139</v>
       </c>
       <c r="U1" s="19" t="s">
@@ -1960,27 +1999,31 @@
         <v>181</v>
       </c>
       <c r="Y1" s="24"/>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="AD1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE1" s="34"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
       <c r="B2" s="19" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="19" t="s">
         <v>119</v>
       </c>
@@ -2005,7 +2048,7 @@
       <c r="M2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="35"/>
       <c r="O2" s="19" t="s">
         <v>52</v>
       </c>
@@ -2015,13 +2058,13 @@
       <c r="Q2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="27">
         <v>44690</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="27">
         <v>44767</v>
       </c>
-      <c r="T2" s="30"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="19" t="s">
         <v>186</v>
       </c>
@@ -2037,46 +2080,52 @@
       <c r="Y2" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" s="30"/>
+      <c r="Z2" s="35"/>
       <c r="AA2" s="19" t="s">
         <v>183</v>
       </c>
       <c r="AB2" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="30"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37">
         <v>1</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="36">
         <v>38083</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37">
         <v>4</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="38">
         <v>4</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="37" t="s">
         <v>48</v>
       </c>
       <c r="O3" s="18" t="s">
@@ -2091,35 +2140,37 @@
       <c r="R3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="34"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="18" t="s">
         <v>89</v>
       </c>
@@ -2132,51 +2183,53 @@
       <c r="R4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34" t="s">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="U4" s="34"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37">
         <v>2</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="36">
         <v>38083</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37">
         <v>2</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="38">
         <v>1</v>
       </c>
-      <c r="M5" s="28">
-        <v>0</v>
-      </c>
-      <c r="N5" s="28" t="s">
+      <c r="M5" s="37">
+        <v>0</v>
+      </c>
+      <c r="N5" s="37" t="s">
         <v>48</v>
       </c>
       <c r="O5" s="18" t="s">
@@ -2191,35 +2244,37 @@
       <c r="R5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34" t="s">
+      <c r="S5" s="26"/>
+      <c r="T5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="18" t="s">
         <v>90</v>
       </c>
@@ -2232,70 +2287,72 @@
       <c r="R6" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34" t="s">
+      <c r="S6" s="26"/>
+      <c r="T6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="U6" s="26"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <v>3</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="36">
         <v>43013</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="31">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38">
         <v>1</v>
       </c>
-      <c r="L7" s="28">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28">
-        <v>0</v>
-      </c>
-      <c r="N7" s="28" t="s">
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0</v>
+      </c>
+      <c r="N7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="37">
         <v>13.6</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="39" t="s">
         <v>96</v>
       </c>
       <c r="S7" s="18"/>
-      <c r="T7" s="28" t="s">
+      <c r="T7" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="40">
         <v>1.1000000000000001</v>
       </c>
       <c r="V7" s="18">
@@ -2314,39 +2371,41 @@
         <f>W7+Y7</f>
         <v>123.41999999999999</v>
       </c>
-      <c r="AA7" s="28" t="s">
+      <c r="AA7" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" s="35">
+      <c r="AB7" s="40">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="40">
         <f>U7+AB7</f>
         <v>10.799999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="32"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="36"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="41"/>
       <c r="V8" s="18">
         <v>3521376</v>
       </c>
@@ -2363,41 +2422,43 @@
         <f>W8+Y8</f>
         <v>126.18</v>
       </c>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37">
         <v>4</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="31">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38">
         <v>2</v>
       </c>
-      <c r="L9" s="28">
-        <v>0</v>
-      </c>
-      <c r="M9" s="28">
+      <c r="L9" s="37">
+        <v>0</v>
+      </c>
+      <c r="M9" s="37">
         <v>1</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="37" t="s">
         <v>48</v>
       </c>
       <c r="O9" s="18" t="s">
@@ -2412,35 +2473,37 @@
       <c r="R9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34" t="s">
+      <c r="S9" s="26"/>
+      <c r="T9" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="18" t="s">
         <v>91</v>
       </c>
@@ -2453,21 +2516,23 @@
       <c r="R10" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34" t="s">
+      <c r="S10" s="26"/>
+      <c r="T10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U10" s="26"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
@@ -2532,7 +2597,7 @@
         <v>13.83</v>
       </c>
       <c r="Z11" s="15">
-        <f>W11+Y11</f>
+        <f t="shared" ref="Z11:Z31" si="0">W11+Y11</f>
         <v>102.16</v>
       </c>
       <c r="AA11" s="15" t="s">
@@ -2545,8 +2610,10 @@
         <f>U11+AB11</f>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>29</v>
       </c>
@@ -2611,7 +2678,7 @@
         <v>13.37</v>
       </c>
       <c r="Z12" s="15">
-        <f>W12+Y12</f>
+        <f t="shared" si="0"/>
         <v>98.09</v>
       </c>
       <c r="AA12" s="15" t="s">
@@ -2621,11 +2688,13 @@
         <v>13.6</v>
       </c>
       <c r="AC12" s="15">
-        <f t="shared" ref="AC12:AC32" si="0">U12+AB12</f>
+        <f t="shared" ref="AC12:AC32" si="1">U12+AB12</f>
         <v>15.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -2690,7 +2759,7 @@
         <v>14.05</v>
       </c>
       <c r="Z13" s="15">
-        <f>W13+Y13</f>
+        <f t="shared" si="0"/>
         <v>105.81</v>
       </c>
       <c r="AA13" s="15" t="s">
@@ -2700,11 +2769,13 @@
         <v>12</v>
       </c>
       <c r="AC13" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>29</v>
       </c>
@@ -2769,21 +2840,27 @@
         <v>26.89</v>
       </c>
       <c r="Z14" s="15">
-        <f>W14+Y14</f>
+        <f t="shared" si="0"/>
         <v>57.85</v>
       </c>
-      <c r="AA14" s="33" t="s">
+      <c r="AA14" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="AB14" s="33">
+      <c r="AB14" s="25">
         <v>0</v>
       </c>
       <c r="AC14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD14" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE14" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
@@ -2848,7 +2925,7 @@
         <v>13.6</v>
       </c>
       <c r="Z15" s="15">
-        <f>W15+Y15</f>
+        <f t="shared" si="0"/>
         <v>102.72</v>
       </c>
       <c r="AA15" s="15" t="s">
@@ -2858,11 +2935,13 @@
         <v>10.5</v>
       </c>
       <c r="AC15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>29</v>
       </c>
@@ -2883,10 +2962,10 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="31">
+      <c r="K16" s="38">
         <v>7</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="18">
         <v>0</v>
       </c>
@@ -2925,49 +3004,55 @@
         <v>8.27</v>
       </c>
       <c r="Z16" s="15">
-        <f>W16+Y16</f>
+        <f t="shared" si="0"/>
         <v>9.33</v>
       </c>
-      <c r="AA16" s="33" t="s">
+      <c r="AA16" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="AB16" s="33">
+      <c r="AB16" s="25">
         <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="AD16" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37">
         <v>1</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="31">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38">
         <v>1</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="38">
         <v>1</v>
       </c>
-      <c r="M17" s="28">
-        <v>0</v>
-      </c>
-      <c r="N17" s="28" t="s">
+      <c r="M17" s="37">
+        <v>0</v>
+      </c>
+      <c r="N17" s="37" t="s">
         <v>48</v>
       </c>
       <c r="O17" s="18" t="s">
@@ -3002,7 +3087,7 @@
         <v>5.37</v>
       </c>
       <c r="Z17" s="15">
-        <f>W17+Y17</f>
+        <f t="shared" si="0"/>
         <v>85.550000000000011</v>
       </c>
       <c r="AA17" s="15" t="s">
@@ -3012,25 +3097,27 @@
         <v>11.1</v>
       </c>
       <c r="AC17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.799999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="18" t="s">
         <v>68</v>
       </c>
@@ -3063,7 +3150,7 @@
         <v>2.74</v>
       </c>
       <c r="Z18" s="15">
-        <f>W18+Y18</f>
+        <f t="shared" si="0"/>
         <v>64.2</v>
       </c>
       <c r="AA18" s="15" t="s">
@@ -3073,11 +3160,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AC18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>32</v>
       </c>
@@ -3150,7 +3239,7 @@
         <v>19.28</v>
       </c>
       <c r="Z19" s="15">
-        <f>W19+Y19</f>
+        <f t="shared" si="0"/>
         <v>110.83</v>
       </c>
       <c r="AA19" s="15" t="s">
@@ -3160,11 +3249,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AC19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>32</v>
       </c>
@@ -3239,7 +3330,7 @@
         <v>15.02</v>
       </c>
       <c r="Z20" s="15">
-        <f>W20+Y20</f>
+        <f t="shared" si="0"/>
         <v>105.49</v>
       </c>
       <c r="AA20" s="15" t="s">
@@ -3249,11 +3340,13 @@
         <v>14.6</v>
       </c>
       <c r="AC20" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>32</v>
       </c>
@@ -3326,7 +3419,7 @@
         <v>14.08</v>
       </c>
       <c r="Z21" s="15">
-        <f>W21+Y21</f>
+        <f t="shared" si="0"/>
         <v>105.75</v>
       </c>
       <c r="AA21" s="15" t="s">
@@ -3336,11 +3429,13 @@
         <v>10.6</v>
       </c>
       <c r="AC21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>32</v>
       </c>
@@ -3413,7 +3508,7 @@
         <v>18.690000000000001</v>
       </c>
       <c r="Z22" s="15">
-        <f>W22+Y22</f>
+        <f t="shared" si="0"/>
         <v>109.88</v>
       </c>
       <c r="AA22" s="15" t="s">
@@ -3423,11 +3518,13 @@
         <v>11.6</v>
       </c>
       <c r="AC22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>32</v>
       </c>
@@ -3500,7 +3597,7 @@
         <v>16.91</v>
       </c>
       <c r="Z23" s="15">
-        <f>W23+Y23</f>
+        <f t="shared" si="0"/>
         <v>100.47</v>
       </c>
       <c r="AA23" s="15" t="s">
@@ -3510,11 +3607,13 @@
         <v>15</v>
       </c>
       <c r="AC23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>32</v>
       </c>
@@ -3589,7 +3688,7 @@
         <v>15.24</v>
       </c>
       <c r="Z24" s="15">
-        <f>W24+Y24</f>
+        <f t="shared" si="0"/>
         <v>98.89</v>
       </c>
       <c r="AA24" s="15" t="s">
@@ -3599,11 +3698,13 @@
         <v>12.5</v>
       </c>
       <c r="AC24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>32</v>
       </c>
@@ -3678,7 +3779,7 @@
         <v>13.5</v>
       </c>
       <c r="Z25" s="15">
-        <f>W25+Y25</f>
+        <f t="shared" si="0"/>
         <v>104.71</v>
       </c>
       <c r="AA25" s="15" t="s">
@@ -3688,11 +3789,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AC25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.399999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>32</v>
       </c>
@@ -3767,7 +3870,7 @@
         <v>19.91</v>
       </c>
       <c r="Z26" s="15">
-        <f>W26+Y26</f>
+        <f t="shared" si="0"/>
         <v>111.78999999999999</v>
       </c>
       <c r="AA26" s="15" t="s">
@@ -3777,11 +3880,13 @@
         <v>10.6</v>
       </c>
       <c r="AC26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>32</v>
       </c>
@@ -3850,21 +3955,25 @@
         <v>47.33</v>
       </c>
       <c r="Z27" s="15">
-        <f>W27+Y27</f>
+        <f t="shared" si="0"/>
         <v>96.08</v>
       </c>
-      <c r="AA27" s="33" t="s">
+      <c r="AA27" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="AB27" s="33">
+      <c r="AB27" s="25">
         <v>0</v>
       </c>
       <c r="AC27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD27" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE27" s="15"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>32</v>
       </c>
@@ -3933,7 +4042,7 @@
         <v>49.97</v>
       </c>
       <c r="Z28" s="15">
-        <f>W28+Y28</f>
+        <f t="shared" si="0"/>
         <v>130.1</v>
       </c>
       <c r="AA28" s="15" t="s">
@@ -3943,11 +4052,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="AC28" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>118</v>
       </c>
@@ -3961,13 +4072,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="37" t="s">
         <v>123</v>
       </c>
       <c r="I29" s="18"/>
@@ -4016,7 +4127,7 @@
         <v>22.61</v>
       </c>
       <c r="Z29" s="15">
-        <f>W29+Y29</f>
+        <f t="shared" si="0"/>
         <v>106.56</v>
       </c>
       <c r="AA29" s="15" t="s">
@@ -4026,11 +4137,13 @@
         <v>11.5</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>118</v>
       </c>
@@ -4044,9 +4157,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18">
@@ -4093,7 +4206,7 @@
         <v>28.81</v>
       </c>
       <c r="Z30" s="15">
-        <f>W30+Y30</f>
+        <f t="shared" si="0"/>
         <v>121.83</v>
       </c>
       <c r="AA30" s="15" t="s">
@@ -4103,11 +4216,15 @@
         <v>11.8</v>
       </c>
       <c r="AC30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>118</v>
       </c>
@@ -4121,9 +4238,9 @@
         <v>3</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18">
@@ -4170,7 +4287,7 @@
         <v>21.04</v>
       </c>
       <c r="Z31" s="15">
-        <f>W31+Y31</f>
+        <f t="shared" si="0"/>
         <v>113.22999999999999</v>
       </c>
       <c r="AA31" s="15" t="s">
@@ -4180,11 +4297,13 @@
         <v>12</v>
       </c>
       <c r="AC31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>41</v>
       </c>
@@ -4195,20 +4314,20 @@
       <c r="D32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="36">
         <v>44550</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="37" t="s">
         <v>124</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="28">
+      <c r="K32" s="37">
         <v>1</v>
       </c>
-      <c r="L32" s="28"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="18">
         <v>0</v>
       </c>
@@ -4224,27 +4343,29 @@
       </c>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="34" t="s">
+      <c r="T32" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="U32" s="34">
-        <v>0</v>
-      </c>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U32" s="26">
+        <v>0</v>
+      </c>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>41</v>
       </c>
@@ -4255,16 +4376,16 @@
       <c r="D33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="28"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="28">
+      <c r="K33" s="37">
         <v>1</v>
       </c>
-      <c r="L33" s="28"/>
+      <c r="L33" s="37"/>
       <c r="M33" s="18">
         <v>0</v>
       </c>
@@ -4309,11 +4430,13 @@
         <v>10.7</v>
       </c>
       <c r="AC33" s="15">
-        <f t="shared" ref="AC33:AC37" si="1">U33+AB33</f>
+        <f t="shared" ref="AC33:AC37" si="2">U33+AB33</f>
         <v>11.799999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
@@ -4324,16 +4447,16 @@
       <c r="D34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="28"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="28">
+      <c r="K34" s="37">
         <v>1</v>
       </c>
-      <c r="L34" s="28"/>
+      <c r="L34" s="37"/>
       <c r="M34" s="18">
         <v>0</v>
       </c>
@@ -4378,11 +4501,15 @@
         <v>10.199999999999999</v>
       </c>
       <c r="AC34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>41</v>
       </c>
@@ -4393,16 +4520,16 @@
       <c r="D35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="28"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="28">
+      <c r="K35" s="37">
         <v>1</v>
       </c>
-      <c r="L35" s="28"/>
+      <c r="L35" s="37"/>
       <c r="M35" s="18">
         <v>0</v>
       </c>
@@ -4447,11 +4574,13 @@
         <v>10.6</v>
       </c>
       <c r="AC35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>41</v>
       </c>
@@ -4462,16 +4591,16 @@
       <c r="D36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="28"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="28">
+      <c r="K36" s="37">
         <v>1</v>
       </c>
-      <c r="L36" s="28"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="18">
         <v>0</v>
       </c>
@@ -4516,11 +4645,13 @@
         <v>9.6</v>
       </c>
       <c r="AC36" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>42</v>
       </c>
@@ -4551,10 +4682,10 @@
       <c r="J37" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="37">
         <v>1</v>
       </c>
-      <c r="L37" s="28"/>
+      <c r="L37" s="37"/>
       <c r="M37" s="18">
         <v>0</v>
       </c>
@@ -4599,11 +4730,13 @@
         <v>10.3</v>
       </c>
       <c r="AC37" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>43</v>
       </c>
@@ -4615,7 +4748,7 @@
         <v>57</v>
       </c>
       <c r="E38" s="20"/>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="37" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="18"/>
@@ -4651,8 +4784,10 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="16"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>43</v>
       </c>
@@ -4664,7 +4799,7 @@
         <v>58</v>
       </c>
       <c r="E39" s="20"/>
-      <c r="F39" s="28"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
@@ -4698,8 +4833,10 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="16"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
@@ -4711,7 +4848,7 @@
         <v>59</v>
       </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="28"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
@@ -4745,8 +4882,10 @@
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="16"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>43</v>
       </c>
@@ -4758,7 +4897,7 @@
         <v>60</v>
       </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="28"/>
+      <c r="F41" s="37"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
@@ -4792,8 +4931,10 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="16"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>43</v>
       </c>
@@ -4805,7 +4946,7 @@
         <v>61</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
@@ -4839,16 +4980,13 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
       <c r="AC42" s="16"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="M9:M10"/>
+  <mergeCells count="105">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
@@ -4863,13 +5001,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
@@ -4881,14 +5012,6 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="F38:F42"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
@@ -4900,8 +5023,6 @@
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="F32:F36"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N3:N4"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="T7:T8"/>
@@ -4920,14 +5041,12 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="F7:F8"/>
@@ -4944,8 +5063,33 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4 Q6 Q10 R3:U7 R9:U42">
@@ -4981,9 +5125,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
@@ -4991,7 +5135,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>69</v>
       </c>
@@ -4999,7 +5143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -5007,7 +5151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>72</v>
       </c>
@@ -5015,7 +5159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>73</v>
       </c>
@@ -5023,7 +5167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>74</v>
       </c>
@@ -5031,7 +5175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>75</v>
       </c>
@@ -5039,7 +5183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>76</v>
       </c>
@@ -5047,7 +5191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5055,7 +5199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
@@ -5063,7 +5207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>79</v>
       </c>
@@ -5071,7 +5215,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>80</v>
       </c>
@@ -5079,7 +5223,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>81</v>
       </c>
@@ -5087,7 +5231,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>82</v>
       </c>
@@ -5095,7 +5239,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>83</v>
       </c>
@@ -5103,7 +5247,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>84</v>
       </c>
@@ -5111,7 +5255,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>85</v>
       </c>
@@ -5119,7 +5263,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>86</v>
       </c>
@@ -5127,7 +5271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>87</v>
       </c>
@@ -5135,7 +5279,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>88</v>
       </c>

--- a/01_metadata/AdultHW_census.xlsx
+++ b/01_metadata/AdultHW_census.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/rosemonde_power_sydney_edu_au/Documents/Documents/GitHub/heartworm_genome/01_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1330" documentId="8_{D2844F2A-C08A-4D67-958C-86A1BD40D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5941323-7AFE-4B8A-B493-58768F2E9CE0}"/>
+  <xr:revisionPtr revIDLastSave="1340" documentId="8_{D2844F2A-C08A-4D67-958C-86A1BD40D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02CF75F3-A97F-4DB0-A717-F9D5D295B7EB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -925,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,10 +945,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,14 +954,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,13 +1028,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,22 +1415,22 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1505,11 +1496,11 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1540,9 +1531,9 @@
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1573,9 +1564,9 @@
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1587,7 +1578,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1604,58 +1595,58 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1667,7 +1658,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1737,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1772,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1807,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>117</v>
       </c>
@@ -1820,15 +1811,15 @@
       <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1841,15 +1832,15 @@
       <c r="D22" s="4">
         <v>3</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1862,15 +1853,15 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1883,13 +1874,13 @@
       <c r="D24" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1908,3080 +1899,3080 @@
   </sheetPr>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.54296875" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.81640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.36328125" customWidth="1"/>
-    <col min="24" max="24" width="15.1796875" style="1" customWidth="1"/>
-    <col min="25" max="26" width="8.81640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.08984375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.54296875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.54296875" customWidth="1"/>
-    <col min="30" max="30" width="9.81640625" customWidth="1"/>
-    <col min="31" max="31" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="12" width="9.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" style="1" customWidth="1"/>
+    <col min="25" max="26" width="8.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5546875" customWidth="1"/>
+    <col min="30" max="30" width="9.77734375" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="24" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="35" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" s="34"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="19" t="s">
+      <c r="AE1" s="31"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="19" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="24">
         <v>44690</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="24">
         <v>44767</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="19" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="19" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="28" t="s">
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="AE2" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="33">
         <v>38083</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34">
         <v>4</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="35">
         <v>4</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26" t="s">
+      <c r="S3" s="23"/>
+      <c r="T3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="26"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="18" t="s">
+      <c r="U3" s="23"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="12">
         <v>33.22</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26" t="s">
+      <c r="S4" s="23"/>
+      <c r="T4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="U4" s="23"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34">
         <v>2</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="33">
         <v>38083</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34">
         <v>2</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="35">
         <v>1</v>
       </c>
-      <c r="M5" s="37">
-        <v>0</v>
-      </c>
-      <c r="N5" s="37" t="s">
+      <c r="M5" s="34">
+        <v>0</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="15">
         <v>37.909999999999997</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26" t="s">
+      <c r="S5" s="23"/>
+      <c r="T5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="26"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="18" t="s">
+      <c r="U5" s="23"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26" t="s">
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="U6" s="26"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="U6" s="23"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <v>3</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="33">
         <v>43013</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35">
         <v>1</v>
       </c>
-      <c r="L7" s="37">
-        <v>0</v>
-      </c>
-      <c r="M7" s="37">
-        <v>0</v>
-      </c>
-      <c r="N7" s="37" t="s">
+      <c r="L7" s="34">
+        <v>0</v>
+      </c>
+      <c r="M7" s="34">
+        <v>0</v>
+      </c>
+      <c r="N7" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="34">
         <v>13.6</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="37" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="15">
         <v>1643762</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="15">
         <v>69.69</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="12">
         <v>1267354</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="12">
         <v>53.73</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="12">
         <f>W7+Y7</f>
         <v>123.41999999999999</v>
       </c>
-      <c r="AA7" s="37" t="s">
+      <c r="AA7" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="36">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AC7" s="40">
+      <c r="AC7" s="36">
         <f>U7+AB7</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="18">
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="15">
         <v>3521376</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="15">
         <v>70.05</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="12">
         <v>2821388</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="12">
         <v>56.13</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="12">
         <f>W8+Y8</f>
         <v>126.18</v>
       </c>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34">
         <v>4</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35">
         <v>2</v>
       </c>
-      <c r="L9" s="37">
-        <v>0</v>
-      </c>
-      <c r="M9" s="37">
+      <c r="L9" s="34">
+        <v>0</v>
+      </c>
+      <c r="M9" s="34">
         <v>1</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26" t="s">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="26"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="18" t="s">
+      <c r="U9" s="23"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26" t="s">
+      <c r="S10" s="23"/>
+      <c r="T10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="U10" s="23"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15">
         <v>5</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="15">
         <v>13.86</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18" t="s">
+      <c r="S11" s="15"/>
+      <c r="T11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="15">
         <v>1.8</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="15">
         <v>10221124</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="15">
         <v>88.33</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="12">
         <v>1600672</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="12">
         <v>13.83</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="12">
         <f t="shared" ref="Z11:Z31" si="0">W11+Y11</f>
         <v>102.16</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="12">
         <v>17.7</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AC11" s="12">
         <f>U11+AB11</f>
         <v>19.5</v>
       </c>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15">
         <v>6</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <v>44441</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <v>1</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="18">
         <v>2</v>
       </c>
-      <c r="M12" s="18">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18" t="s">
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="15">
         <v>12.03</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="R12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18" t="s">
+      <c r="S12" s="15"/>
+      <c r="T12" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="15">
         <v>1.8</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="15">
         <v>9563708</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="15">
         <v>84.72</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="12">
         <v>1509502</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="12">
         <v>13.37</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="12">
         <f t="shared" si="0"/>
         <v>98.09</v>
       </c>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="12">
         <v>13.6</v>
       </c>
-      <c r="AC12" s="15">
+      <c r="AC12" s="12">
         <f t="shared" ref="AC12:AC32" si="1">U12+AB12</f>
         <v>15.4</v>
       </c>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15">
         <v>7</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="21">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="18">
         <v>1</v>
       </c>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18" t="s">
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="15">
         <v>14.16</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18" t="s">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="15">
         <v>1.7</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="15">
         <v>9835138</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="15">
         <v>91.76</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="12">
         <v>1505620</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="12">
         <v>14.05</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="12">
         <f t="shared" si="0"/>
         <v>105.81</v>
       </c>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="12">
         <v>12</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="12">
         <f t="shared" si="1"/>
         <v>13.7</v>
       </c>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15">
         <v>8</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="17">
         <v>44629</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-      <c r="M14" s="21" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="15">
         <v>14.47</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18" t="s">
+      <c r="S14" s="15"/>
+      <c r="T14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="15">
         <v>2226428</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="15">
         <v>30.96</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="12">
         <v>1933606</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="12">
         <v>26.89</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="Z14" s="12">
         <f t="shared" si="0"/>
         <v>57.85</v>
       </c>
-      <c r="AA14" s="25" t="s">
+      <c r="AA14" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="AB14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="15">
+      <c r="AB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="12">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD14" s="15" t="s">
+      <c r="AD14" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AE14" s="15" t="s">
+      <c r="AE14" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15">
         <v>9</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>44629</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18">
-        <v>0</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="21" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="15">
         <v>12.01</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18" t="s">
+      <c r="S15" s="15"/>
+      <c r="T15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="15">
         <v>1.7</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="15">
         <v>9641312</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="15">
         <v>89.12</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X15" s="12">
         <v>1471328</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Y15" s="12">
         <v>13.6</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="Z15" s="12">
         <f t="shared" si="0"/>
         <v>102.72</v>
       </c>
-      <c r="AA15" s="15" t="s">
+      <c r="AA15" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AB15" s="12">
         <v>10.5</v>
       </c>
-      <c r="AC15" s="15">
+      <c r="AC15" s="12">
         <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
         <v>10</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="38">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="35">
         <v>7</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="18">
-        <v>0</v>
-      </c>
-      <c r="N16" s="18" t="s">
+      <c r="L16" s="35"/>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="15">
         <v>33.64</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18" t="s">
+      <c r="S16" s="15"/>
+      <c r="T16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="15">
         <v>1.3</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="15">
         <v>87692</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="15">
         <v>1.06</v>
       </c>
-      <c r="X16" s="15">
+      <c r="X16" s="12">
         <v>684148</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y16" s="12">
         <v>8.27</v>
       </c>
-      <c r="Z16" s="15">
+      <c r="Z16" s="12">
         <f t="shared" si="0"/>
         <v>9.33</v>
       </c>
-      <c r="AA16" s="25" t="s">
+      <c r="AA16" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="AB16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="15">
+      <c r="AB16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="AD16" s="15" t="s">
+      <c r="AD16" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AE16" s="15" t="s">
+      <c r="AE16" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34">
         <v>1</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35">
         <v>1</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="35">
         <v>1</v>
       </c>
-      <c r="M17" s="37">
-        <v>0</v>
-      </c>
-      <c r="N17" s="37" t="s">
+      <c r="M17" s="34">
+        <v>0</v>
+      </c>
+      <c r="N17" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="15">
         <v>12.73</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18" t="s">
+      <c r="S17" s="15"/>
+      <c r="T17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="15">
         <v>1.7</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="15">
         <v>8571070</v>
       </c>
-      <c r="W17" s="18">
+      <c r="W17" s="15">
         <v>80.180000000000007</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="12">
         <v>573962</v>
       </c>
-      <c r="Y17" s="17">
+      <c r="Y17" s="14">
         <v>5.37</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="Z17" s="12">
         <f t="shared" si="0"/>
         <v>85.550000000000011</v>
       </c>
-      <c r="AA17" s="15" t="s">
+      <c r="AA17" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="12">
         <v>11.1</v>
       </c>
-      <c r="AC17" s="15">
+      <c r="AC17" s="12">
         <f t="shared" si="1"/>
         <v>12.799999999999999</v>
       </c>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="18" t="s">
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="15">
         <v>12.87</v>
       </c>
-      <c r="R18" s="18" t="s">
+      <c r="R18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18" t="s">
+      <c r="S18" s="15"/>
+      <c r="T18" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="15">
         <v>1.6</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="15">
         <v>6356666</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="15">
         <v>61.46</v>
       </c>
-      <c r="X18" s="15">
+      <c r="X18" s="12">
         <v>283292</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Y18" s="14">
         <v>2.74</v>
       </c>
-      <c r="Z18" s="15">
+      <c r="Z18" s="12">
         <f t="shared" si="0"/>
         <v>64.2</v>
       </c>
-      <c r="AA18" s="15" t="s">
+      <c r="AA18" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB18" s="15">
+      <c r="AB18" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AC18" s="15">
+      <c r="AC18" s="12">
         <f t="shared" si="1"/>
         <v>10.9</v>
       </c>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15">
         <v>1</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="18">
         <v>2</v>
       </c>
-      <c r="L19" s="18">
-        <v>0</v>
-      </c>
-      <c r="M19" s="18">
-        <v>0</v>
-      </c>
-      <c r="N19" s="18" t="s">
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="O19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="15">
         <v>11</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18" t="s">
+      <c r="S19" s="15"/>
+      <c r="T19" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="15">
         <v>1.7</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="15">
         <v>9773424</v>
       </c>
-      <c r="W19" s="18">
+      <c r="W19" s="15">
         <v>91.55</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="12">
         <v>2058486</v>
       </c>
-      <c r="Y19" s="15">
+      <c r="Y19" s="12">
         <v>19.28</v>
       </c>
-      <c r="Z19" s="15">
+      <c r="Z19" s="12">
         <f t="shared" si="0"/>
         <v>110.83</v>
       </c>
-      <c r="AA19" s="15" t="s">
+      <c r="AA19" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB19" s="15">
+      <c r="AB19" s="12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AC19" s="15">
+      <c r="AC19" s="12">
         <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>4814</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="15">
         <v>7.5</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="18">
         <v>2</v>
       </c>
-      <c r="L20" s="18">
-        <v>0</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0</v>
-      </c>
-      <c r="N20" s="18" t="s">
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="15">
         <v>12.85</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18" t="s">
+      <c r="S20" s="15"/>
+      <c r="T20" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="15">
         <v>2</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="15">
         <v>11520066</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="15">
         <v>90.47</v>
       </c>
-      <c r="X20" s="15">
+      <c r="X20" s="12">
         <v>1912352</v>
       </c>
-      <c r="Y20" s="15">
+      <c r="Y20" s="12">
         <v>15.02</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="12">
         <f t="shared" si="0"/>
         <v>105.49</v>
       </c>
-      <c r="AA20" s="15" t="s">
+      <c r="AA20" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB20" s="15">
+      <c r="AB20" s="12">
         <v>14.6</v>
       </c>
-      <c r="AC20" s="15">
+      <c r="AC20" s="12">
         <f t="shared" si="1"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="15">
         <v>4817</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>3</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="18">
         <v>3</v>
       </c>
-      <c r="L21" s="18">
-        <v>0</v>
-      </c>
-      <c r="M21" s="18">
-        <v>0</v>
-      </c>
-      <c r="N21" s="18" t="s">
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="15">
         <v>10.63</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18" t="s">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="15">
         <v>1.5</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="15">
         <v>8964336</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="15">
         <v>91.67</v>
       </c>
-      <c r="X21" s="15">
+      <c r="X21" s="12">
         <v>1377230</v>
       </c>
-      <c r="Y21" s="15">
+      <c r="Y21" s="12">
         <v>14.08</v>
       </c>
-      <c r="Z21" s="15">
+      <c r="Z21" s="12">
         <f t="shared" si="0"/>
         <v>105.75</v>
       </c>
-      <c r="AA21" s="15" t="s">
+      <c r="AA21" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB21" s="15">
+      <c r="AB21" s="12">
         <v>10.6</v>
       </c>
-      <c r="AC21" s="15">
+      <c r="AC21" s="12">
         <f t="shared" si="1"/>
         <v>12.1</v>
       </c>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="15">
         <v>4812</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>4</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="18">
         <v>3</v>
       </c>
-      <c r="L22" s="18">
-        <v>0</v>
-      </c>
-      <c r="M22" s="18">
-        <v>0</v>
-      </c>
-      <c r="N22" s="18" t="s">
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="15">
         <v>11.02</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18" t="s">
+      <c r="S22" s="15"/>
+      <c r="T22" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22" s="15">
         <v>1.9</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22" s="15">
         <v>10770726</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="15">
         <v>91.19</v>
       </c>
-      <c r="X22" s="15">
+      <c r="X22" s="12">
         <v>2207178</v>
       </c>
-      <c r="Y22" s="15">
+      <c r="Y22" s="12">
         <v>18.690000000000001</v>
       </c>
-      <c r="Z22" s="15">
+      <c r="Z22" s="12">
         <f t="shared" si="0"/>
         <v>109.88</v>
       </c>
-      <c r="AA22" s="15" t="s">
+      <c r="AA22" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB22" s="12">
         <v>11.6</v>
       </c>
-      <c r="AC22" s="15">
+      <c r="AC22" s="12">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="15">
         <v>4814</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>5</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="15">
         <v>3</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="18">
         <v>1</v>
       </c>
-      <c r="M23" s="18">
-        <v>0</v>
-      </c>
-      <c r="N23" s="18" t="s">
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="15">
         <v>12.04</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18" t="s">
+      <c r="S23" s="15"/>
+      <c r="T23" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="U23" s="18">
+      <c r="U23" s="15">
         <v>1.7</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="15">
         <v>8954284</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="15">
         <v>83.56</v>
       </c>
-      <c r="X23" s="15">
+      <c r="X23" s="12">
         <v>1811688</v>
       </c>
-      <c r="Y23" s="15">
+      <c r="Y23" s="12">
         <v>16.91</v>
       </c>
-      <c r="Z23" s="15">
+      <c r="Z23" s="12">
         <f t="shared" si="0"/>
         <v>100.47</v>
       </c>
-      <c r="AA23" s="15" t="s">
+      <c r="AA23" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB23" s="15">
+      <c r="AB23" s="12">
         <v>15</v>
       </c>
-      <c r="AC23" s="15">
+      <c r="AC23" s="12">
         <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <v>4818</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>6</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="15">
         <v>2</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="18">
         <v>1</v>
       </c>
-      <c r="M24" s="18">
-        <v>0</v>
-      </c>
-      <c r="N24" s="18" t="s">
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="15">
         <v>11.82</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18" t="s">
+      <c r="S24" s="15"/>
+      <c r="T24" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="15">
         <v>1.7</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="15">
         <v>8855324</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="15">
         <v>83.65</v>
       </c>
-      <c r="X24" s="15">
+      <c r="X24" s="12">
         <v>1613120</v>
       </c>
-      <c r="Y24" s="15">
+      <c r="Y24" s="12">
         <v>15.24</v>
       </c>
-      <c r="Z24" s="15">
+      <c r="Z24" s="12">
         <f t="shared" si="0"/>
         <v>98.89</v>
       </c>
-      <c r="AA24" s="15" t="s">
+      <c r="AA24" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB24" s="15">
+      <c r="AB24" s="12">
         <v>12.5</v>
       </c>
-      <c r="AC24" s="15">
+      <c r="AC24" s="12">
         <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="15">
         <v>4817</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>7</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="18">
         <v>3</v>
       </c>
-      <c r="L25" s="18">
-        <v>0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>0</v>
-      </c>
-      <c r="N25" s="18" t="s">
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="15">
         <v>10.92</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18" t="s">
+      <c r="S25" s="15"/>
+      <c r="T25" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="15">
         <v>1.7</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25" s="15">
         <v>10030028</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="15">
         <v>91.21</v>
       </c>
-      <c r="X25" s="15">
+      <c r="X25" s="12">
         <v>1484508</v>
       </c>
-      <c r="Y25" s="15">
+      <c r="Y25" s="12">
         <v>13.5</v>
       </c>
-      <c r="Z25" s="15">
+      <c r="Z25" s="12">
         <f t="shared" si="0"/>
         <v>104.71</v>
       </c>
-      <c r="AA25" s="15" t="s">
+      <c r="AA25" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="12">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AC25" s="15">
+      <c r="AC25" s="12">
         <f t="shared" si="1"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <v>4818</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>8</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="15">
         <v>6.5</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="18">
         <v>2</v>
       </c>
-      <c r="L26" s="18">
-        <v>0</v>
-      </c>
-      <c r="M26" s="18">
-        <v>0</v>
-      </c>
-      <c r="N26" s="18" t="s">
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="15">
         <v>11.29</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18" t="s">
+      <c r="S26" s="15"/>
+      <c r="T26" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="15">
         <v>1.6</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="15">
         <v>9551928</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="15">
         <v>91.88</v>
       </c>
-      <c r="X26" s="15">
+      <c r="X26" s="12">
         <v>2069634</v>
       </c>
-      <c r="Y26" s="15">
+      <c r="Y26" s="12">
         <v>19.91</v>
       </c>
-      <c r="Z26" s="15">
+      <c r="Z26" s="12">
         <f t="shared" si="0"/>
         <v>111.78999999999999</v>
       </c>
-      <c r="AA26" s="15" t="s">
+      <c r="AA26" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB26" s="15">
+      <c r="AB26" s="12">
         <v>10.6</v>
       </c>
-      <c r="AC26" s="15">
+      <c r="AC26" s="12">
         <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <v>4818</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>9</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="15">
         <v>1</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="18">
         <v>1</v>
       </c>
-      <c r="M27" s="18">
-        <v>0</v>
-      </c>
-      <c r="N27" s="18" t="s">
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="O27" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="P27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="15">
         <v>13.42</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18" t="s">
+      <c r="S27" s="15"/>
+      <c r="T27" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="15">
         <v>1</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="15">
         <v>3283516</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="15">
         <v>48.75</v>
       </c>
-      <c r="X27" s="15">
+      <c r="X27" s="12">
         <v>3188230</v>
       </c>
-      <c r="Y27" s="15">
+      <c r="Y27" s="12">
         <v>47.33</v>
       </c>
-      <c r="Z27" s="15">
+      <c r="Z27" s="12">
         <f t="shared" si="0"/>
         <v>96.08</v>
       </c>
-      <c r="AA27" s="25" t="s">
+      <c r="AA27" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="AB27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="15">
+      <c r="AB27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AD27" s="15" t="s">
+      <c r="AD27" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AE27" s="15"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="AE27" s="12"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <v>4818</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>10</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="15">
         <v>1</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="18">
         <v>1</v>
       </c>
-      <c r="M28" s="18">
-        <v>0</v>
-      </c>
-      <c r="N28" s="18" t="s">
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="O28" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="15">
         <v>12.35</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18" t="s">
+      <c r="S28" s="15"/>
+      <c r="T28" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="15">
         <v>1.2</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="15">
         <v>6141088</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="15">
         <v>80.13</v>
       </c>
-      <c r="X28" s="15">
+      <c r="X28" s="12">
         <v>3830222</v>
       </c>
-      <c r="Y28" s="15">
+      <c r="Y28" s="12">
         <v>49.97</v>
       </c>
-      <c r="Z28" s="15">
+      <c r="Z28" s="12">
         <f t="shared" si="0"/>
         <v>130.1</v>
       </c>
-      <c r="AA28" s="15" t="s">
+      <c r="AA28" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB28" s="15">
+      <c r="AB28" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AC28" s="15">
+      <c r="AC28" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="15">
         <v>4818</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="15">
         <v>1</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="37" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15">
         <v>18</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="15">
         <v>1</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="15">
         <v>2</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="18" t="s">
+      <c r="O29" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="15">
         <v>11.77</v>
       </c>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18" t="s">
+      <c r="R29" s="15"/>
+      <c r="S29" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="T29" s="18" t="s">
+      <c r="T29" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="15">
         <v>1.2</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V29" s="12">
         <v>6258212</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W29" s="12">
         <v>83.95</v>
       </c>
-      <c r="X29" s="15">
+      <c r="X29" s="12">
         <v>1685614</v>
       </c>
-      <c r="Y29" s="15">
+      <c r="Y29" s="12">
         <v>22.61</v>
       </c>
-      <c r="Z29" s="15">
+      <c r="Z29" s="12">
         <f t="shared" si="0"/>
         <v>106.56</v>
       </c>
-      <c r="AA29" s="15" t="s">
+      <c r="AA29" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB29" s="15">
+      <c r="AB29" s="12">
         <v>11.5</v>
       </c>
-      <c r="AC29" s="15">
+      <c r="AC29" s="12">
         <f t="shared" si="1"/>
         <v>12.7</v>
       </c>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="15">
         <v>4818</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="15">
         <v>2</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18">
+      <c r="E30" s="17"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15">
         <v>1</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="15">
         <v>1</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="15">
         <v>11.72</v>
       </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18" t="s">
+      <c r="R30" s="15"/>
+      <c r="S30" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="T30" s="18" t="s">
+      <c r="T30" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="15">
         <v>1.2</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="12">
         <v>6853468</v>
       </c>
-      <c r="W30" s="15">
+      <c r="W30" s="12">
         <v>93.02</v>
       </c>
-      <c r="X30" s="15">
+      <c r="X30" s="12">
         <v>2122318</v>
       </c>
-      <c r="Y30" s="15">
+      <c r="Y30" s="12">
         <v>28.81</v>
       </c>
-      <c r="Z30" s="15">
+      <c r="Z30" s="12">
         <f t="shared" si="0"/>
         <v>121.83</v>
       </c>
-      <c r="AA30" s="15" t="s">
+      <c r="AA30" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB30" s="15">
+      <c r="AB30" s="12">
         <v>11.8</v>
       </c>
-      <c r="AC30" s="15">
+      <c r="AC30" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15" t="s">
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="15">
         <v>4818</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="15">
         <v>3</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18">
+      <c r="E31" s="17"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15">
         <v>3</v>
       </c>
-      <c r="L31" s="18">
-        <v>0</v>
-      </c>
-      <c r="M31" s="18" t="s">
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="15">
         <v>10.79</v>
       </c>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18" t="s">
+      <c r="R31" s="15"/>
+      <c r="S31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="T31" s="18" t="s">
+      <c r="T31" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="15">
         <v>1.3</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V31" s="12">
         <v>7414180</v>
       </c>
-      <c r="W31" s="15">
+      <c r="W31" s="12">
         <v>92.19</v>
       </c>
-      <c r="X31" s="15">
+      <c r="X31" s="12">
         <v>1691960</v>
       </c>
-      <c r="Y31" s="15">
+      <c r="Y31" s="12">
         <v>21.04</v>
       </c>
-      <c r="Z31" s="15">
+      <c r="Z31" s="12">
         <f t="shared" si="0"/>
         <v>113.22999999999999</v>
       </c>
-      <c r="AA31" s="15" t="s">
+      <c r="AA31" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB31" s="15">
+      <c r="AB31" s="12">
         <v>12</v>
       </c>
-      <c r="AC31" s="15">
+      <c r="AC31" s="12">
         <f t="shared" si="1"/>
         <v>13.3</v>
       </c>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="33">
         <v>44550</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="37">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="34">
         <v>1</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="18">
-        <v>0</v>
-      </c>
-      <c r="N32" s="18" t="s">
+      <c r="L32" s="34"/>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="O32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18">
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15">
         <v>11.26</v>
       </c>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="26" t="s">
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="U32" s="26">
-        <v>0</v>
-      </c>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="25">
+      <c r="U32" s="23">
+        <v>0</v>
+      </c>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="37">
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="34">
         <v>1</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="18">
-        <v>0</v>
-      </c>
-      <c r="N33" s="18" t="s">
+      <c r="L33" s="34"/>
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="O33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18">
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15">
         <v>12.18</v>
       </c>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18" t="s">
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V33" s="15">
+      <c r="V33" s="12">
         <v>6308520</v>
       </c>
-      <c r="W33" s="15">
+      <c r="W33" s="12">
         <v>92.68</v>
       </c>
-      <c r="X33" s="15">
+      <c r="X33" s="12">
         <v>2994444</v>
       </c>
-      <c r="Y33" s="15">
+      <c r="Y33" s="12">
         <v>43.99</v>
       </c>
-      <c r="Z33" s="15">
+      <c r="Z33" s="12">
         <f>W33+Y33</f>
         <v>136.67000000000002</v>
       </c>
-      <c r="AA33" s="15" t="s">
+      <c r="AA33" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB33" s="15">
+      <c r="AB33" s="12">
         <v>10.7</v>
       </c>
-      <c r="AC33" s="15">
+      <c r="AC33" s="12">
         <f t="shared" ref="AC33:AC37" si="2">U33+AB33</f>
         <v>11.799999999999999</v>
       </c>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="37">
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="34">
         <v>1</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="18">
-        <v>0</v>
-      </c>
-      <c r="N34" s="18" t="s">
+      <c r="L34" s="34"/>
+      <c r="M34" s="15">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18">
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15">
         <v>15.29</v>
       </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18" t="s">
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="15">
         <v>1.5</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V34" s="12">
         <v>5211338</v>
       </c>
-      <c r="W34" s="15">
+      <c r="W34" s="12">
         <v>57.21</v>
       </c>
-      <c r="X34" s="15">
+      <c r="X34" s="12">
         <v>4197764</v>
       </c>
-      <c r="Y34" s="15">
+      <c r="Y34" s="12">
         <v>46.08</v>
       </c>
-      <c r="Z34" s="15">
+      <c r="Z34" s="12">
         <f>W34+Y34</f>
         <v>103.28999999999999</v>
       </c>
-      <c r="AA34" s="15" t="s">
+      <c r="AA34" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB34" s="15">
+      <c r="AB34" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="AC34" s="15">
+      <c r="AC34" s="12">
         <f t="shared" si="2"/>
         <v>11.7</v>
       </c>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15" t="s">
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="37">
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="34">
         <v>1</v>
       </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="18">
-        <v>0</v>
-      </c>
-      <c r="N35" s="18" t="s">
+      <c r="L35" s="34"/>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="18" t="s">
+      <c r="O35" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18">
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15">
         <v>14.97</v>
       </c>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18" t="s">
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V35" s="15">
+      <c r="V35" s="12">
         <v>5846276</v>
       </c>
-      <c r="W35" s="15">
+      <c r="W35" s="12">
         <v>86.52</v>
       </c>
-      <c r="X35" s="15">
+      <c r="X35" s="12">
         <v>2322782</v>
       </c>
-      <c r="Y35" s="15">
+      <c r="Y35" s="12">
         <v>34.380000000000003</v>
       </c>
-      <c r="Z35" s="15">
+      <c r="Z35" s="12">
         <f>W35+Y35</f>
         <v>120.9</v>
       </c>
-      <c r="AA35" s="15" t="s">
+      <c r="AA35" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB35" s="15">
+      <c r="AB35" s="12">
         <v>10.6</v>
       </c>
-      <c r="AC35" s="15">
+      <c r="AC35" s="12">
         <f t="shared" si="2"/>
         <v>11.7</v>
       </c>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="37">
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="34">
         <v>1</v>
       </c>
-      <c r="L36" s="37"/>
-      <c r="M36" s="18">
-        <v>0</v>
-      </c>
-      <c r="N36" s="18" t="s">
+      <c r="L36" s="34"/>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O36" s="18" t="s">
+      <c r="O36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18">
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15">
         <v>14.85</v>
       </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18" t="s">
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="U36" s="18">
+      <c r="U36" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V36" s="12">
         <v>6073506</v>
       </c>
-      <c r="W36" s="15">
+      <c r="W36" s="12">
         <v>85.25</v>
       </c>
-      <c r="X36" s="15">
+      <c r="X36" s="12">
         <v>2959652</v>
       </c>
-      <c r="Y36" s="15">
+      <c r="Y36" s="12">
         <v>41.54</v>
       </c>
-      <c r="Z36" s="15">
+      <c r="Z36" s="12">
         <f>W36+Y36</f>
         <v>126.78999999999999</v>
       </c>
-      <c r="AA36" s="15" t="s">
+      <c r="AA36" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB36" s="15">
+      <c r="AB36" s="12">
         <v>9.6</v>
       </c>
-      <c r="AC36" s="15">
+      <c r="AC36" s="12">
         <f t="shared" si="2"/>
         <v>10.7</v>
       </c>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="17">
         <v>44518</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="34">
         <v>1</v>
       </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="18">
-        <v>0</v>
-      </c>
-      <c r="N37" s="18" t="s">
+      <c r="L37" s="34"/>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O37" s="18" t="s">
+      <c r="O37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18">
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15">
         <v>12.04</v>
       </c>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18" t="s">
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U37" s="15">
         <v>1</v>
       </c>
-      <c r="V37" s="15">
+      <c r="V37" s="12">
         <v>5951552</v>
       </c>
-      <c r="W37" s="15">
+      <c r="W37" s="12">
         <v>94.04</v>
       </c>
-      <c r="X37" s="15">
+      <c r="X37" s="12">
         <v>2909924</v>
       </c>
-      <c r="Y37" s="15">
+      <c r="Y37" s="12">
         <v>45.98</v>
       </c>
-      <c r="Z37" s="15">
+      <c r="Z37" s="12">
         <f>W37+Y37</f>
         <v>140.02000000000001</v>
       </c>
-      <c r="AA37" s="15" t="s">
+      <c r="AA37" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB37" s="15">
+      <c r="AB37" s="12">
         <v>10.3</v>
       </c>
-      <c r="AC37" s="15">
+      <c r="AC37" s="12">
         <f t="shared" si="2"/>
         <v>11.3</v>
       </c>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="37" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18">
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15">
         <v>1</v>
       </c>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="18">
-        <v>0</v>
-      </c>
-      <c r="N38" s="18" t="s">
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18">
+      <c r="E39" s="17"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15">
         <v>1</v>
       </c>
-      <c r="L39" s="18">
-        <v>0</v>
-      </c>
-      <c r="M39" s="18">
-        <v>0</v>
-      </c>
-      <c r="N39" s="18" t="s">
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="O39" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18">
+      <c r="E40" s="17"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15">
         <v>1</v>
       </c>
-      <c r="L40" s="18">
-        <v>0</v>
-      </c>
-      <c r="M40" s="18">
-        <v>0</v>
-      </c>
-      <c r="N40" s="18" t="s">
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15">
+        <v>0</v>
+      </c>
+      <c r="N40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="18" t="s">
+      <c r="O40" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18">
-        <v>0</v>
-      </c>
-      <c r="L41" s="18">
+      <c r="E41" s="17"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
         <v>1</v>
       </c>
-      <c r="M41" s="18">
-        <v>0</v>
-      </c>
-      <c r="N41" s="18" t="s">
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O41" s="18" t="s">
+      <c r="O41" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18">
-        <v>0</v>
-      </c>
-      <c r="L42" s="18">
+      <c r="E42" s="17"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15">
+        <v>0</v>
+      </c>
+      <c r="L42" s="15">
         <v>1</v>
       </c>
-      <c r="M42" s="18">
-        <v>0</v>
-      </c>
-      <c r="N42" s="18" t="s">
+      <c r="M42" s="15">
+        <v>0</v>
+      </c>
+      <c r="N42" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O42" s="18" t="s">
+      <c r="O42" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="105">
@@ -5001,6 +4992,14 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
@@ -5023,7 +5022,6 @@
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="F32:F36"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="R7:R8"/>
@@ -5047,14 +5045,7 @@
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A1:A2"/>
@@ -5125,165 +5116,165 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>116</v>
       </c>
     </row>

--- a/01_metadata/AdultHW_census.xlsx
+++ b/01_metadata/AdultHW_census.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/rosemonde_power_sydney_edu_au/Documents/Documents/GitHub/heartworm_genome/01_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\01_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1340" documentId="8_{D2844F2A-C08A-4D67-958C-86A1BD40D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02CF75F3-A97F-4DB0-A717-F9D5D295B7EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3A1F8-FEF2-4445-8672-13B562FDDD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -1010,31 +1010,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1415,22 +1415,22 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.08984375" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1578,7 +1578,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1658,7 +1658,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>117</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1899,74 +1899,74 @@
   </sheetPr>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="12" width="9.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5546875" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.77734375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" style="1" customWidth="1"/>
-    <col min="25" max="26" width="8.77734375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.5546875" customWidth="1"/>
-    <col min="30" max="30" width="9.77734375" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.54296875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9.81640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.36328125" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="1" customWidth="1"/>
+    <col min="25" max="26" width="8.81640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.08984375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.54296875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.54296875" customWidth="1"/>
+    <col min="30" max="30" width="9.81640625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="32"/>
+      <c r="P1" s="30"/>
       <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="S1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="30" t="s">
         <v>139</v>
       </c>
       <c r="U1" s="16" t="s">
@@ -1990,31 +1990,31 @@
         <v>181</v>
       </c>
       <c r="Y1" s="21"/>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" s="31"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
+      <c r="AE1" s="36"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
       <c r="B2" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="32"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="16" t="s">
         <v>52</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="S2" s="24">
         <v>44767</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="30"/>
       <c r="U2" s="16" t="s">
         <v>186</v>
       </c>
@@ -2071,14 +2071,14 @@
       <c r="Y2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" s="32"/>
+      <c r="Z2" s="30"/>
       <c r="AA2" s="16" t="s">
         <v>183</v>
       </c>
       <c r="AB2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="32"/>
+      <c r="AC2" s="30"/>
       <c r="AD2" s="25" t="s">
         <v>190</v>
       </c>
@@ -2086,37 +2086,37 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>38083</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31">
         <v>4</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="33">
         <v>4</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="31" t="s">
         <v>48</v>
       </c>
       <c r="O3" s="15" t="s">
@@ -2147,21 +2147,21 @@
       <c r="AD3" s="26"/>
       <c r="AE3" s="26"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="15" t="s">
         <v>89</v>
       </c>
@@ -2190,37 +2190,37 @@
       <c r="AD4" s="26"/>
       <c r="AE4" s="26"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31">
         <v>2</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>38083</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31">
         <v>2</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="33">
         <v>1</v>
       </c>
-      <c r="M5" s="34">
-        <v>0</v>
-      </c>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="31">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>48</v>
       </c>
       <c r="O5" s="15" t="s">
@@ -2251,21 +2251,21 @@
       <c r="AD5" s="26"/>
       <c r="AE5" s="26"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="15" t="s">
         <v>90</v>
       </c>
@@ -2294,56 +2294,56 @@
       <c r="AD6" s="26"/>
       <c r="AE6" s="26"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31">
         <v>3</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>43013</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="33">
         <v>1</v>
       </c>
-      <c r="L7" s="34">
-        <v>0</v>
-      </c>
-      <c r="M7" s="34">
-        <v>0</v>
-      </c>
-      <c r="N7" s="34" t="s">
+      <c r="L7" s="31">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0</v>
+      </c>
+      <c r="N7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="31">
         <v>13.6</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="34" t="s">
         <v>96</v>
       </c>
       <c r="S7" s="15"/>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="36">
+      <c r="U7" s="37">
         <v>1.1000000000000001</v>
       </c>
       <c r="V7" s="15">
@@ -2362,41 +2362,41 @@
         <f>W7+Y7</f>
         <v>123.41999999999999</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" s="36">
+      <c r="AB7" s="37">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AC7" s="36">
+      <c r="AC7" s="37">
         <f>U7+AB7</f>
         <v>10.799999999999999</v>
       </c>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="38"/>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="34"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="37"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="38"/>
       <c r="V8" s="15">
         <v>3521376</v>
       </c>
@@ -2413,43 +2413,43 @@
         <f>W8+Y8</f>
         <v>126.18</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31">
         <v>4</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="33">
         <v>2</v>
       </c>
-      <c r="L9" s="34">
-        <v>0</v>
-      </c>
-      <c r="M9" s="34">
+      <c r="L9" s="31">
+        <v>0</v>
+      </c>
+      <c r="M9" s="31">
         <v>1</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="31" t="s">
         <v>48</v>
       </c>
       <c r="O9" s="15" t="s">
@@ -2480,21 +2480,21 @@
       <c r="AD9" s="26"/>
       <c r="AE9" s="26"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="15" t="s">
         <v>91</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="AD10" s="26"/>
       <c r="AE10" s="26"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>29</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>29</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="12"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
@@ -2953,10 +2953,10 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>7</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="15">
         <v>0</v>
       </c>
@@ -3015,35 +3015,35 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31">
         <v>1</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="33">
         <v>1</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="33">
         <v>1</v>
       </c>
-      <c r="M17" s="34">
-        <v>0</v>
-      </c>
-      <c r="N17" s="34" t="s">
+      <c r="M17" s="31">
+        <v>0</v>
+      </c>
+      <c r="N17" s="31" t="s">
         <v>48</v>
       </c>
       <c r="O17" s="15" t="s">
@@ -3094,21 +3094,21 @@
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="15" t="s">
         <v>68</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>32</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AE27" s="12"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>118</v>
       </c>
@@ -4063,13 +4063,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="31" t="s">
         <v>123</v>
       </c>
       <c r="I29" s="15"/>
@@ -4134,7 +4134,7 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>118</v>
       </c>
@@ -4148,9 +4148,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15">
@@ -4215,7 +4215,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>118</v>
       </c>
@@ -4229,9 +4229,9 @@
         <v>3</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15">
@@ -4294,7 +4294,7 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
@@ -4305,20 +4305,20 @@
       <c r="D32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="32">
         <v>44550</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="31" t="s">
         <v>124</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="34">
+      <c r="K32" s="31">
         <v>1</v>
       </c>
-      <c r="L32" s="34"/>
+      <c r="L32" s="31"/>
       <c r="M32" s="15">
         <v>0</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="AD32" s="26"/>
       <c r="AE32" s="26"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>41</v>
       </c>
@@ -4367,16 +4367,16 @@
       <c r="D33" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="34">
+      <c r="K33" s="31">
         <v>1</v>
       </c>
-      <c r="L33" s="34"/>
+      <c r="L33" s="31"/>
       <c r="M33" s="15">
         <v>0</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>41</v>
       </c>
@@ -4438,16 +4438,16 @@
       <c r="D34" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="34">
+      <c r="K34" s="31">
         <v>1</v>
       </c>
-      <c r="L34" s="34"/>
+      <c r="L34" s="31"/>
       <c r="M34" s="15">
         <v>0</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
@@ -4511,16 +4511,16 @@
       <c r="D35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="34">
+      <c r="K35" s="31">
         <v>1</v>
       </c>
-      <c r="L35" s="34"/>
+      <c r="L35" s="31"/>
       <c r="M35" s="15">
         <v>0</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
@@ -4582,16 +4582,16 @@
       <c r="D36" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="34">
+      <c r="K36" s="31">
         <v>1</v>
       </c>
-      <c r="L36" s="34"/>
+      <c r="L36" s="31"/>
       <c r="M36" s="15">
         <v>0</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>42</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>44518</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>42</v>
@@ -4673,10 +4673,10 @@
       <c r="J37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="31">
         <v>1</v>
       </c>
-      <c r="L37" s="34"/>
+      <c r="L37" s="31"/>
       <c r="M37" s="15">
         <v>0</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>57</v>
       </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="31" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="15"/>
@@ -4778,7 +4778,7 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>58</v>
       </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="34"/>
+      <c r="F39" s="31"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -4827,7 +4827,7 @@
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>43</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>59</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="34"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -4876,7 +4876,7 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>43</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>60</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="34"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -4925,7 +4925,7 @@
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>43</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>61</v>
       </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="34"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -4976,6 +4976,87 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N9:N10"/>
@@ -5000,87 +5081,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4 Q6 Q10 R3:U7 R9:U42">
@@ -5116,9 +5116,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>69</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>71</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>73</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>74</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>75</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>76</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>79</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>80</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>81</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>82</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>83</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>85</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>87</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>88</v>
       </c>

--- a/01_metadata/AdultHW_census.xlsx
+++ b/01_metadata/AdultHW_census.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\01_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3A1F8-FEF2-4445-8672-13B562FDDD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B9842-1E5F-45EE-AC66-946F41DFF51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
+    <workbookView xWindow="-105" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Shipping" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Census!$A$1:$M$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Census!$A$1:$M$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="229">
   <si>
     <t>HWs from Swaid</t>
   </si>
@@ -666,6 +666,114 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>JYD-27-A1</t>
+  </si>
+  <si>
+    <t>JYD-27-A2</t>
+  </si>
+  <si>
+    <t>MO-A1</t>
+  </si>
+  <si>
+    <t>MO-A2</t>
+  </si>
+  <si>
+    <t>Mike Dzimianski/Andrew Moorhead</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>US RES</t>
+  </si>
+  <si>
+    <t>US SUS</t>
+  </si>
+  <si>
+    <t>P1/23-A1</t>
+  </si>
+  <si>
+    <t>P1/23-A2</t>
+  </si>
+  <si>
+    <t>P1/23-A3</t>
+  </si>
+  <si>
+    <t>SSVS PM room</t>
+  </si>
+  <si>
+    <t>Many fragments</t>
+  </si>
+  <si>
+    <t>Piyanan Taweethavonsawat</t>
+  </si>
+  <si>
+    <t>P2/23-A1</t>
+  </si>
+  <si>
+    <t>P2/23-A2</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Sequence another segment of the same worm</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>P3/23-A1</t>
+  </si>
+  <si>
+    <t>Eloise Fenton</t>
+  </si>
+  <si>
+    <t>Great dane</t>
+  </si>
+  <si>
+    <t>P4/22-A3</t>
+  </si>
+  <si>
+    <t>P4/22-B3</t>
+  </si>
+  <si>
+    <t>P4/22-D3</t>
+  </si>
+  <si>
+    <t>P4/22-F2</t>
+  </si>
+  <si>
+    <t>Try new worm</t>
+  </si>
+  <si>
+    <t>P4/22-F3</t>
+  </si>
+  <si>
+    <t>Isolate</t>
+  </si>
+  <si>
+    <t>P5/22-A2</t>
+  </si>
+  <si>
+    <t>P5/22-D2</t>
+  </si>
+  <si>
+    <t>P5/22-E2</t>
+  </si>
+  <si>
+    <t>P5/22-F2</t>
+  </si>
+  <si>
+    <t>P5/22-I2</t>
+  </si>
+  <si>
+    <t>P5/22-J2</t>
+  </si>
+  <si>
+    <t>P6/22-A4</t>
   </si>
 </sst>
 </file>
@@ -776,12 +884,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF3333CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -810,8 +912,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -921,11 +1029,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -964,7 +1127,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,29 +1139,26 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1010,26 +1170,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,11 +1191,151 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1496,7 +1790,7 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1531,7 +1825,7 @@
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="28"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1564,7 +1858,7 @@
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -1897,15 +2191,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE42"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" customWidth="1"/>
@@ -1917,56 +2211,58 @@
     <col min="10" max="10" width="15.36328125" customWidth="1"/>
     <col min="11" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="54" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" style="7" customWidth="1"/>
     <col min="16" max="17" width="9.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.54296875" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.81640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.36328125" customWidth="1"/>
-    <col min="24" max="24" width="15.1796875" style="1" customWidth="1"/>
-    <col min="25" max="26" width="8.81640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.08984375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.54296875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.54296875" customWidth="1"/>
-    <col min="30" max="30" width="9.81640625" customWidth="1"/>
-    <col min="31" max="31" width="12.54296875" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.54296875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.81640625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="9.81640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.54296875" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" customWidth="1"/>
+    <col min="25" max="25" width="15.1796875" style="1" customWidth="1"/>
+    <col min="26" max="27" width="8.81640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.08984375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.54296875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.54296875" customWidth="1"/>
+    <col min="31" max="31" width="9.81640625" customWidth="1"/>
+    <col min="32" max="32" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="30"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
@@ -1976,45 +2272,48 @@
       <c r="S1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="18"/>
+      <c r="Y1" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AB1" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AE1" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" s="36"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
+      <c r="AF1" s="30"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
       <c r="B2" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2039,7 +2338,7 @@
       <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="16" t="s">
         <v>52</v>
       </c>
@@ -2049,77 +2348,80 @@
       <c r="Q2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="23">
         <v>44690</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="23">
         <v>44767</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="16" t="s">
+      <c r="T2" s="43">
+        <v>2023</v>
+      </c>
+      <c r="U2" s="31"/>
+      <c r="V2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="W2" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="X2" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Z2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AC2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AF2" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="50">
         <v>38083</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34">
         <v>4</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="34">
         <v>4</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="62" t="s">
         <v>49</v>
       </c>
       <c r="P3" s="15" t="s">
@@ -2128,41 +2430,42 @@
       <c r="Q3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23" t="s">
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="23"/>
       <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="15" t="s">
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="61"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="62" t="s">
         <v>89</v>
       </c>
       <c r="P4" s="15" t="s">
@@ -2171,617 +2474,485 @@
       <c r="Q4" s="12">
         <v>33.22</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23" t="s">
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="U4" s="23"/>
       <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31">
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="61"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O5" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U5" s="69"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34">
         <v>2</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E6" s="50">
         <v>38083</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34">
         <v>2</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L6" s="34">
         <v>1</v>
       </c>
-      <c r="M5" s="31">
-        <v>0</v>
-      </c>
-      <c r="N5" s="31" t="s">
+      <c r="M6" s="34">
+        <v>0</v>
+      </c>
+      <c r="N6" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O6" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q6" s="15">
         <v>37.909999999999997</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R6" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="23"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="15" t="s">
+      <c r="V6" s="22"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R7" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23" t="s">
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31">
+      <c r="V7" s="22"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O8" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U8" s="69"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33">
         <v>3</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E9" s="32">
         <v>43013</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="33">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33">
         <v>1</v>
       </c>
-      <c r="L7" s="31">
-        <v>0</v>
-      </c>
-      <c r="M7" s="31">
-        <v>0</v>
-      </c>
-      <c r="N7" s="31" t="s">
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="N9" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O9" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q9" s="33">
         <v>13.6</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="R9" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="31" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="37">
+      <c r="V9" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V7" s="15">
+      <c r="W9" s="15">
         <v>1643762</v>
       </c>
-      <c r="W7" s="15">
+      <c r="X9" s="15">
         <v>69.69</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y9" s="12">
         <v>1267354</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z9" s="12">
         <v>53.73</v>
       </c>
-      <c r="Z7" s="12">
-        <f>W7+Y7</f>
+      <c r="AA9" s="12">
+        <f>X9+Z9</f>
         <v>123.41999999999999</v>
       </c>
-      <c r="AA7" s="31" t="s">
+      <c r="AB9" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" s="37">
+      <c r="AC9" s="34">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AC7" s="37">
-        <f>U7+AB7</f>
+      <c r="AD9" s="34">
+        <f>V9+AC9</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="15">
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="15">
         <v>3521376</v>
       </c>
-      <c r="W8" s="15">
+      <c r="X10" s="15">
         <v>70.05</v>
       </c>
-      <c r="X8" s="12">
+      <c r="Y10" s="12">
         <v>2821388</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Z10" s="12">
         <v>56.13</v>
       </c>
-      <c r="Z8" s="12">
-        <f>W8+Y8</f>
+      <c r="AA10" s="12">
+        <f>X10+Z10</f>
         <v>126.18</v>
       </c>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31">
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34">
         <v>4</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E11" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="33">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34">
         <v>2</v>
       </c>
-      <c r="L9" s="31">
-        <v>0</v>
-      </c>
-      <c r="M9" s="31">
+      <c r="L11" s="34">
+        <v>0</v>
+      </c>
+      <c r="M11" s="34">
         <v>1</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O11" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23" t="s">
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="15" t="s">
+      <c r="V11" s="22"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23" t="s">
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="23"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>13.86</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="U11" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="V11" s="15">
-        <v>10221124</v>
-      </c>
-      <c r="W11" s="15">
-        <v>88.33</v>
-      </c>
-      <c r="X11" s="12">
-        <v>1600672</v>
-      </c>
-      <c r="Y11" s="12">
-        <v>13.83</v>
-      </c>
-      <c r="Z11" s="12">
-        <f t="shared" ref="Z11:Z31" si="0">W11+Y11</f>
-        <v>102.16</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB11" s="12">
-        <v>17.7</v>
-      </c>
-      <c r="AC11" s="12">
-        <f>U11+AB11</f>
-        <v>19.5</v>
-      </c>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>6</v>
-      </c>
-      <c r="E12" s="17">
-        <v>44441</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15">
-        <v>1</v>
-      </c>
-      <c r="L12" s="18">
-        <v>2</v>
-      </c>
-      <c r="M12" s="15">
-        <v>0</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>12.03</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="V12" s="15">
-        <v>9563708</v>
-      </c>
-      <c r="W12" s="15">
-        <v>84.72</v>
-      </c>
-      <c r="X12" s="12">
-        <v>1509502</v>
-      </c>
-      <c r="Y12" s="12">
-        <v>13.37</v>
-      </c>
-      <c r="Z12" s="12">
-        <f t="shared" si="0"/>
-        <v>98.09</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12" s="12">
-        <v>13.6</v>
-      </c>
-      <c r="AC12" s="12">
-        <f t="shared" ref="AC12:AC32" si="1">U12+AB12</f>
-        <v>15.4</v>
-      </c>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
-        <v>7</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="18">
-        <v>1</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>14.16</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="V13" s="15">
-        <v>9835138</v>
-      </c>
-      <c r="W13" s="15">
-        <v>91.76</v>
-      </c>
-      <c r="X13" s="12">
-        <v>1505620</v>
-      </c>
-      <c r="Y13" s="12">
-        <v>14.05</v>
-      </c>
-      <c r="Z13" s="12">
-        <f t="shared" si="0"/>
-        <v>105.81</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB13" s="12">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="12">
-        <f t="shared" si="1"/>
-        <v>13.7</v>
-      </c>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="V12" s="22"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U13" s="69"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>8</v>
-      </c>
-      <c r="E14" s="17">
-        <v>44629</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2793,2306 +2964,3455 @@
       <c r="L14" s="15">
         <v>0</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>13.86</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="V14" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="W14" s="15">
+        <v>10221124</v>
+      </c>
+      <c r="X14" s="15">
+        <v>88.33</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>1600672</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>13.83</v>
+      </c>
+      <c r="AA14" s="12">
+        <f t="shared" ref="AA14:AA44" si="0">X14+Z14</f>
+        <v>102.16</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="AD14" s="12">
+        <f>V14+AC14</f>
+        <v>19.5</v>
+      </c>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34">
+        <v>6</v>
+      </c>
+      <c r="E15" s="50">
+        <v>44441</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="L15" s="34">
+        <v>2</v>
+      </c>
+      <c r="M15" s="34">
+        <v>0</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>12.03</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="V15" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="W15" s="15">
+        <v>9563708</v>
+      </c>
+      <c r="X15" s="15">
+        <v>84.72</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>1509502</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>13.37</v>
+      </c>
+      <c r="AA15" s="12">
+        <f t="shared" si="0"/>
+        <v>98.09</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>13.6</v>
+      </c>
+      <c r="AD15" s="12">
+        <f t="shared" ref="AD15:AD45" si="1">V15+AC15</f>
+        <v>15.4</v>
+      </c>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="O16" s="66"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16" s="62"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" s="61"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U17" s="62"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="61"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O18" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U18" s="62"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" s="61"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>14.16</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="V19" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="W19" s="15">
+        <v>9835138</v>
+      </c>
+      <c r="X19" s="15">
+        <v>91.76</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>1505620</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>14.05</v>
+      </c>
+      <c r="AA19" s="12">
+        <f t="shared" si="0"/>
+        <v>105.81</v>
+      </c>
+      <c r="AB19" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="12">
+        <f t="shared" si="1"/>
+        <v>13.7</v>
+      </c>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="61"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="17">
+        <v>44629</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q20" s="15">
         <v>14.47</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R20" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15" t="s">
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="U14" s="15">
+      <c r="V20" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V14" s="15">
+      <c r="W20" s="15">
         <v>2226428</v>
       </c>
-      <c r="W14" s="15">
+      <c r="X20" s="15">
         <v>30.96</v>
       </c>
-      <c r="X14" s="12">
+      <c r="Y20" s="12">
         <v>1933606</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Z20" s="12">
         <v>26.89</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="AA20" s="12">
         <f t="shared" si="0"/>
         <v>57.85</v>
       </c>
-      <c r="AA14" s="22" t="s">
+      <c r="AB20" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AB14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="12">
+      <c r="AC20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="12">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD14" s="12" t="s">
+      <c r="AE20" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AE14" s="12" t="s">
+      <c r="AF20" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="61"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15">
         <v>9</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E21" s="17">
         <v>44629</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="18" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N21" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O21" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q21" s="15">
         <v>12.01</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R21" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15" t="s">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="U15" s="15">
+      <c r="V21" s="15">
         <v>1.7</v>
       </c>
-      <c r="V15" s="15">
+      <c r="W21" s="15">
         <v>9641312</v>
       </c>
-      <c r="W15" s="15">
+      <c r="X21" s="15">
         <v>89.12</v>
       </c>
-      <c r="X15" s="12">
+      <c r="Y21" s="12">
         <v>1471328</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Z21" s="12">
         <v>13.6</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="AA21" s="12">
         <f t="shared" si="0"/>
         <v>102.72</v>
       </c>
-      <c r="AA15" s="12" t="s">
+      <c r="AB21" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="AC21" s="12">
         <v>10.5</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AD21" s="12">
         <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="53"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
         <v>10</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="33">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="33">
         <v>7</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15" t="s">
+      <c r="L22" s="33"/>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O22" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q22" s="15">
         <v>33.64</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R22" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15" t="s">
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="U16" s="15">
+      <c r="V22" s="15">
         <v>1.3</v>
       </c>
-      <c r="V16" s="15">
+      <c r="W22" s="15">
         <v>87692</v>
       </c>
-      <c r="W16" s="15">
+      <c r="X22" s="15">
         <v>1.06</v>
       </c>
-      <c r="X16" s="12">
+      <c r="Y22" s="12">
         <v>684148</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Z22" s="12">
         <v>8.27</v>
       </c>
-      <c r="Z16" s="12">
+      <c r="AA22" s="12">
         <f t="shared" si="0"/>
         <v>9.33</v>
       </c>
-      <c r="AA16" s="22" t="s">
+      <c r="AB22" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AB16" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="12">
+      <c r="AC22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="12">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="AD16" s="12" t="s">
+      <c r="AE22" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AE16" s="12" t="s">
+      <c r="AF22" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B23" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33">
         <v>1</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="33">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33">
         <v>1</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L23" s="33">
         <v>1</v>
       </c>
-      <c r="M17" s="31">
-        <v>0</v>
-      </c>
-      <c r="N17" s="31" t="s">
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O23" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q23" s="15">
         <v>12.73</v>
       </c>
-      <c r="R17" s="15" t="s">
+      <c r="R23" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15" t="s">
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="U17" s="15">
+      <c r="V23" s="15">
         <v>1.7</v>
       </c>
-      <c r="V17" s="15">
+      <c r="W23" s="15">
         <v>8571070</v>
       </c>
-      <c r="W17" s="15">
+      <c r="X23" s="15">
         <v>80.180000000000007</v>
       </c>
-      <c r="X17" s="12">
+      <c r="Y23" s="12">
         <v>573962</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Z23" s="14">
         <v>5.37</v>
       </c>
-      <c r="Z17" s="12">
+      <c r="AA23" s="12">
         <f t="shared" si="0"/>
         <v>85.550000000000011</v>
       </c>
-      <c r="AA17" s="12" t="s">
+      <c r="AB23" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AC23" s="12">
         <v>11.1</v>
       </c>
-      <c r="AC17" s="12">
+      <c r="AD23" s="12">
         <f t="shared" si="1"/>
         <v>12.799999999999999</v>
       </c>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="15" t="s">
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A24" s="44"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q24" s="15">
         <v>12.87</v>
       </c>
-      <c r="R18" s="15" t="s">
+      <c r="R24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15" t="s">
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="U18" s="15">
+      <c r="V24" s="15">
         <v>1.6</v>
       </c>
-      <c r="V18" s="15">
+      <c r="W24" s="15">
         <v>6356666</v>
       </c>
-      <c r="W18" s="15">
+      <c r="X24" s="15">
         <v>61.46</v>
       </c>
-      <c r="X18" s="12">
+      <c r="Y24" s="12">
         <v>283292</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Z24" s="14">
         <v>2.74</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="AA24" s="12">
         <f t="shared" si="0"/>
         <v>64.2</v>
       </c>
-      <c r="AA18" s="12" t="s">
+      <c r="AB24" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AC24" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="AD24" s="12">
         <f t="shared" si="1"/>
         <v>10.9</v>
       </c>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34">
         <v>1</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E25" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G25" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H25" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I25" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J25" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K25" s="34">
         <v>2</v>
       </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15" t="s">
+      <c r="L25" s="34">
+        <v>0</v>
+      </c>
+      <c r="M25" s="34">
+        <v>0</v>
+      </c>
+      <c r="N25" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O25" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q25" s="15">
         <v>11</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15" t="s">
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="U19" s="15">
+      <c r="V25" s="15">
         <v>1.7</v>
       </c>
-      <c r="V19" s="15">
+      <c r="W25" s="15">
         <v>9773424</v>
       </c>
-      <c r="W19" s="15">
+      <c r="X25" s="15">
         <v>91.55</v>
       </c>
-      <c r="X19" s="12">
+      <c r="Y25" s="12">
         <v>2058486</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Z25" s="12">
         <v>19.28</v>
       </c>
-      <c r="Z19" s="12">
+      <c r="AA25" s="12">
         <f t="shared" si="0"/>
         <v>110.83</v>
       </c>
-      <c r="AA19" s="12" t="s">
+      <c r="AB25" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AC25" s="12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AD25" s="12">
         <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" s="61"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U26" s="62"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A27" s="61"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="15">
         <v>4814</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D27" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H27" s="15">
         <v>7.5</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J27" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K27" s="15">
         <v>2</v>
       </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-      <c r="N20" s="15" t="s">
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O27" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q27" s="15">
         <v>12.85</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15" t="s">
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="U20" s="15">
+      <c r="V27" s="15">
         <v>2</v>
       </c>
-      <c r="V20" s="15">
+      <c r="W27" s="15">
         <v>11520066</v>
       </c>
-      <c r="W20" s="15">
+      <c r="X27" s="15">
         <v>90.47</v>
       </c>
-      <c r="X20" s="12">
+      <c r="Y27" s="12">
         <v>1912352</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Z27" s="12">
         <v>15.02</v>
       </c>
-      <c r="Z20" s="12">
+      <c r="AA27" s="12">
         <f t="shared" si="0"/>
         <v>105.49</v>
       </c>
-      <c r="AA20" s="12" t="s">
+      <c r="AB27" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AC27" s="12">
         <v>14.6</v>
       </c>
-      <c r="AC20" s="12">
+      <c r="AD27" s="12">
         <f t="shared" si="1"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A28" s="61"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="15">
         <v>4817</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D28" s="15">
         <v>3</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15" t="s">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J28" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K28" s="15">
         <v>3</v>
       </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="15" t="s">
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O28" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q28" s="15">
         <v>10.63</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15" t="s">
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="U21" s="15">
+      <c r="V28" s="15">
         <v>1.5</v>
       </c>
-      <c r="V21" s="15">
+      <c r="W28" s="15">
         <v>8964336</v>
       </c>
-      <c r="W21" s="15">
+      <c r="X28" s="15">
         <v>91.67</v>
       </c>
-      <c r="X21" s="12">
+      <c r="Y28" s="12">
         <v>1377230</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Z28" s="12">
         <v>14.08</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="AA28" s="12">
         <f t="shared" si="0"/>
         <v>105.75</v>
       </c>
-      <c r="AA21" s="12" t="s">
+      <c r="AB28" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AC28" s="12">
         <v>10.6</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AD28" s="12">
         <f t="shared" si="1"/>
         <v>12.1</v>
       </c>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A29" s="61"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="34">
         <v>4812</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D29" s="34">
         <v>4</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E29" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F29" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G29" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H29" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
+      <c r="I29" s="34"/>
+      <c r="J29" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K29" s="34">
         <v>3</v>
       </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-      <c r="N22" s="15" t="s">
+      <c r="L29" s="34">
+        <v>0</v>
+      </c>
+      <c r="M29" s="34">
+        <v>0</v>
+      </c>
+      <c r="N29" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O29" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q29" s="15">
         <v>11.02</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15" t="s">
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="U22" s="15">
+      <c r="V29" s="15">
         <v>1.9</v>
       </c>
-      <c r="V22" s="15">
+      <c r="W29" s="15">
         <v>10770726</v>
       </c>
-      <c r="W22" s="15">
+      <c r="X29" s="15">
         <v>91.19</v>
       </c>
-      <c r="X22" s="12">
+      <c r="Y29" s="12">
         <v>2207178</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Z29" s="12">
         <v>18.690000000000001</v>
       </c>
-      <c r="Z22" s="12">
+      <c r="AA29" s="12">
         <f t="shared" si="0"/>
         <v>109.88</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="AB29" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB22" s="12">
+      <c r="AC29" s="12">
         <v>11.6</v>
       </c>
-      <c r="AC22" s="12">
+      <c r="AD29" s="12">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A30" s="61"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O30" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U30" s="62"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A31" s="61"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="34">
         <v>4814</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D31" s="34">
         <v>5</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E31" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F31" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G31" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15" t="s">
+      <c r="H31" s="34"/>
+      <c r="I31" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J31" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K31" s="34">
         <v>3</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L31" s="34">
         <v>1</v>
       </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
-      <c r="N23" s="15" t="s">
+      <c r="M31" s="34">
+        <v>0</v>
+      </c>
+      <c r="N31" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O31" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q31" s="15">
         <v>12.04</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R31" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15" t="s">
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="U23" s="15">
+      <c r="V31" s="15">
         <v>1.7</v>
       </c>
-      <c r="V23" s="15">
+      <c r="W31" s="15">
         <v>8954284</v>
       </c>
-      <c r="W23" s="15">
+      <c r="X31" s="15">
         <v>83.56</v>
       </c>
-      <c r="X23" s="12">
+      <c r="Y31" s="12">
         <v>1811688</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Z31" s="12">
         <v>16.91</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="AA31" s="12">
         <f t="shared" si="0"/>
         <v>100.47</v>
       </c>
-      <c r="AA23" s="12" t="s">
+      <c r="AB31" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AC31" s="12">
         <v>15</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AD31" s="12">
         <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="15">
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A32" s="61"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O32" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U32" s="62"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A33" s="61"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="34">
         <v>4818</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D33" s="34">
         <v>6</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E33" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F33" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G33" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H33" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I33" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J33" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K33" s="34">
         <v>2</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L33" s="34">
         <v>1</v>
       </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-      <c r="N24" s="15" t="s">
+      <c r="M33" s="34">
+        <v>0</v>
+      </c>
+      <c r="N33" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O33" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q33" s="15">
         <v>11.82</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15" t="s">
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="U24" s="15">
+      <c r="V33" s="15">
         <v>1.7</v>
       </c>
-      <c r="V24" s="15">
+      <c r="W33" s="15">
         <v>8855324</v>
       </c>
-      <c r="W24" s="15">
+      <c r="X33" s="15">
         <v>83.65</v>
       </c>
-      <c r="X24" s="12">
+      <c r="Y33" s="12">
         <v>1613120</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="Z33" s="12">
         <v>15.24</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="AA33" s="12">
         <f t="shared" si="0"/>
         <v>98.89</v>
       </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AB33" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB24" s="12">
+      <c r="AC33" s="12">
         <v>12.5</v>
       </c>
-      <c r="AC24" s="12">
+      <c r="AD33" s="12">
         <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A34" s="61"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O34" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U34" s="62"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A35" s="61"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="15">
         <v>4817</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D35" s="15">
         <v>7</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E35" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G35" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J35" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K35" s="15">
         <v>3</v>
       </c>
-      <c r="L25" s="15">
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
-        <v>0</v>
-      </c>
-      <c r="N25" s="15" t="s">
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O35" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q35" s="15">
         <v>10.92</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15" t="s">
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="U25" s="15">
+      <c r="V35" s="15">
         <v>1.7</v>
       </c>
-      <c r="V25" s="15">
+      <c r="W35" s="15">
         <v>10030028</v>
       </c>
-      <c r="W25" s="15">
+      <c r="X35" s="15">
         <v>91.21</v>
       </c>
-      <c r="X25" s="12">
+      <c r="Y35" s="12">
         <v>1484508</v>
       </c>
-      <c r="Y25" s="12">
+      <c r="Z35" s="12">
         <v>13.5</v>
       </c>
-      <c r="Z25" s="12">
+      <c r="AA35" s="12">
         <f t="shared" si="0"/>
         <v>104.71</v>
       </c>
-      <c r="AA25" s="12" t="s">
+      <c r="AB35" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB25" s="12">
+      <c r="AC35" s="12">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AC25" s="12">
+      <c r="AD35" s="12">
         <f t="shared" si="1"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="15">
         <v>4818</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D36" s="15">
         <v>8</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G36" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H36" s="15">
         <v>6.5</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I36" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J36" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K36" s="15">
         <v>2</v>
       </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-      <c r="N26" s="15" t="s">
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O36" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q36" s="15">
         <v>11.29</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15" t="s">
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="U26" s="15">
+      <c r="V36" s="15">
         <v>1.6</v>
       </c>
-      <c r="V26" s="15">
+      <c r="W36" s="15">
         <v>9551928</v>
       </c>
-      <c r="W26" s="15">
+      <c r="X36" s="15">
         <v>91.88</v>
       </c>
-      <c r="X26" s="12">
+      <c r="Y36" s="12">
         <v>2069634</v>
       </c>
-      <c r="Y26" s="12">
+      <c r="Z36" s="12">
         <v>19.91</v>
       </c>
-      <c r="Z26" s="12">
+      <c r="AA36" s="12">
         <f t="shared" si="0"/>
         <v>111.78999999999999</v>
       </c>
-      <c r="AA26" s="12" t="s">
+      <c r="AB36" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB26" s="12">
+      <c r="AC36" s="12">
         <v>10.6</v>
       </c>
-      <c r="AC26" s="12">
+      <c r="AD36" s="12">
         <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A37" s="61"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="34">
         <v>4818</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D37" s="34">
         <v>9</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="15" t="s">
+      <c r="E37" s="50"/>
+      <c r="F37" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J37" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K37" s="34">
         <v>1</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L37" s="34">
         <v>1</v>
       </c>
-      <c r="M27" s="15">
-        <v>0</v>
-      </c>
-      <c r="N27" s="15" t="s">
+      <c r="M37" s="34">
+        <v>0</v>
+      </c>
+      <c r="N37" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="O37" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q37" s="15">
         <v>13.42</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15" t="s">
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="U27" s="15">
+      <c r="V37" s="15">
         <v>1</v>
       </c>
-      <c r="V27" s="15">
+      <c r="W37" s="15">
         <v>3283516</v>
       </c>
-      <c r="W27" s="15">
+      <c r="X37" s="15">
         <v>48.75</v>
       </c>
-      <c r="X27" s="12">
+      <c r="Y37" s="12">
         <v>3188230</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Z37" s="12">
         <v>47.33</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="AA37" s="12">
         <f t="shared" si="0"/>
         <v>96.08</v>
       </c>
-      <c r="AA27" s="22" t="s">
+      <c r="AB37" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AB27" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="12">
+      <c r="AC37" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AD27" s="12" t="s">
+      <c r="AE37" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AE27" s="12"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="15">
-        <v>4818</v>
-      </c>
-      <c r="D28" s="15">
-        <v>10</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" s="15">
-        <v>1</v>
-      </c>
-      <c r="L28" s="18">
-        <v>1</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>12.35</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="U28" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="V28" s="15">
-        <v>6141088</v>
-      </c>
-      <c r="W28" s="15">
-        <v>80.13</v>
-      </c>
-      <c r="X28" s="12">
-        <v>3830222</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>49.97</v>
-      </c>
-      <c r="Z28" s="12">
-        <f t="shared" si="0"/>
-        <v>130.1</v>
-      </c>
-      <c r="AA28" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB28" s="12">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AC28" s="12">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="15">
-        <v>4818</v>
-      </c>
-      <c r="D29" s="15">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15">
-        <v>18</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1</v>
-      </c>
-      <c r="M29" s="15">
-        <v>2</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>11.77</v>
-      </c>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="T29" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="U29" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="V29" s="12">
-        <v>6258212</v>
-      </c>
-      <c r="W29" s="12">
-        <v>83.95</v>
-      </c>
-      <c r="X29" s="12">
-        <v>1685614</v>
-      </c>
-      <c r="Y29" s="12">
-        <v>22.61</v>
-      </c>
-      <c r="Z29" s="12">
-        <f t="shared" si="0"/>
-        <v>106.56</v>
-      </c>
-      <c r="AA29" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB29" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="AC29" s="12">
-        <f t="shared" si="1"/>
-        <v>12.7</v>
-      </c>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="15">
-        <v>4818</v>
-      </c>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15">
-        <v>1</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="P30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>11.72</v>
-      </c>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="T30" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="U30" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="V30" s="12">
-        <v>6853468</v>
-      </c>
-      <c r="W30" s="12">
-        <v>93.02</v>
-      </c>
-      <c r="X30" s="12">
-        <v>2122318</v>
-      </c>
-      <c r="Y30" s="12">
-        <v>28.81</v>
-      </c>
-      <c r="Z30" s="12">
-        <f t="shared" si="0"/>
-        <v>121.83</v>
-      </c>
-      <c r="AA30" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB30" s="12">
-        <v>11.8</v>
-      </c>
-      <c r="AC30" s="12">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="15">
-        <v>4818</v>
-      </c>
-      <c r="D31" s="15">
-        <v>3</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15">
-        <v>3</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>10.79</v>
-      </c>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="T31" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="U31" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="V31" s="12">
-        <v>7414180</v>
-      </c>
-      <c r="W31" s="12">
-        <v>92.19</v>
-      </c>
-      <c r="X31" s="12">
-        <v>1691960</v>
-      </c>
-      <c r="Y31" s="12">
-        <v>21.04</v>
-      </c>
-      <c r="Z31" s="12">
-        <f t="shared" si="0"/>
-        <v>113.22999999999999</v>
-      </c>
-      <c r="AA31" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB31" s="12">
-        <v>12</v>
-      </c>
-      <c r="AC31" s="12">
-        <f t="shared" si="1"/>
-        <v>13.3</v>
-      </c>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="32">
-        <v>44550</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="31">
-        <v>1</v>
-      </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="15">
-        <v>0</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15">
-        <v>11.26</v>
-      </c>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="U32" s="23">
-        <v>0</v>
-      </c>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="31">
-        <v>1</v>
-      </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="15">
-        <v>0</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15">
-        <v>12.18</v>
-      </c>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="U33" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V33" s="12">
-        <v>6308520</v>
-      </c>
-      <c r="W33" s="12">
-        <v>92.68</v>
-      </c>
-      <c r="X33" s="12">
-        <v>2994444</v>
-      </c>
-      <c r="Y33" s="12">
-        <v>43.99</v>
-      </c>
-      <c r="Z33" s="12">
-        <f>W33+Y33</f>
-        <v>136.67000000000002</v>
-      </c>
-      <c r="AA33" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB33" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="AC33" s="12">
-        <f t="shared" ref="AC33:AC37" si="2">U33+AB33</f>
-        <v>11.799999999999999</v>
-      </c>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="31">
-        <v>1</v>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="15">
-        <v>0</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15">
-        <v>15.29</v>
-      </c>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="U34" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="V34" s="12">
-        <v>5211338</v>
-      </c>
-      <c r="W34" s="12">
-        <v>57.21</v>
-      </c>
-      <c r="X34" s="12">
-        <v>4197764</v>
-      </c>
-      <c r="Y34" s="12">
-        <v>46.08</v>
-      </c>
-      <c r="Z34" s="12">
-        <f>W34+Y34</f>
-        <v>103.28999999999999</v>
-      </c>
-      <c r="AA34" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB34" s="12">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AC34" s="12">
-        <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="31">
-        <v>1</v>
-      </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-      <c r="N35" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15">
-        <v>14.97</v>
-      </c>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="U35" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V35" s="12">
-        <v>5846276</v>
-      </c>
-      <c r="W35" s="12">
-        <v>86.52</v>
-      </c>
-      <c r="X35" s="12">
-        <v>2322782</v>
-      </c>
-      <c r="Y35" s="12">
-        <v>34.380000000000003</v>
-      </c>
-      <c r="Z35" s="12">
-        <f>W35+Y35</f>
-        <v>120.9</v>
-      </c>
-      <c r="AA35" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB35" s="12">
-        <v>10.6</v>
-      </c>
-      <c r="AC35" s="12">
-        <f t="shared" si="2"/>
-        <v>11.7</v>
-      </c>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="31">
-        <v>1</v>
-      </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="15">
-        <v>0</v>
-      </c>
-      <c r="N36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15">
-        <v>14.85</v>
-      </c>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="U36" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V36" s="12">
-        <v>6073506</v>
-      </c>
-      <c r="W36" s="12">
-        <v>85.25</v>
-      </c>
-      <c r="X36" s="12">
-        <v>2959652</v>
-      </c>
-      <c r="Y36" s="12">
-        <v>41.54</v>
-      </c>
-      <c r="Z36" s="12">
-        <f>W36+Y36</f>
-        <v>126.78999999999999</v>
-      </c>
-      <c r="AA36" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB36" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="AC36" s="12">
-        <f t="shared" si="2"/>
-        <v>10.7</v>
-      </c>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="17">
-        <v>44518</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="31">
-        <v>1</v>
-      </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15">
-        <v>12.04</v>
-      </c>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="U37" s="15">
-        <v>1</v>
-      </c>
-      <c r="V37" s="12">
-        <v>5951552</v>
-      </c>
-      <c r="W37" s="12">
-        <v>94.04</v>
-      </c>
-      <c r="X37" s="12">
-        <v>2909924</v>
-      </c>
-      <c r="Y37" s="12">
-        <v>45.98</v>
-      </c>
-      <c r="Z37" s="12">
-        <f>W37+Y37</f>
-        <v>140.02000000000001</v>
-      </c>
-      <c r="AA37" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB37" s="12">
-        <v>10.3</v>
-      </c>
-      <c r="AC37" s="12">
-        <f t="shared" si="2"/>
-        <v>11.3</v>
-      </c>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15">
-        <v>1</v>
-      </c>
-      <c r="L38" s="15">
-        <v>0</v>
-      </c>
-      <c r="M38" s="15">
-        <v>0</v>
-      </c>
-      <c r="N38" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="12"/>
+      <c r="AF37" s="12"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" s="61"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O38" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U38" s="62"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="13"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15">
+      <c r="AF38" s="12"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" s="61"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="34">
+        <v>4818</v>
+      </c>
+      <c r="D39" s="34">
+        <v>10</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" s="34">
         <v>1</v>
       </c>
-      <c r="L39" s="15">
-        <v>0</v>
-      </c>
-      <c r="M39" s="15">
-        <v>0</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
+      <c r="L39" s="34">
+        <v>1</v>
+      </c>
+      <c r="M39" s="34">
+        <v>0</v>
+      </c>
+      <c r="N39" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>12.35</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="12"/>
+      <c r="U39" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="V39" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="W39" s="15">
+        <v>6141088</v>
+      </c>
+      <c r="X39" s="15">
+        <v>80.13</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>3830222</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>49.97</v>
+      </c>
+      <c r="AA39" s="12">
+        <f t="shared" si="0"/>
+        <v>130.1</v>
+      </c>
+      <c r="AB39" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AD39" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="AE39" s="12"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15">
-        <v>1</v>
-      </c>
-      <c r="L40" s="15">
-        <v>0</v>
-      </c>
-      <c r="M40" s="15">
-        <v>0</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="12"/>
+      <c r="AF39" s="12"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="53"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O40" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U40" s="62"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
-      <c r="AC40" s="13"/>
+      <c r="AC40" s="12"/>
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="15">
+      <c r="AF40" s="12"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A41" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="34">
+        <v>4818</v>
+      </c>
+      <c r="D41" s="34">
         <v>1</v>
       </c>
-      <c r="M41" s="15">
-        <v>0</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O41" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34">
+        <v>18</v>
+      </c>
+      <c r="L41" s="34">
+        <v>1</v>
+      </c>
+      <c r="M41" s="34">
+        <v>2</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>11.77</v>
+      </c>
       <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
+      <c r="S41" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="12"/>
+      <c r="U41" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="V41" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="W41" s="12">
+        <v>6258212</v>
+      </c>
+      <c r="X41" s="12">
+        <v>83.95</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>1685614</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>22.61</v>
+      </c>
+      <c r="AA41" s="12">
+        <f t="shared" si="0"/>
+        <v>106.56</v>
+      </c>
+      <c r="AB41" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>11.5</v>
+      </c>
+      <c r="AD41" s="12">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
       <c r="AE41" s="12"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15">
-        <v>0</v>
-      </c>
-      <c r="L42" s="15">
-        <v>1</v>
-      </c>
-      <c r="M42" s="15">
-        <v>0</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
+      <c r="AF41" s="12"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A42" s="61"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="O42" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U42" s="62"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="12"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
-      <c r="AC42" s="13"/>
+      <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="61"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="15">
+        <v>2</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15">
+        <v>1</v>
+      </c>
+      <c r="L43" s="15">
+        <v>1</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>11.72</v>
+      </c>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="T43" s="15"/>
+      <c r="U43" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="V43" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="W43" s="12">
+        <v>6853468</v>
+      </c>
+      <c r="X43" s="12">
+        <v>93.02</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>2122318</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>28.81</v>
+      </c>
+      <c r="AA43" s="12">
+        <f t="shared" si="0"/>
+        <v>121.83</v>
+      </c>
+      <c r="AB43" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>11.8</v>
+      </c>
+      <c r="AD43" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="53"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="15">
+        <v>3</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15">
+        <v>3</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N44" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>10.79</v>
+      </c>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="T44" s="15"/>
+      <c r="U44" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="V44" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="W44" s="12">
+        <v>7414180</v>
+      </c>
+      <c r="X44" s="12">
+        <v>92.19</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>1691960</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>21.04</v>
+      </c>
+      <c r="AA44" s="12">
+        <f t="shared" si="0"/>
+        <v>113.22999999999999</v>
+      </c>
+      <c r="AB44" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>12</v>
+      </c>
+      <c r="AD44" s="12">
+        <f t="shared" si="1"/>
+        <v>13.3</v>
+      </c>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="32">
+        <v>44550</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="33">
+        <v>1</v>
+      </c>
+      <c r="L45" s="33"/>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15">
+        <v>11.26</v>
+      </c>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="V45" s="22">
+        <v>0</v>
+      </c>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="61"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="33">
+        <v>1</v>
+      </c>
+      <c r="L46" s="33"/>
+      <c r="M46" s="15">
+        <v>0</v>
+      </c>
+      <c r="N46" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15">
+        <v>12.18</v>
+      </c>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="V46" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W46" s="12">
+        <v>6308520</v>
+      </c>
+      <c r="X46" s="12">
+        <v>92.68</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>2994444</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>43.99</v>
+      </c>
+      <c r="AA46" s="12">
+        <f>X46+Z46</f>
+        <v>136.67000000000002</v>
+      </c>
+      <c r="AB46" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>10.7</v>
+      </c>
+      <c r="AD46" s="12">
+        <f t="shared" ref="AD46:AD51" si="2">V46+AC46</f>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="61"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="33">
+        <v>1</v>
+      </c>
+      <c r="L47" s="33"/>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15">
+        <v>15.29</v>
+      </c>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="V47" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="W47" s="12">
+        <v>5211338</v>
+      </c>
+      <c r="X47" s="12">
+        <v>57.21</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>4197764</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>46.08</v>
+      </c>
+      <c r="AA47" s="12">
+        <f>X47+Z47</f>
+        <v>103.28999999999999</v>
+      </c>
+      <c r="AB47" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AD47" s="12">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A48" s="61"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="46">
+        <v>1</v>
+      </c>
+      <c r="L48" s="47"/>
+      <c r="M48" s="34">
+        <v>0</v>
+      </c>
+      <c r="N48" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15">
+        <v>14.97</v>
+      </c>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="V48" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W48" s="12">
+        <v>5846276</v>
+      </c>
+      <c r="X48" s="12">
+        <v>86.52</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>2322782</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="AA48" s="12">
+        <f>X48+Z48</f>
+        <v>120.9</v>
+      </c>
+      <c r="AB48" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>10.6</v>
+      </c>
+      <c r="AD48" s="12">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A49" s="61"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="O49" s="66"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U49" s="62"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A50" s="53"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="33">
+        <v>1</v>
+      </c>
+      <c r="L50" s="33"/>
+      <c r="M50" s="15">
+        <v>0</v>
+      </c>
+      <c r="N50" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15">
+        <v>14.85</v>
+      </c>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="V50" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W50" s="12">
+        <v>6073506</v>
+      </c>
+      <c r="X50" s="12">
+        <v>85.25</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>2959652</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>41.54</v>
+      </c>
+      <c r="AA50" s="12">
+        <f>X50+Z50</f>
+        <v>126.78999999999999</v>
+      </c>
+      <c r="AB50" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC50" s="12">
+        <v>9.6</v>
+      </c>
+      <c r="AD50" s="12">
+        <f t="shared" si="2"/>
+        <v>10.7</v>
+      </c>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A51" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="17">
+        <v>44518</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="33">
+        <v>1</v>
+      </c>
+      <c r="L51" s="33"/>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+      <c r="N51" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O51" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15">
+        <v>12.04</v>
+      </c>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="V51" s="15">
+        <v>1</v>
+      </c>
+      <c r="W51" s="12">
+        <v>5951552</v>
+      </c>
+      <c r="X51" s="12">
+        <v>94.04</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>2909924</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>45.98</v>
+      </c>
+      <c r="AA51" s="12">
+        <f>X51+Z51</f>
+        <v>140.02000000000001</v>
+      </c>
+      <c r="AB51" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC51" s="12">
+        <v>10.3</v>
+      </c>
+      <c r="AD51" s="12">
+        <f t="shared" si="2"/>
+        <v>11.3</v>
+      </c>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A52" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="50"/>
+      <c r="F52" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34">
+        <v>1</v>
+      </c>
+      <c r="L52" s="34">
+        <v>0</v>
+      </c>
+      <c r="M52" s="34">
+        <v>0</v>
+      </c>
+      <c r="N52" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O52" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A53" s="61"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="O53" s="66"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U53" s="62"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A54" s="61"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15">
+        <v>1</v>
+      </c>
+      <c r="L54" s="15">
+        <v>0</v>
+      </c>
+      <c r="M54" s="15">
+        <v>0</v>
+      </c>
+      <c r="N54" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O54" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A55" s="61"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15">
+        <v>1</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+      <c r="N55" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O55" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A56" s="61"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <v>1</v>
+      </c>
+      <c r="M56" s="15">
+        <v>0</v>
+      </c>
+      <c r="N56" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O56" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A57" s="53"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <v>1</v>
+      </c>
+      <c r="M57" s="15">
+        <v>0</v>
+      </c>
+      <c r="N57" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O57" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A58" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39">
+        <v>1</v>
+      </c>
+      <c r="E58" s="40">
+        <v>44990</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39">
+        <v>1</v>
+      </c>
+      <c r="L58" s="39">
+        <v>1</v>
+      </c>
+      <c r="M58" s="39"/>
+      <c r="N58" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="O58" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="P58" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U58" s="68"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A59" s="38"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="P59" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U59" s="68"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A60" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39">
+        <v>2</v>
+      </c>
+      <c r="E60" s="40">
+        <v>44990</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39">
+        <v>1</v>
+      </c>
+      <c r="L60" s="39">
+        <v>1</v>
+      </c>
+      <c r="M60" s="39"/>
+      <c r="N60" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="O60" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="P60" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U60" s="68"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="P61" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U61" s="68"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A62" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="40">
+        <v>45034</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="N62" s="56"/>
+      <c r="O62" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="P62" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U62" s="68"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="P63" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U63" s="68"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="P64" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U64" s="68"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A65" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39">
+        <v>1</v>
+      </c>
+      <c r="L65" s="39">
+        <v>1</v>
+      </c>
+      <c r="M65" s="39"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="P65" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U65" s="68"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="P66" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U66" s="68"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A67" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="U67" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="AD1:AE1"/>
+  <mergeCells count="257">
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="A25:A40"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="B3:B22"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Q4 Q6 Q10 R3:U7 R9:U42">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sequence">
+  <conditionalFormatting sqref="Q4:Q5 Q7:Q8 Q12:Q13 R3:V9 R11:V57">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Sequence">
       <formula>NOT(ISERROR(SEARCH("Sequence",Q3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No action">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="No action">
       <formula>NOT(ISERROR(SEARCH("No action",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W42 Y3:Y42">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="X3:X57 Z3:Z57">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="70"/>
@@ -5101,6 +6421,22 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T65:T67">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sequence">
+      <formula>NOT(ISERROR(SEARCH("Sequence",T65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No action">
+      <formula>NOT(ISERROR(SEARCH("No action",T65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58:T64">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sequence">
+      <formula>NOT(ISERROR(SEARCH("Sequence",T58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No action">
+      <formula>NOT(ISERROR(SEARCH("No action",T58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5280,10 +6616,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sequence">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sequence">
       <formula>NOT(ISERROR(SEARCH("Sequence",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No action">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No action">
       <formula>NOT(ISERROR(SEARCH("No action",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01_metadata/AdultHW_census.xlsx
+++ b/01_metadata/AdultHW_census.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\01_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B9842-1E5F-45EE-AC66-946F41DFF51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BFFBE2-E0FD-4BC2-8ABF-EF40A04BA36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Shipping" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Census!$A$1:$M$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Census!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="230">
   <si>
     <t>HWs from Swaid</t>
   </si>
@@ -774,6 +774,9 @@
   </si>
   <si>
     <t>P6/22-A4</t>
+  </si>
+  <si>
+    <t>P4/22-A4</t>
   </si>
 </sst>
 </file>
@@ -1161,50 +1164,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,33 +1177,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1258,28 +1192,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,6 +1206,93 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,7 +1793,7 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="41" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1825,7 +1828,7 @@
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1858,7 +1861,7 @@
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="28"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -2191,10 +2194,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2211,7 +2214,7 @@
     <col min="10" max="10" width="15.36328125" customWidth="1"/>
     <col min="11" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" style="54" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="31" customWidth="1"/>
     <col min="15" max="15" width="10.6328125" style="7" customWidth="1"/>
     <col min="16" max="17" width="9.81640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.54296875" style="1" hidden="1" customWidth="1"/>
@@ -2231,38 +2234,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="31"/>
+      <c r="P1" s="62"/>
       <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
@@ -2275,7 +2278,7 @@
       <c r="T1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="62" t="s">
         <v>139</v>
       </c>
       <c r="V1" s="16" t="s">
@@ -2289,31 +2292,31 @@
         <v>181</v>
       </c>
       <c r="Z1" s="20"/>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31" t="s">
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="AF1" s="30"/>
+      <c r="AF1" s="69"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2338,7 +2341,7 @@
       <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="16" t="s">
         <v>52</v>
       </c>
@@ -2354,10 +2357,10 @@
       <c r="S2" s="23">
         <v>44767</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="29">
         <v>2023</v>
       </c>
-      <c r="U2" s="31"/>
+      <c r="U2" s="62"/>
       <c r="V2" s="16" t="s">
         <v>186</v>
       </c>
@@ -2373,14 +2376,14 @@
       <c r="Z2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" s="31"/>
+      <c r="AA2" s="62"/>
       <c r="AB2" s="16" t="s">
         <v>183</v>
       </c>
       <c r="AC2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AD2" s="31"/>
+      <c r="AD2" s="62"/>
       <c r="AE2" s="24" t="s">
         <v>190</v>
       </c>
@@ -2389,39 +2392,39 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47">
         <v>1</v>
       </c>
       <c r="E3" s="50">
         <v>38083</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47">
         <v>4</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="47">
         <v>4</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="36" t="s">
         <v>49</v>
       </c>
       <c r="P3" s="15" t="s">
@@ -2435,7 +2438,7 @@
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
-      <c r="U3" s="69" t="s">
+      <c r="U3" s="40" t="s">
         <v>78</v>
       </c>
       <c r="V3" s="22"/>
@@ -2451,21 +2454,21 @@
       <c r="AF3" s="25"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="62" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="36" t="s">
         <v>89</v>
       </c>
       <c r="P4" s="15" t="s">
@@ -2479,7 +2482,7 @@
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="40" t="s">
         <v>78</v>
       </c>
       <c r="V4" s="22"/>
@@ -2495,33 +2498,33 @@
       <c r="AF4" s="25"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="60" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41" t="s">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="U5" s="69"/>
+      <c r="U5" s="40"/>
       <c r="V5" s="22"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
@@ -2535,51 +2538,31 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34">
-        <v>2</v>
-      </c>
-      <c r="E6" s="50">
-        <v>38083</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34">
-        <v>2</v>
-      </c>
-      <c r="L6" s="34">
-        <v>1</v>
-      </c>
-      <c r="M6" s="34">
-        <v>0</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>37.909999999999997</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="69" t="s">
-        <v>78</v>
-      </c>
+      <c r="A6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="40"/>
       <c r="V6" s="22"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
@@ -2593,35 +2576,49 @@
       <c r="AF6" s="25"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="62" t="s">
-        <v>90</v>
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47">
+        <v>2</v>
+      </c>
+      <c r="E7" s="50">
+        <v>38083</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47">
+        <v>2</v>
+      </c>
+      <c r="L7" s="47">
+        <v>1</v>
+      </c>
+      <c r="M7" s="47">
+        <v>0</v>
+      </c>
+      <c r="N7" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>78</v>
+        <v>22</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>37.909999999999997</v>
       </c>
       <c r="R7" s="19" t="s">
         <v>95</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="69" t="s">
+      <c r="U7" s="40" t="s">
         <v>78</v>
       </c>
       <c r="V7" s="22"/>
@@ -2637,248 +2634,248 @@
       <c r="AF7" s="25"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O8" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U8" s="69"/>
-      <c r="V8" s="57"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="22"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
       <c r="AE8" s="25"/>
       <c r="AF8" s="25"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33">
+      <c r="A9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U9" s="40"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64">
         <v>3</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E10" s="65">
         <v>43013</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F10" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33">
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64">
         <v>1</v>
       </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>0</v>
-      </c>
-      <c r="N9" s="44" t="s">
+      <c r="L10" s="64">
+        <v>0</v>
+      </c>
+      <c r="M10" s="64">
+        <v>0</v>
+      </c>
+      <c r="N10" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="64" t="s">
+      <c r="O10" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q10" s="64">
         <v>13.6</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R10" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="V9" s="34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W9" s="15">
-        <v>1643762</v>
-      </c>
-      <c r="X9" s="15">
-        <v>69.69</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>1267354</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>53.73</v>
-      </c>
-      <c r="AA9" s="12">
-        <f>X9+Z9</f>
-        <v>123.41999999999999</v>
-      </c>
-      <c r="AB9" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC9" s="34">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AD9" s="34">
-        <f>V9+AC9</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="36"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="35"/>
+      <c r="U10" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" s="47">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="W10" s="15">
-        <v>3521376</v>
+        <v>1643762</v>
       </c>
       <c r="X10" s="15">
-        <v>70.05</v>
+        <v>69.69</v>
       </c>
       <c r="Y10" s="12">
-        <v>2821388</v>
+        <v>1267354</v>
       </c>
       <c r="Z10" s="12">
-        <v>56.13</v>
+        <v>53.73</v>
       </c>
       <c r="AA10" s="12">
         <f>X10+Z10</f>
-        <v>126.18</v>
-      </c>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
+        <v>123.41999999999999</v>
+      </c>
+      <c r="AB10" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC10" s="47">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD10" s="47">
+        <f>V10+AC10</f>
+        <v>10.799999999999999</v>
+      </c>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34">
+      <c r="A11" s="45"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="15">
+        <v>3521376</v>
+      </c>
+      <c r="X11" s="15">
+        <v>70.05</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>2821388</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>56.13</v>
+      </c>
+      <c r="AA11" s="12">
+        <f>X11+Z11</f>
+        <v>126.18</v>
+      </c>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="45"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47">
         <v>4</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E12" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F12" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47">
         <v>2</v>
       </c>
-      <c r="L11" s="34">
-        <v>0</v>
-      </c>
-      <c r="M11" s="34">
+      <c r="L12" s="47">
+        <v>0</v>
+      </c>
+      <c r="M12" s="47">
         <v>1</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="62" t="s">
+      <c r="O12" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="V11" s="22"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="62" t="s">
-        <v>91</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="15" t="s">
         <v>78</v>
       </c>
       <c r="R12" s="19" t="s">
@@ -2886,7 +2883,7 @@
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="40" t="s">
         <v>78</v>
       </c>
       <c r="V12" s="22"/>
@@ -2902,33 +2899,37 @@
       <c r="AF12" s="25"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O13" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U13" s="69"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
@@ -2942,227 +2943,227 @@
       <c r="AF13" s="25"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15">
+      <c r="A14" s="45"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U14" s="40"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15">
         <v>5</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15">
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="N15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="62" t="s">
+      <c r="O15" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q15" s="15">
         <v>13.86</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="V14" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="W14" s="15">
-        <v>10221124</v>
-      </c>
-      <c r="X14" s="15">
-        <v>88.33</v>
-      </c>
-      <c r="Y14" s="12">
-        <v>1600672</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>13.83</v>
-      </c>
-      <c r="AA14" s="12">
-        <f t="shared" ref="AA14:AA44" si="0">X14+Z14</f>
-        <v>102.16</v>
-      </c>
-      <c r="AB14" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC14" s="12">
-        <v>17.7</v>
-      </c>
-      <c r="AD14" s="12">
-        <f>V14+AC14</f>
-        <v>19.5</v>
-      </c>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34">
-        <v>6</v>
-      </c>
-      <c r="E15" s="50">
-        <v>44441</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34">
-        <v>1</v>
-      </c>
-      <c r="L15" s="34">
-        <v>2</v>
-      </c>
-      <c r="M15" s="34">
-        <v>0</v>
-      </c>
-      <c r="N15" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>12.03</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>96</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="62" t="s">
-        <v>100</v>
+      <c r="U15" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="V15" s="15">
         <v>1.8</v>
       </c>
       <c r="W15" s="15">
+        <v>10221124</v>
+      </c>
+      <c r="X15" s="15">
+        <v>88.33</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>1600672</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>13.83</v>
+      </c>
+      <c r="AA15" s="12">
+        <f t="shared" ref="AA15:AA45" si="0">X15+Z15</f>
+        <v>102.16</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>17.7</v>
+      </c>
+      <c r="AD15" s="12">
+        <f>V15+AC15</f>
+        <v>19.5</v>
+      </c>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="45"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47">
+        <v>6</v>
+      </c>
+      <c r="E16" s="50">
+        <v>44441</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47">
+        <v>1</v>
+      </c>
+      <c r="L16" s="47">
+        <v>2</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>12.03</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="V16" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="W16" s="15">
         <v>9563708</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X16" s="15">
         <v>84.72</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y16" s="12">
         <v>1509502</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="Z16" s="12">
         <v>13.37</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA16" s="12">
         <f t="shared" si="0"/>
         <v>98.09</v>
       </c>
-      <c r="AB15" s="12" t="s">
+      <c r="AB16" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AC16" s="12">
         <v>13.6</v>
       </c>
-      <c r="AD15" s="12">
-        <f t="shared" ref="AD15:AD45" si="1">V15+AC15</f>
+      <c r="AD16" s="12">
+        <f t="shared" ref="AD16:AD46" si="1">V16+AC16</f>
         <v>15.4</v>
       </c>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="U16" s="62"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O17" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U17" s="62"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O17" s="54"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="U17" s="36"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
@@ -3176,33 +3177,33 @@
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="60" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O18" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41" t="s">
+      <c r="O18" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="U18" s="62"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -3216,171 +3217,129 @@
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15">
-        <v>1</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>14.16</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="V19" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="W19" s="15">
-        <v>9835138</v>
-      </c>
-      <c r="X19" s="15">
-        <v>91.76</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>1505620</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>14.05</v>
-      </c>
-      <c r="AA19" s="12">
-        <f t="shared" si="0"/>
-        <v>105.81</v>
-      </c>
-      <c r="AB19" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC19" s="12">
-        <v>12</v>
-      </c>
-      <c r="AD19" s="12">
-        <f t="shared" si="1"/>
-        <v>13.7</v>
-      </c>
+      <c r="A19" s="45"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U19" s="36"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>8</v>
-      </c>
-      <c r="E20" s="17">
-        <v>44629</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
       </c>
-      <c r="M20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="45" t="s">
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="62" t="s">
-        <v>74</v>
+      <c r="O20" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="15">
-        <v>14.47</v>
+        <v>14.16</v>
       </c>
       <c r="R20" s="19" t="s">
         <v>96</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="62" t="s">
-        <v>102</v>
+      <c r="U20" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="V20" s="15">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="W20" s="15">
-        <v>2226428</v>
+        <v>9835138</v>
       </c>
       <c r="X20" s="15">
-        <v>30.96</v>
+        <v>91.76</v>
       </c>
       <c r="Y20" s="12">
-        <v>1933606</v>
+        <v>1505620</v>
       </c>
       <c r="Z20" s="12">
-        <v>26.89</v>
+        <v>14.05</v>
       </c>
       <c r="AA20" s="12">
         <f t="shared" si="0"/>
-        <v>57.85</v>
-      </c>
-      <c r="AB20" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC20" s="21">
-        <v>0</v>
+        <v>105.81</v>
+      </c>
+      <c r="AB20" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>12</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AE20" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF20" s="12" t="s">
-        <v>192</v>
-      </c>
+        <v>13.7</v>
+      </c>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="17">
         <v>44629</v>
@@ -3401,2203 +3360,2247 @@
       <c r="M21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="N21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="62" t="s">
-        <v>75</v>
+      <c r="O21" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="15">
-        <v>12.01</v>
+        <v>14.47</v>
       </c>
       <c r="R21" s="19" t="s">
         <v>96</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
-      <c r="U21" s="62" t="s">
-        <v>103</v>
+      <c r="U21" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="V21" s="15">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W21" s="15">
-        <v>9641312</v>
+        <v>2226428</v>
       </c>
       <c r="X21" s="15">
-        <v>89.12</v>
+        <v>30.96</v>
       </c>
       <c r="Y21" s="12">
-        <v>1471328</v>
+        <v>1933606</v>
       </c>
       <c r="Z21" s="12">
-        <v>13.6</v>
+        <v>26.89</v>
       </c>
       <c r="AA21" s="12">
         <f t="shared" si="0"/>
-        <v>102.72</v>
-      </c>
-      <c r="AB21" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC21" s="12">
-        <v>10.5</v>
+        <v>57.85</v>
+      </c>
+      <c r="AB21" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>0</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="1"/>
-        <v>12.2</v>
-      </c>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE21" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF21" s="12" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="53"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>10</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="17">
+        <v>44629</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="33">
-        <v>7</v>
-      </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-      <c r="N22" s="45" t="s">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="62" t="s">
-        <v>76</v>
+      <c r="O22" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="15">
-        <v>33.64</v>
+        <v>12.01</v>
       </c>
       <c r="R22" s="19" t="s">
         <v>96</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="62" t="s">
-        <v>104</v>
+      <c r="U22" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="V22" s="15">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="W22" s="15">
-        <v>87692</v>
+        <v>9641312</v>
       </c>
       <c r="X22" s="15">
-        <v>1.06</v>
+        <v>89.12</v>
       </c>
       <c r="Y22" s="12">
-        <v>684148</v>
+        <v>1471328</v>
       </c>
       <c r="Z22" s="12">
-        <v>8.27</v>
+        <v>13.6</v>
       </c>
       <c r="AA22" s="12">
         <f t="shared" si="0"/>
-        <v>9.33</v>
-      </c>
-      <c r="AB22" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC22" s="21">
-        <v>0</v>
+        <v>102.72</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>10.5</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="AE22" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF22" s="12" t="s">
-        <v>192</v>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33">
-        <v>1</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33">
-        <v>1</v>
-      </c>
-      <c r="L23" s="33">
-        <v>1</v>
-      </c>
-      <c r="M23" s="33">
-        <v>0</v>
-      </c>
-      <c r="N23" s="44" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15">
+        <v>10</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="64">
+        <v>7</v>
+      </c>
+      <c r="L23" s="64"/>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="62" t="s">
-        <v>67</v>
+      <c r="O23" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="15">
-        <v>12.73</v>
-      </c>
-      <c r="R23" s="15" t="s">
+        <v>33.64</v>
+      </c>
+      <c r="R23" s="19" t="s">
         <v>96</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="62" t="s">
-        <v>105</v>
+      <c r="U23" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="V23" s="15">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="W23" s="15">
-        <v>8571070</v>
+        <v>87692</v>
       </c>
       <c r="X23" s="15">
-        <v>80.180000000000007</v>
+        <v>1.06</v>
       </c>
       <c r="Y23" s="12">
-        <v>573962</v>
-      </c>
-      <c r="Z23" s="14">
-        <v>5.37</v>
+        <v>684148</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>8.27</v>
       </c>
       <c r="AA23" s="12">
         <f t="shared" si="0"/>
-        <v>85.550000000000011</v>
-      </c>
-      <c r="AB23" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC23" s="12">
-        <v>11.1</v>
+        <v>9.33</v>
+      </c>
+      <c r="AB23" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC23" s="21">
+        <v>0</v>
       </c>
       <c r="AD23" s="12">
         <f t="shared" si="1"/>
-        <v>12.799999999999999</v>
-      </c>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
+        <v>1.3</v>
+      </c>
+      <c r="AE23" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF23" s="12" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="62" t="s">
-        <v>68</v>
+      <c r="A24" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64">
+        <v>1</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64">
+        <v>1</v>
+      </c>
+      <c r="L24" s="64">
+        <v>1</v>
+      </c>
+      <c r="M24" s="64">
+        <v>0</v>
+      </c>
+      <c r="N24" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="15">
-        <v>12.87</v>
+        <v>12.73</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>96</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="62" t="s">
-        <v>106</v>
+      <c r="U24" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="V24" s="15">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="W24" s="15">
-        <v>6356666</v>
+        <v>8571070</v>
       </c>
       <c r="X24" s="15">
-        <v>61.46</v>
+        <v>80.180000000000007</v>
       </c>
       <c r="Y24" s="12">
-        <v>283292</v>
+        <v>573962</v>
       </c>
       <c r="Z24" s="14">
-        <v>2.74</v>
+        <v>5.37</v>
       </c>
       <c r="AA24" s="12">
         <f t="shared" si="0"/>
-        <v>64.2</v>
+        <v>85.550000000000011</v>
       </c>
       <c r="AB24" s="12" t="s">
         <v>179</v>
       </c>
       <c r="AC24" s="12">
-        <v>9.3000000000000007</v>
+        <v>11.1</v>
       </c>
       <c r="AD24" s="12">
         <f t="shared" si="1"/>
-        <v>10.9</v>
+        <v>12.799999999999999</v>
       </c>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34">
-        <v>1</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="34">
-        <v>2</v>
-      </c>
-      <c r="L25" s="34">
-        <v>0</v>
-      </c>
-      <c r="M25" s="34">
-        <v>0</v>
-      </c>
-      <c r="N25" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" s="62" t="s">
-        <v>79</v>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="15">
-        <v>11</v>
-      </c>
-      <c r="R25" s="8" t="s">
+        <v>12.87</v>
+      </c>
+      <c r="R25" s="15" t="s">
         <v>96</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="62" t="s">
-        <v>107</v>
+      <c r="U25" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="V25" s="15">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="W25" s="15">
-        <v>9773424</v>
+        <v>6356666</v>
       </c>
       <c r="X25" s="15">
-        <v>91.55</v>
+        <v>61.46</v>
       </c>
       <c r="Y25" s="12">
-        <v>2058486</v>
-      </c>
-      <c r="Z25" s="12">
-        <v>19.28</v>
+        <v>283292</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>2.74</v>
       </c>
       <c r="AA25" s="12">
         <f t="shared" si="0"/>
-        <v>110.83</v>
+        <v>64.2</v>
       </c>
       <c r="AB25" s="12" t="s">
         <v>179</v>
       </c>
       <c r="AC25" s="12">
-        <v>9.6999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AD25" s="12">
         <f t="shared" si="1"/>
-        <v>11.399999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="61"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O26" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U26" s="62"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
+      <c r="A26" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47">
+        <v>1</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="47">
+        <v>2</v>
+      </c>
+      <c r="L26" s="47">
+        <v>0</v>
+      </c>
+      <c r="M26" s="47">
+        <v>0</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>11</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="V26" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="W26" s="15">
+        <v>9773424</v>
+      </c>
+      <c r="X26" s="15">
+        <v>91.55</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>2058486</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>19.28</v>
+      </c>
+      <c r="AA26" s="12">
+        <f t="shared" si="0"/>
+        <v>110.83</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD26" s="12">
+        <f t="shared" si="1"/>
+        <v>11.399999999999999</v>
+      </c>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="61"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="15">
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U27" s="36"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="15">
         <v>4814</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="15">
         <v>2</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>7.5</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I28" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J28" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K28" s="15">
         <v>2</v>
       </c>
-      <c r="L27" s="15">
-        <v>0</v>
-      </c>
-      <c r="M27" s="15">
-        <v>0</v>
-      </c>
-      <c r="N27" s="45" t="s">
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="62" t="s">
+      <c r="O28" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q28" s="15">
         <v>12.85</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="62" t="s">
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V28" s="15">
         <v>2</v>
       </c>
-      <c r="W27" s="15">
+      <c r="W28" s="15">
         <v>11520066</v>
       </c>
-      <c r="X27" s="15">
+      <c r="X28" s="15">
         <v>90.47</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Y28" s="12">
         <v>1912352</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z28" s="12">
         <v>15.02</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA28" s="12">
         <f t="shared" si="0"/>
         <v>105.49</v>
       </c>
-      <c r="AB27" s="12" t="s">
+      <c r="AB28" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC27" s="12">
+      <c r="AC28" s="12">
         <v>14.6</v>
       </c>
-      <c r="AD27" s="12">
+      <c r="AD28" s="12">
         <f t="shared" si="1"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="61"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="15">
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="15">
         <v>4817</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <v>3</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15" t="s">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K29" s="15">
         <v>3</v>
       </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-      <c r="N28" s="45" t="s">
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
+      <c r="N29" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="62" t="s">
+      <c r="O29" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q29" s="15">
         <v>10.63</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="62" t="s">
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V29" s="15">
         <v>1.5</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W29" s="15">
         <v>8964336</v>
       </c>
-      <c r="X28" s="15">
+      <c r="X29" s="15">
         <v>91.67</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Y29" s="12">
         <v>1377230</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="Z29" s="12">
         <v>14.08</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AA29" s="12">
         <f t="shared" si="0"/>
         <v>105.75</v>
       </c>
-      <c r="AB28" s="12" t="s">
+      <c r="AB29" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC29" s="12">
         <v>10.6</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AD29" s="12">
         <f t="shared" si="1"/>
         <v>12.1</v>
       </c>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="61"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="34">
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A30" s="45"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="47">
         <v>4812</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D30" s="47">
         <v>4</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E30" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F30" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G30" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H30" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34" t="s">
+      <c r="I30" s="47"/>
+      <c r="J30" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K30" s="47">
         <v>3</v>
       </c>
-      <c r="L29" s="34">
-        <v>0</v>
-      </c>
-      <c r="M29" s="34">
-        <v>0</v>
-      </c>
-      <c r="N29" s="45" t="s">
+      <c r="L30" s="47">
+        <v>0</v>
+      </c>
+      <c r="M30" s="47">
+        <v>0</v>
+      </c>
+      <c r="N30" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="62" t="s">
+      <c r="O30" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="P30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q30" s="15">
         <v>11.02</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="62" t="s">
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V30" s="15">
         <v>1.9</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W30" s="15">
         <v>10770726</v>
       </c>
-      <c r="X29" s="15">
+      <c r="X30" s="15">
         <v>91.19</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y30" s="12">
         <v>2207178</v>
       </c>
-      <c r="Z29" s="12">
+      <c r="Z30" s="12">
         <v>18.690000000000001</v>
       </c>
-      <c r="AA29" s="12">
+      <c r="AA30" s="12">
         <f t="shared" si="0"/>
         <v>109.88</v>
       </c>
-      <c r="AB29" s="12" t="s">
+      <c r="AB30" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC29" s="12">
+      <c r="AC30" s="12">
         <v>11.6</v>
       </c>
-      <c r="AD29" s="12">
+      <c r="AD30" s="12">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="61"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O30" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U30" s="62"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="61"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="34">
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U31" s="36"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="47">
         <v>4814</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D32" s="47">
         <v>5</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E32" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F32" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G32" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34" t="s">
+      <c r="H32" s="47"/>
+      <c r="I32" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J32" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K32" s="47">
         <v>3</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L32" s="47">
         <v>1</v>
       </c>
-      <c r="M31" s="34">
-        <v>0</v>
-      </c>
-      <c r="N31" s="45" t="s">
+      <c r="M32" s="47">
+        <v>0</v>
+      </c>
+      <c r="N32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O31" s="62" t="s">
+      <c r="O32" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="P32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q32" s="15">
         <v>12.04</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="R32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="62" t="s">
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V32" s="15">
         <v>1.7</v>
       </c>
-      <c r="W31" s="15">
+      <c r="W32" s="15">
         <v>8954284</v>
       </c>
-      <c r="X31" s="15">
+      <c r="X32" s="15">
         <v>83.56</v>
       </c>
-      <c r="Y31" s="12">
+      <c r="Y32" s="12">
         <v>1811688</v>
       </c>
-      <c r="Z31" s="12">
+      <c r="Z32" s="12">
         <v>16.91</v>
       </c>
-      <c r="AA31" s="12">
+      <c r="AA32" s="12">
         <f t="shared" si="0"/>
         <v>100.47</v>
       </c>
-      <c r="AB31" s="12" t="s">
+      <c r="AB32" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC31" s="12">
+      <c r="AC32" s="12">
         <v>15</v>
       </c>
-      <c r="AD31" s="12">
+      <c r="AD32" s="12">
         <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="61"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O32" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U32" s="62"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="34">
+      <c r="A33" s="45"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U33" s="36"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A34" s="45"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="47">
         <v>4818</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D34" s="47">
         <v>6</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E34" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F34" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G34" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H34" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I34" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J34" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K34" s="47">
         <v>2</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L34" s="47">
         <v>1</v>
       </c>
-      <c r="M33" s="34">
-        <v>0</v>
-      </c>
-      <c r="N33" s="45" t="s">
+      <c r="M34" s="47">
+        <v>0</v>
+      </c>
+      <c r="N34" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="62" t="s">
+      <c r="O34" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="P34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q34" s="15">
         <v>11.82</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="62" t="s">
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="15">
+      <c r="V34" s="15">
         <v>1.7</v>
       </c>
-      <c r="W33" s="15">
+      <c r="W34" s="15">
         <v>8855324</v>
       </c>
-      <c r="X33" s="15">
+      <c r="X34" s="15">
         <v>83.65</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y34" s="12">
         <v>1613120</v>
       </c>
-      <c r="Z33" s="12">
+      <c r="Z34" s="12">
         <v>15.24</v>
       </c>
-      <c r="AA33" s="12">
+      <c r="AA34" s="12">
         <f t="shared" si="0"/>
         <v>98.89</v>
       </c>
-      <c r="AB33" s="12" t="s">
+      <c r="AB34" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC33" s="12">
+      <c r="AC34" s="12">
         <v>12.5</v>
       </c>
-      <c r="AD33" s="12">
+      <c r="AD34" s="12">
         <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="61"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O34" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U34" s="62"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="61"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U35" s="36"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" s="45"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="15">
         <v>4817</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <v>7</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G36" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I36" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J36" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K36" s="15">
         <v>3</v>
       </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-      <c r="N35" s="45" t="s">
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="62" t="s">
+      <c r="O36" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="P36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q36" s="15">
         <v>10.92</v>
       </c>
-      <c r="R35" s="8" t="s">
+      <c r="R36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="62" t="s">
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="V35" s="15">
+      <c r="V36" s="15">
         <v>1.7</v>
       </c>
-      <c r="W35" s="15">
+      <c r="W36" s="15">
         <v>10030028</v>
       </c>
-      <c r="X35" s="15">
+      <c r="X36" s="15">
         <v>91.21</v>
       </c>
-      <c r="Y35" s="12">
+      <c r="Y36" s="12">
         <v>1484508</v>
       </c>
-      <c r="Z35" s="12">
+      <c r="Z36" s="12">
         <v>13.5</v>
       </c>
-      <c r="AA35" s="12">
+      <c r="AA36" s="12">
         <f t="shared" si="0"/>
         <v>104.71</v>
       </c>
-      <c r="AB35" s="12" t="s">
+      <c r="AB36" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC35" s="12">
+      <c r="AC36" s="12">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AD35" s="12">
+      <c r="AD36" s="12">
         <f t="shared" si="1"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="15">
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A37" s="45"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="15">
         <v>4818</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <v>8</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G37" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H37" s="15">
         <v>6.5</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I37" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J37" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K37" s="15">
         <v>2</v>
       </c>
-      <c r="L36" s="15">
-        <v>0</v>
-      </c>
-      <c r="M36" s="15">
-        <v>0</v>
-      </c>
-      <c r="N36" s="45" t="s">
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="62" t="s">
+      <c r="O37" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="P36" s="15" t="s">
+      <c r="P37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q37" s="15">
         <v>11.29</v>
       </c>
-      <c r="R36" s="8" t="s">
+      <c r="R37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="62" t="s">
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V37" s="15">
         <v>1.6</v>
       </c>
-      <c r="W36" s="15">
+      <c r="W37" s="15">
         <v>9551928</v>
       </c>
-      <c r="X36" s="15">
+      <c r="X37" s="15">
         <v>91.88</v>
       </c>
-      <c r="Y36" s="12">
+      <c r="Y37" s="12">
         <v>2069634</v>
       </c>
-      <c r="Z36" s="12">
+      <c r="Z37" s="12">
         <v>19.91</v>
       </c>
-      <c r="AA36" s="12">
+      <c r="AA37" s="12">
         <f t="shared" si="0"/>
         <v>111.78999999999999</v>
       </c>
-      <c r="AB36" s="12" t="s">
+      <c r="AB37" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC36" s="12">
+      <c r="AC37" s="12">
         <v>10.6</v>
       </c>
-      <c r="AD36" s="12">
+      <c r="AD37" s="12">
         <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="61"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="34">
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" s="45"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="47">
         <v>4818</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D38" s="47">
         <v>9</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="34" t="s">
+      <c r="E38" s="50"/>
+      <c r="F38" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34" t="s">
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J38" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K38" s="47">
         <v>1</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L38" s="47">
         <v>1</v>
       </c>
-      <c r="M37" s="34">
-        <v>0</v>
-      </c>
-      <c r="N37" s="45" t="s">
+      <c r="M38" s="47">
+        <v>0</v>
+      </c>
+      <c r="N38" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O37" s="62" t="s">
+      <c r="O38" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="15" t="s">
+      <c r="P38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="Q38" s="15">
         <v>13.42</v>
       </c>
-      <c r="R37" s="8" t="s">
+      <c r="R38" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="62" t="s">
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="V37" s="15">
+      <c r="V38" s="15">
         <v>1</v>
       </c>
-      <c r="W37" s="15">
+      <c r="W38" s="15">
         <v>3283516</v>
       </c>
-      <c r="X37" s="15">
+      <c r="X38" s="15">
         <v>48.75</v>
       </c>
-      <c r="Y37" s="12">
+      <c r="Y38" s="12">
         <v>3188230</v>
       </c>
-      <c r="Z37" s="12">
+      <c r="Z38" s="12">
         <v>47.33</v>
       </c>
-      <c r="AA37" s="12">
+      <c r="AA38" s="12">
         <f t="shared" si="0"/>
         <v>96.08</v>
       </c>
-      <c r="AB37" s="21" t="s">
+      <c r="AB38" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AC37" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="12">
+      <c r="AC38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AE37" s="12" t="s">
+      <c r="AE38" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AF37" s="12"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="61"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="60" t="s">
+      <c r="AF38" s="12"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" s="45"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O38" s="63" t="s">
+      <c r="O39" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41" t="s">
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="U38" s="62"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="61"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="34">
+      <c r="U39" s="36"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="45"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="47">
         <v>4818</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D40" s="47">
         <v>10</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E40" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F40" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34" t="s">
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K40" s="47">
         <v>1</v>
       </c>
-      <c r="L39" s="34">
+      <c r="L40" s="47">
         <v>1</v>
       </c>
-      <c r="M39" s="34">
-        <v>0</v>
-      </c>
-      <c r="N39" s="45" t="s">
+      <c r="M40" s="47">
+        <v>0</v>
+      </c>
+      <c r="N40" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="62" t="s">
+      <c r="O40" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="P39" s="15" t="s">
+      <c r="P40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q40" s="15">
         <v>12.35</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="R40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="62" t="s">
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="V39" s="15">
+      <c r="V40" s="15">
         <v>1.2</v>
       </c>
-      <c r="W39" s="15">
+      <c r="W40" s="15">
         <v>6141088</v>
       </c>
-      <c r="X39" s="15">
+      <c r="X40" s="15">
         <v>80.13</v>
       </c>
-      <c r="Y39" s="12">
+      <c r="Y40" s="12">
         <v>3830222</v>
       </c>
-      <c r="Z39" s="12">
+      <c r="Z40" s="12">
         <v>49.97</v>
       </c>
-      <c r="AA39" s="12">
+      <c r="AA40" s="12">
         <f t="shared" si="0"/>
         <v>130.1</v>
       </c>
-      <c r="AB39" s="12" t="s">
+      <c r="AB40" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC39" s="12">
+      <c r="AC40" s="12">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AD39" s="12">
+      <c r="AD40" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="53"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O40" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U40" s="62"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U41" s="36"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A42" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B42" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C42" s="47">
         <v>4818</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D42" s="47">
         <v>1</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="33" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G42" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H42" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34">
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47">
         <v>18</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L42" s="47">
         <v>1</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M42" s="47">
         <v>2</v>
       </c>
-      <c r="N41" s="45" t="s">
+      <c r="N42" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O41" s="62" t="s">
+      <c r="O42" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="P41" s="15" t="s">
+      <c r="P42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q42" s="15">
         <v>11.77</v>
       </c>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15" t="s">
+      <c r="R42" s="15"/>
+      <c r="S42" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="T41" s="15"/>
-      <c r="U41" s="62" t="s">
+      <c r="T42" s="15"/>
+      <c r="U42" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="V41" s="15">
+      <c r="V42" s="15">
         <v>1.2</v>
       </c>
-      <c r="W41" s="12">
+      <c r="W42" s="12">
         <v>6258212</v>
       </c>
-      <c r="X41" s="12">
+      <c r="X42" s="12">
         <v>83.95</v>
       </c>
-      <c r="Y41" s="12">
+      <c r="Y42" s="12">
         <v>1685614</v>
       </c>
-      <c r="Z41" s="12">
+      <c r="Z42" s="12">
         <v>22.61</v>
       </c>
-      <c r="AA41" s="12">
+      <c r="AA42" s="12">
         <f t="shared" si="0"/>
         <v>106.56</v>
       </c>
-      <c r="AB41" s="12" t="s">
+      <c r="AB42" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AC41" s="12">
+      <c r="AC42" s="12">
         <v>11.5</v>
       </c>
-      <c r="AD41" s="12">
+      <c r="AD42" s="12">
         <f t="shared" si="1"/>
         <v>12.7</v>
       </c>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="61"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="O42" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="U42" s="62"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="61"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="15">
+      <c r="A43" s="45"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U43" s="36"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="45"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="15">
         <v>2</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15">
-        <v>1</v>
-      </c>
-      <c r="L43" s="15">
-        <v>1</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="N43" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="O43" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>11.72</v>
-      </c>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="T43" s="15"/>
-      <c r="U43" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="V43" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="W43" s="12">
-        <v>6853468</v>
-      </c>
-      <c r="X43" s="12">
-        <v>93.02</v>
-      </c>
-      <c r="Y43" s="12">
-        <v>2122318</v>
-      </c>
-      <c r="Z43" s="12">
-        <v>28.81</v>
-      </c>
-      <c r="AA43" s="12">
-        <f t="shared" si="0"/>
-        <v>121.83</v>
-      </c>
-      <c r="AB43" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC43" s="12">
-        <v>11.8</v>
-      </c>
-      <c r="AD43" s="12">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="53"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="15">
-        <v>3</v>
-      </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="N44" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="N44" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O44" s="62" t="s">
-        <v>127</v>
+      <c r="O44" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>21</v>
       </c>
       <c r="Q44" s="15">
-        <v>10.79</v>
+        <v>11.72</v>
       </c>
       <c r="R44" s="15"/>
       <c r="S44" s="15" t="s">
         <v>96</v>
       </c>
       <c r="T44" s="15"/>
-      <c r="U44" s="62" t="s">
-        <v>134</v>
+      <c r="U44" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="V44" s="15">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="W44" s="12">
-        <v>7414180</v>
+        <v>6853468</v>
       </c>
       <c r="X44" s="12">
-        <v>92.19</v>
+        <v>93.02</v>
       </c>
       <c r="Y44" s="12">
-        <v>1691960</v>
+        <v>2122318</v>
       </c>
       <c r="Z44" s="12">
-        <v>21.04</v>
+        <v>28.81</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="0"/>
-        <v>113.22999999999999</v>
+        <v>121.83</v>
       </c>
       <c r="AB44" s="12" t="s">
         <v>179</v>
       </c>
       <c r="AC44" s="12">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="AD44" s="12">
         <f t="shared" si="1"/>
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
+      <c r="AF44" s="12" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="32">
-        <v>44550</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="15">
+        <v>3</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="33">
-        <v>1</v>
-      </c>
-      <c r="L45" s="33"/>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-      <c r="N45" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="O45" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" s="15"/>
+      <c r="K45" s="15">
+        <v>3</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N45" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="Q45" s="15">
-        <v>11.26</v>
+        <v>10.79</v>
       </c>
       <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
+      <c r="S45" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="T45" s="15"/>
-      <c r="U45" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="V45" s="22">
-        <v>0</v>
-      </c>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="21">
+      <c r="U45" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="V45" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="W45" s="12">
+        <v>7414180</v>
+      </c>
+      <c r="X45" s="12">
+        <v>92.19</v>
+      </c>
+      <c r="Y45" s="12">
+        <v>1691960</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>21.04</v>
+      </c>
+      <c r="AA45" s="12">
+        <f t="shared" si="0"/>
+        <v>113.22999999999999</v>
+      </c>
+      <c r="AB45" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>12</v>
+      </c>
+      <c r="AD45" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
+        <v>13.3</v>
+      </c>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="61"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>34</v>
+      </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E46" s="65">
+        <v>44550</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>124</v>
+      </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="33">
+      <c r="K46" s="64">
         <v>1</v>
       </c>
-      <c r="L46" s="33"/>
+      <c r="L46" s="64"/>
       <c r="M46" s="15">
         <v>0</v>
       </c>
-      <c r="N46" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" s="62" t="s">
-        <v>62</v>
+      <c r="N46" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="P46" s="15"/>
       <c r="Q46" s="15">
-        <v>12.18</v>
+        <v>11.26</v>
       </c>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
-      <c r="U46" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="V46" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W46" s="12">
-        <v>6308520</v>
-      </c>
-      <c r="X46" s="12">
-        <v>92.68</v>
-      </c>
-      <c r="Y46" s="12">
-        <v>2994444</v>
-      </c>
-      <c r="Z46" s="12">
-        <v>43.99</v>
-      </c>
-      <c r="AA46" s="12">
-        <f>X46+Z46</f>
-        <v>136.67000000000002</v>
-      </c>
-      <c r="AB46" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC46" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="AD46" s="12">
-        <f t="shared" ref="AD46:AD51" si="2">V46+AC46</f>
-        <v>11.799999999999999</v>
-      </c>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="12"/>
+      <c r="U46" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="V46" s="22">
+        <v>0</v>
+      </c>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="61"/>
-      <c r="B47" s="37"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="33">
+      <c r="K47" s="64">
         <v>1</v>
       </c>
-      <c r="L47" s="33"/>
+      <c r="L47" s="64"/>
       <c r="M47" s="15">
         <v>0</v>
       </c>
-      <c r="N47" s="45" t="s">
+      <c r="N47" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O47" s="62" t="s">
-        <v>63</v>
+      <c r="O47" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="15">
-        <v>15.29</v>
+        <v>12.18</v>
       </c>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
-      <c r="U47" s="62" t="s">
-        <v>175</v>
+      <c r="U47" s="36" t="s">
+        <v>174</v>
       </c>
       <c r="V47" s="15">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W47" s="12">
-        <v>5211338</v>
+        <v>6308520</v>
       </c>
       <c r="X47" s="12">
-        <v>57.21</v>
+        <v>92.68</v>
       </c>
       <c r="Y47" s="12">
-        <v>4197764</v>
+        <v>2994444</v>
       </c>
       <c r="Z47" s="12">
-        <v>46.08</v>
+        <v>43.99</v>
       </c>
       <c r="AA47" s="12">
         <f>X47+Z47</f>
-        <v>103.28999999999999</v>
+        <v>136.67000000000002</v>
       </c>
       <c r="AB47" s="12" t="s">
         <v>179</v>
       </c>
       <c r="AC47" s="12">
-        <v>10.199999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AD47" s="12">
-        <f t="shared" si="2"/>
-        <v>11.7</v>
+        <f t="shared" ref="AD47:AD52" si="2">V47+AC47</f>
+        <v>11.799999999999999</v>
       </c>
       <c r="AE47" s="12"/>
-      <c r="AF47" s="12" t="s">
-        <v>192</v>
-      </c>
+      <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A48" s="61"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="46">
+      <c r="A48" s="45"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="64">
         <v>1</v>
       </c>
-      <c r="L48" s="47"/>
-      <c r="M48" s="34">
-        <v>0</v>
-      </c>
-      <c r="N48" s="45" t="s">
+      <c r="L48" s="64"/>
+      <c r="M48" s="15">
+        <v>0</v>
+      </c>
+      <c r="N48" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O48" s="65" t="s">
-        <v>64</v>
+      <c r="O48" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="P48" s="15"/>
       <c r="Q48" s="15">
-        <v>14.97</v>
+        <v>15.29</v>
       </c>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
       <c r="T48" s="15"/>
-      <c r="U48" s="62" t="s">
-        <v>176</v>
+      <c r="U48" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="V48" s="15">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="W48" s="12">
-        <v>5846276</v>
+        <v>5211338</v>
       </c>
       <c r="X48" s="12">
-        <v>86.52</v>
+        <v>57.21</v>
       </c>
       <c r="Y48" s="12">
-        <v>2322782</v>
+        <v>4197764</v>
       </c>
       <c r="Z48" s="12">
-        <v>34.380000000000003</v>
+        <v>46.08</v>
       </c>
       <c r="AA48" s="12">
         <f>X48+Z48</f>
-        <v>120.9</v>
+        <v>103.28999999999999</v>
       </c>
       <c r="AB48" s="12" t="s">
         <v>179</v>
       </c>
       <c r="AC48" s="12">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AD48" s="12">
         <f t="shared" si="2"/>
         <v>11.7</v>
       </c>
       <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
+      <c r="AF48" s="12" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="61"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="O49" s="66"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="55">
+        <v>1</v>
+      </c>
+      <c r="L49" s="56"/>
+      <c r="M49" s="47">
+        <v>0</v>
+      </c>
+      <c r="N49" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" s="53" t="s">
+        <v>64</v>
+      </c>
       <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
+      <c r="Q49" s="15">
+        <v>14.97</v>
+      </c>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="U49" s="62"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="V49" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W49" s="12">
+        <v>5846276</v>
+      </c>
+      <c r="X49" s="12">
+        <v>86.52</v>
+      </c>
+      <c r="Y49" s="12">
+        <v>2322782</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="AA49" s="12">
+        <f>X49+Z49</f>
+        <v>120.9</v>
+      </c>
+      <c r="AB49" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC49" s="12">
+        <v>10.6</v>
+      </c>
+      <c r="AD49" s="12">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
       <c r="AE49" s="12"/>
       <c r="AF49" s="12"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A50" s="53"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="33">
-        <v>1</v>
-      </c>
-      <c r="L50" s="33"/>
-      <c r="M50" s="15">
-        <v>0</v>
-      </c>
-      <c r="N50" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="O50" s="62" t="s">
-        <v>65</v>
-      </c>
+      <c r="A50" s="45"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O50" s="54"/>
       <c r="P50" s="15"/>
-      <c r="Q50" s="15">
-        <v>14.85</v>
-      </c>
+      <c r="Q50" s="15"/>
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="V50" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W50" s="12">
-        <v>6073506</v>
-      </c>
-      <c r="X50" s="12">
-        <v>85.25</v>
-      </c>
-      <c r="Y50" s="12">
-        <v>2959652</v>
-      </c>
-      <c r="Z50" s="12">
-        <v>41.54</v>
-      </c>
-      <c r="AA50" s="12">
-        <f>X50+Z50</f>
-        <v>126.78999999999999</v>
-      </c>
-      <c r="AB50" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC50" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="AD50" s="12">
-        <f t="shared" si="2"/>
-        <v>10.7</v>
-      </c>
+      <c r="T50" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U50" s="36"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A51" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A51" s="46"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="17">
-        <v>44518</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K51" s="33">
+        <v>39</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="64">
         <v>1</v>
       </c>
-      <c r="L51" s="33"/>
+      <c r="L51" s="64"/>
       <c r="M51" s="15">
         <v>0</v>
       </c>
-      <c r="N51" s="45" t="s">
+      <c r="N51" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O51" s="62" t="s">
-        <v>66</v>
+      <c r="O51" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="P51" s="15"/>
       <c r="Q51" s="15">
-        <v>12.04</v>
+        <v>14.85</v>
       </c>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
-      <c r="U51" s="62" t="s">
-        <v>178</v>
+      <c r="U51" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="V51" s="15">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W51" s="12">
-        <v>5951552</v>
+        <v>6073506</v>
       </c>
       <c r="X51" s="12">
-        <v>94.04</v>
+        <v>85.25</v>
       </c>
       <c r="Y51" s="12">
-        <v>2909924</v>
+        <v>2959652</v>
       </c>
       <c r="Z51" s="12">
-        <v>45.98</v>
+        <v>41.54</v>
       </c>
       <c r="AA51" s="12">
         <f>X51+Z51</f>
-        <v>140.02000000000001</v>
+        <v>126.78999999999999</v>
       </c>
       <c r="AB51" s="12" t="s">
         <v>179</v>
       </c>
       <c r="AC51" s="12">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="AD51" s="12">
         <f t="shared" si="2"/>
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
       <c r="AE51" s="12"/>
       <c r="AF51" s="12"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A52" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="33" t="s">
+      <c r="A52" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="17">
+        <v>44518</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34">
+      <c r="G52" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" s="64">
         <v>1</v>
       </c>
-      <c r="L52" s="34">
-        <v>0</v>
-      </c>
-      <c r="M52" s="34">
-        <v>0</v>
-      </c>
-      <c r="N52" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="O52" s="65" t="s">
-        <v>57</v>
+      <c r="L52" s="64"/>
+      <c r="M52" s="15">
+        <v>0</v>
+      </c>
+      <c r="N52" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
+      <c r="Q52" s="15">
+        <v>12.04</v>
+      </c>
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="15"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="13"/>
+      <c r="U52" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="V52" s="15">
+        <v>1</v>
+      </c>
+      <c r="W52" s="12">
+        <v>5951552</v>
+      </c>
+      <c r="X52" s="12">
+        <v>94.04</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>2909924</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>45.98</v>
+      </c>
+      <c r="AA52" s="12">
+        <f>X52+Z52</f>
+        <v>140.02000000000001</v>
+      </c>
+      <c r="AB52" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>10.3</v>
+      </c>
+      <c r="AD52" s="12">
+        <f t="shared" si="2"/>
+        <v>11.3</v>
+      </c>
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A53" s="61"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="O53" s="66"/>
+      <c r="A53" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="50"/>
+      <c r="F53" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47">
+        <v>1</v>
+      </c>
+      <c r="L53" s="47">
+        <v>0</v>
+      </c>
+      <c r="M53" s="47">
+        <v>0</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O53" s="53" t="s">
+        <v>57</v>
+      </c>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="15"/>
       <c r="S53" s="15"/>
-      <c r="T53" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="U53" s="62"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="36"/>
       <c r="V53" s="15"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
@@ -5611,39 +5614,31 @@
       <c r="AF53" s="12"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A54" s="61"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15">
-        <v>1</v>
-      </c>
-      <c r="L54" s="15">
-        <v>0</v>
-      </c>
-      <c r="M54" s="15">
-        <v>0</v>
-      </c>
-      <c r="N54" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="O54" s="62" t="s">
-        <v>58</v>
-      </c>
+      <c r="A54" s="45"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O54" s="54"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="62"/>
+      <c r="T54" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U54" s="36"/>
       <c r="V54" s="15"/>
       <c r="W54" s="13"/>
       <c r="X54" s="13"/>
@@ -5657,14 +5652,14 @@
       <c r="AF54" s="12"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" s="61"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="17"/>
-      <c r="F55" s="33"/>
+      <c r="F55" s="64"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -5678,18 +5673,18 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-      <c r="N55" s="45" t="s">
+      <c r="N55" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O55" s="62" t="s">
-        <v>59</v>
+      <c r="O55" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
-      <c r="U55" s="62"/>
+      <c r="U55" s="36"/>
       <c r="V55" s="15"/>
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
@@ -5703,39 +5698,39 @@
       <c r="AF55" s="12"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A56" s="61"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="33"/>
+      <c r="F56" s="64"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="15">
         <v>0</v>
       </c>
-      <c r="N56" s="45" t="s">
+      <c r="N56" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O56" s="62" t="s">
-        <v>60</v>
+      <c r="O56" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
-      <c r="U56" s="62"/>
+      <c r="U56" s="36"/>
       <c r="V56" s="15"/>
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
@@ -5749,14 +5744,14 @@
       <c r="AF56" s="12"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57" s="53"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="17"/>
-      <c r="F57" s="33"/>
+      <c r="F57" s="64"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -5770,18 +5765,18 @@
       <c r="M57" s="15">
         <v>0</v>
       </c>
-      <c r="N57" s="45" t="s">
+      <c r="N57" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O57" s="62" t="s">
-        <v>61</v>
+      <c r="O57" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
-      <c r="U57" s="62"/>
+      <c r="U57" s="36"/>
       <c r="V57" s="15"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
@@ -5795,615 +5790,661 @@
       <c r="AF57" s="12"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
+        <v>1</v>
+      </c>
+      <c r="M58" s="15">
+        <v>0</v>
+      </c>
+      <c r="N58" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A59" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B59" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39">
+      <c r="C59" s="60"/>
+      <c r="D59" s="60">
         <v>1</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E59" s="61">
         <v>44990</v>
       </c>
-      <c r="F58" s="39" t="s">
+      <c r="F59" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39">
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60">
         <v>1</v>
       </c>
-      <c r="L58" s="39">
+      <c r="L59" s="60">
         <v>1</v>
       </c>
-      <c r="M58" s="39"/>
-      <c r="N58" s="38" t="s">
+      <c r="M59" s="60"/>
+      <c r="N59" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="O58" s="63" t="s">
+      <c r="O59" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="P58" s="41" t="s">
+      <c r="P59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="U58" s="68"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="P59" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
       <c r="T59" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U59" s="68"/>
+      <c r="U59" s="39"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A60" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39">
-        <v>2</v>
-      </c>
-      <c r="E60" s="40">
-        <v>44990</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39">
-        <v>1</v>
-      </c>
-      <c r="L60" s="39">
-        <v>1</v>
-      </c>
-      <c r="M60" s="39"/>
-      <c r="N60" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="O60" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="P60" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
       <c r="T60" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U60" s="68"/>
+      <c r="U60" s="39"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="P61" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
+      <c r="A61" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60">
+        <v>2</v>
+      </c>
+      <c r="E61" s="61">
+        <v>44990</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60">
+        <v>1</v>
+      </c>
+      <c r="L61" s="60">
+        <v>1</v>
+      </c>
+      <c r="M61" s="60"/>
+      <c r="N61" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="O61" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
       <c r="T61" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U61" s="68"/>
+      <c r="U61" s="39"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A62" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="40">
-        <v>45034</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="N62" s="56"/>
-      <c r="O62" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="P62" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
       <c r="T62" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U62" s="68"/>
+      <c r="U62" s="39"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="P63" s="42" t="s">
+      <c r="A63" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="61">
+        <v>45034</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="N63" s="33"/>
+      <c r="O63" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="P63" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
       <c r="T63" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U63" s="68"/>
+      <c r="U63" s="39"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A64" s="38"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="P64" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="P64" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
       <c r="T64" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U64" s="68"/>
+      <c r="U64" s="39"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="59"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="P65" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U65" s="39"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B66" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39" t="s">
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39">
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60">
         <v>1</v>
       </c>
-      <c r="L65" s="39">
+      <c r="L66" s="60">
         <v>1</v>
       </c>
-      <c r="M65" s="39"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="68" t="s">
+      <c r="M66" s="60"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="P65" s="42" t="s">
+      <c r="P66" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="41" t="s">
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="U65" s="68"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A66" s="38"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="68" t="s">
+      <c r="U66" s="39"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A67" s="59"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="P66" s="42" t="s">
+      <c r="P67" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="41" t="s">
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="U66" s="68"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A67" s="56" t="s">
+      <c r="U67" s="39"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B68" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="42" t="s">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="55" t="s">
+      <c r="G68" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="68" t="s">
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="41" t="s">
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="U67" s="68"/>
+      <c r="U68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="257">
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H40:H41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Q4:Q5 Q7:Q8 Q12:Q13 R3:V9 R11:V57">
+  <conditionalFormatting sqref="Q4:Q6 Q8:Q9 Q13:Q14 R3:V10 R12:V58">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Sequence">
       <formula>NOT(ISERROR(SEARCH("Sequence",Q3)))</formula>
     </cfRule>
@@ -6411,7 +6452,7 @@
       <formula>NOT(ISERROR(SEARCH("No action",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X57 Z3:Z57">
+  <conditionalFormatting sqref="X3:X58 Z3:Z58">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -6423,20 +6464,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T65:T67">
+  <conditionalFormatting sqref="T66:T68">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sequence">
-      <formula>NOT(ISERROR(SEARCH("Sequence",T65)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sequence",T66)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No action">
-      <formula>NOT(ISERROR(SEARCH("No action",T65)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No action",T66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T58:T64">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sequence">
-      <formula>NOT(ISERROR(SEARCH("Sequence",T58)))</formula>
+  <conditionalFormatting sqref="T59:T65">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sequence">
+      <formula>NOT(ISERROR(SEARCH("Sequence",T59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No action">
-      <formula>NOT(ISERROR(SEARCH("No action",T58)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No action">
+      <formula>NOT(ISERROR(SEARCH("No action",T59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6616,10 +6657,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sequence">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sequence">
       <formula>NOT(ISERROR(SEARCH("Sequence",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No action">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No action">
       <formula>NOT(ISERROR(SEARCH("No action",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01_metadata/AdultHW_census.xlsx
+++ b/01_metadata/AdultHW_census.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\01_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BFFBE2-E0FD-4BC2-8ABF-EF40A04BA36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C51CF75-171C-44A0-99D4-DEB3B6958D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
+    <workbookView xWindow="-105" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="251">
   <si>
     <t>HWs from Swaid</t>
   </si>
@@ -752,9 +752,6 @@
     <t>P4/22-F3</t>
   </si>
   <si>
-    <t>Isolate</t>
-  </si>
-  <si>
     <t>P5/22-A2</t>
   </si>
   <si>
@@ -777,6 +774,72 @@
   </si>
   <si>
     <t>P4/22-A4</t>
+  </si>
+  <si>
+    <t>JS6597</t>
+  </si>
+  <si>
+    <t>JS6598</t>
+  </si>
+  <si>
+    <t>JS6599</t>
+  </si>
+  <si>
+    <t>JS6600</t>
+  </si>
+  <si>
+    <t>JS6601</t>
+  </si>
+  <si>
+    <t>JS6602</t>
+  </si>
+  <si>
+    <t>JS6603</t>
+  </si>
+  <si>
+    <t>JS6604</t>
+  </si>
+  <si>
+    <t>JS6605</t>
+  </si>
+  <si>
+    <t>JS6606</t>
+  </si>
+  <si>
+    <t>JS6607</t>
+  </si>
+  <si>
+    <t>JS6608</t>
+  </si>
+  <si>
+    <t>JS6609</t>
+  </si>
+  <si>
+    <t>JS6610</t>
+  </si>
+  <si>
+    <t>JS6611</t>
+  </si>
+  <si>
+    <t>JS6612</t>
+  </si>
+  <si>
+    <t>JS6613</t>
+  </si>
+  <si>
+    <t>JS6614</t>
+  </si>
+  <si>
+    <t>JS6615</t>
+  </si>
+  <si>
+    <t>JS6616</t>
+  </si>
+  <si>
+    <t>JS6617</t>
+  </si>
+  <si>
+    <t>Fragment</t>
   </si>
 </sst>
 </file>
@@ -922,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1087,11 +1150,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1187,9 +1263,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,6 +1289,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1225,22 +1349,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,49 +1367,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1793,7 +1881,7 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1828,7 +1916,7 @@
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1861,7 +1949,7 @@
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -2196,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:M19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2234,38 +2322,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="62"/>
+      <c r="P1" s="47"/>
       <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
@@ -2278,10 +2366,10 @@
       <c r="T1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="69" t="s">
         <v>187</v>
       </c>
       <c r="W1" s="18" t="s">
@@ -2292,31 +2380,31 @@
         <v>181</v>
       </c>
       <c r="Z1" s="20"/>
-      <c r="AA1" s="62" t="s">
+      <c r="AA1" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62" t="s">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AE1" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="AF1" s="69"/>
+      <c r="AF1" s="53"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2341,7 +2429,7 @@
       <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="62"/>
+      <c r="N2" s="47"/>
       <c r="O2" s="16" t="s">
         <v>52</v>
       </c>
@@ -2360,8 +2448,8 @@
       <c r="T2" s="29">
         <v>2023</v>
       </c>
-      <c r="U2" s="62"/>
-      <c r="V2" s="16" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="69" t="s">
         <v>186</v>
       </c>
       <c r="W2" s="18" t="s">
@@ -2376,14 +2464,14 @@
       <c r="Z2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" s="62"/>
+      <c r="AA2" s="47"/>
       <c r="AB2" s="16" t="s">
         <v>183</v>
       </c>
       <c r="AC2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AD2" s="62"/>
+      <c r="AD2" s="47"/>
       <c r="AE2" s="24" t="s">
         <v>190</v>
       </c>
@@ -2392,39 +2480,39 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45">
         <v>1</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <v>38083</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47">
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45">
         <v>4</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="45">
         <v>4</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="35" t="s">
         <v>49</v>
       </c>
       <c r="P3" s="15" t="s">
@@ -2438,10 +2526,10 @@
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="22"/>
+      <c r="V3" s="70"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
@@ -2454,11 +2542,11 @@
       <c r="AF3" s="25"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
-      <c r="E4" s="52"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
@@ -2467,8 +2555,8 @@
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="36" t="s">
+      <c r="N4" s="44"/>
+      <c r="O4" s="35" t="s">
         <v>89</v>
       </c>
       <c r="P4" s="15" t="s">
@@ -2482,10 +2570,10 @@
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="40" t="s">
+      <c r="U4" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="70"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
@@ -2498,11 +2586,11 @@
       <c r="AF4" s="25"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
-      <c r="E5" s="52"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
@@ -2514,18 +2602,22 @@
       <c r="N5" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
+      <c r="P5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>35.47</v>
+      </c>
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="U5" s="39"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
@@ -2538,32 +2630,38 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="51"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+      <c r="O6" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="R6" s="27"/>
       <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="22"/>
+      <c r="T6" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="U6" s="39"/>
+      <c r="V6" s="70"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
@@ -2576,35 +2674,35 @@
       <c r="AF6" s="25"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="48"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
         <v>2</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="49">
         <v>38083</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45">
         <v>2</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="45">
         <v>1</v>
       </c>
-      <c r="M7" s="47">
-        <v>0</v>
-      </c>
-      <c r="N7" s="63" t="s">
+      <c r="M7" s="45">
+        <v>0</v>
+      </c>
+      <c r="N7" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="35" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="15" t="s">
@@ -2618,10 +2716,10 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="22"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
@@ -2634,11 +2732,11 @@
       <c r="AF7" s="25"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="52"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -2647,8 +2745,8 @@
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="36" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="35" t="s">
         <v>90</v>
       </c>
       <c r="P8" s="15" t="s">
@@ -2662,10 +2760,10 @@
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
-      <c r="U8" s="40" t="s">
+      <c r="U8" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="22"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
@@ -2678,92 +2776,96 @@
       <c r="AF8" s="25"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="45"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
+      <c r="P9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="U9" s="39"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43">
         <v>3</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="54">
         <v>43013</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64">
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43">
         <v>1</v>
       </c>
-      <c r="L10" s="64">
-        <v>0</v>
-      </c>
-      <c r="M10" s="64">
-        <v>0</v>
-      </c>
-      <c r="N10" s="63" t="s">
+      <c r="L10" s="43">
+        <v>0</v>
+      </c>
+      <c r="M10" s="43">
+        <v>0</v>
+      </c>
+      <c r="N10" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="64" t="s">
+      <c r="P10" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="64">
+      <c r="Q10" s="43">
         <v>13.6</v>
       </c>
-      <c r="R10" s="67" t="s">
+      <c r="R10" s="56" t="s">
         <v>96</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="66" t="s">
+      <c r="U10" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="47">
+      <c r="V10" s="64">
         <v>1.1000000000000001</v>
       </c>
       <c r="W10" s="15">
@@ -2782,13 +2884,13 @@
         <f>X10+Z10</f>
         <v>123.41999999999999</v>
       </c>
-      <c r="AB10" s="64" t="s">
+      <c r="AB10" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="AC10" s="47">
+      <c r="AC10" s="45">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AD10" s="47">
+      <c r="AD10" s="45">
         <f>V10+AC10</f>
         <v>10.799999999999999</v>
       </c>
@@ -2796,28 +2898,28 @@
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="67"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="49"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="15">
         <v>3521376</v>
       </c>
@@ -2834,42 +2936,42 @@
         <f>X11+Z11</f>
         <v>126.18</v>
       </c>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="45"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="48"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45">
         <v>4</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47">
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45">
         <v>2</v>
       </c>
-      <c r="L12" s="47">
-        <v>0</v>
-      </c>
-      <c r="M12" s="47">
+      <c r="L12" s="45">
+        <v>0</v>
+      </c>
+      <c r="M12" s="45">
         <v>1</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="N12" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="36" t="s">
+      <c r="O12" s="35" t="s">
         <v>70</v>
       </c>
       <c r="P12" s="15" t="s">
@@ -2883,10 +2985,10 @@
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="40" t="s">
+      <c r="U12" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="22"/>
+      <c r="V12" s="70"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
@@ -2899,11 +3001,11 @@
       <c r="AF12" s="25"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
-      <c r="E13" s="52"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
@@ -2912,8 +3014,8 @@
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="36" t="s">
+      <c r="N13" s="44"/>
+      <c r="O13" s="35" t="s">
         <v>91</v>
       </c>
       <c r="P13" s="15" t="s">
@@ -2927,10 +3029,10 @@
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
-      <c r="U13" s="40" t="s">
+      <c r="U13" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="22"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -2943,34 +3045,38 @@
       <c r="AF13" s="25"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="51"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
       <c r="N14" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
+      <c r="P14" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U14" s="40"/>
-      <c r="V14" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="U14" s="39"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
@@ -2983,7 +3089,7 @@
       <c r="AF14" s="25"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="45"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="48"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
@@ -3011,7 +3117,7 @@
       <c r="N15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="36" t="s">
+      <c r="O15" s="35" t="s">
         <v>71</v>
       </c>
       <c r="P15" s="15" t="s">
@@ -3025,10 +3131,10 @@
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="36" t="s">
+      <c r="U15" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="72">
         <v>1.8</v>
       </c>
       <c r="W15" s="15">
@@ -3061,38 +3167,38 @@
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="45"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="48"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45">
         <v>6</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <v>44441</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47">
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45">
         <v>1</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="45">
         <v>2</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="45">
         <v>0</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="45" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="15">
@@ -3103,10 +3209,10 @@
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
-      <c r="U16" s="36" t="s">
+      <c r="U16" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V16" s="72">
         <v>1.8</v>
       </c>
       <c r="W16" s="15">
@@ -3139,11 +3245,11 @@
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="45"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
-      <c r="E17" s="52"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
       <c r="H17" s="48"/>
@@ -3155,16 +3261,20 @@
       <c r="N17" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="15">
+        <v>9.57</v>
+      </c>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="15"/>
+      <c r="U17" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="V17" s="72"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="12"/>
@@ -3177,11 +3287,11 @@
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
-      <c r="E18" s="52"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
@@ -3193,18 +3303,24 @@
       <c r="N18" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="P18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>10.11</v>
+      </c>
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U18" s="36"/>
-      <c r="V18" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="U18" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="V18" s="72"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="12"/>
@@ -3217,34 +3333,40 @@
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="51"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O19" s="38" t="s">
+      <c r="O19" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="P19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>9.49</v>
+      </c>
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U19" s="36"/>
-      <c r="V19" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="U19" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="V19" s="72"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="12"/>
@@ -3257,7 +3379,7 @@
       <c r="AF19" s="12"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="45"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="48"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -3285,7 +3407,7 @@
       <c r="N20" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="36" t="s">
+      <c r="O20" s="35" t="s">
         <v>73</v>
       </c>
       <c r="P20" s="15" t="s">
@@ -3299,10 +3421,10 @@
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="36" t="s">
+      <c r="U20" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="72">
         <v>1.7</v>
       </c>
       <c r="W20" s="15">
@@ -3335,7 +3457,7 @@
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="45"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="48"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15">
@@ -3363,7 +3485,7 @@
       <c r="N21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="36" t="s">
+      <c r="O21" s="35" t="s">
         <v>74</v>
       </c>
       <c r="P21" s="15" t="s">
@@ -3377,10 +3499,10 @@
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
-      <c r="U21" s="36" t="s">
+      <c r="U21" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="72">
         <v>1.1000000000000001</v>
       </c>
       <c r="W21" s="15">
@@ -3417,7 +3539,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="45"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="48"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -3445,7 +3567,7 @@
       <c r="N22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="36" t="s">
+      <c r="O22" s="35" t="s">
         <v>75</v>
       </c>
       <c r="P22" s="15" t="s">
@@ -3459,10 +3581,10 @@
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="36" t="s">
+      <c r="U22" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="72">
         <v>1.7</v>
       </c>
       <c r="W22" s="15">
@@ -3495,8 +3617,8 @@
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="46"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15">
         <v>10</v>
@@ -3511,17 +3633,17 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="64">
+      <c r="K23" s="43">
         <v>7</v>
       </c>
-      <c r="L23" s="64"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="15">
         <v>0</v>
       </c>
       <c r="N23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O23" s="36" t="s">
+      <c r="O23" s="35" t="s">
         <v>76</v>
       </c>
       <c r="P23" s="15" t="s">
@@ -3535,10 +3657,10 @@
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="36" t="s">
+      <c r="U23" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="72">
         <v>1.3</v>
       </c>
       <c r="W23" s="15">
@@ -3575,37 +3697,37 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43">
         <v>1</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="64" t="s">
+      <c r="E24" s="54"/>
+      <c r="F24" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64">
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43">
         <v>1</v>
       </c>
-      <c r="L24" s="64">
+      <c r="L24" s="43">
         <v>1</v>
       </c>
-      <c r="M24" s="64">
-        <v>0</v>
-      </c>
-      <c r="N24" s="63" t="s">
+      <c r="M24" s="43">
+        <v>0</v>
+      </c>
+      <c r="N24" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="36" t="s">
+      <c r="O24" s="35" t="s">
         <v>67</v>
       </c>
       <c r="P24" s="15" t="s">
@@ -3619,10 +3741,10 @@
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="36" t="s">
+      <c r="U24" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="72">
         <v>1.7</v>
       </c>
       <c r="W24" s="15">
@@ -3655,21 +3777,21 @@
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="36" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="35" t="s">
         <v>68</v>
       </c>
       <c r="P25" s="15" t="s">
@@ -3683,10 +3805,10 @@
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="36" t="s">
+      <c r="U25" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="V25" s="15">
+      <c r="V25" s="72">
         <v>1.6</v>
       </c>
       <c r="W25" s="15">
@@ -3719,47 +3841,47 @@
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45">
         <v>1</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="45">
         <v>2</v>
       </c>
-      <c r="L26" s="47">
-        <v>0</v>
-      </c>
-      <c r="M26" s="47">
+      <c r="L26" s="45">
+        <v>0</v>
+      </c>
+      <c r="M26" s="45">
         <v>0</v>
       </c>
       <c r="N26" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="36" t="s">
+      <c r="O26" s="35" t="s">
         <v>79</v>
       </c>
       <c r="P26" s="15" t="s">
@@ -3773,10 +3895,10 @@
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
-      <c r="U26" s="36" t="s">
+      <c r="U26" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="72">
         <v>1.7</v>
       </c>
       <c r="W26" s="15">
@@ -3809,34 +3931,40 @@
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="45"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O27" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
+      <c r="O27" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>9.73</v>
+      </c>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U27" s="36"/>
-      <c r="V27" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="U27" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="V27" s="72"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="12"/>
@@ -3849,7 +3977,7 @@
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="45"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="48"/>
       <c r="C28" s="15">
         <v>4814</v>
@@ -3887,7 +4015,7 @@
       <c r="N28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="36" t="s">
+      <c r="O28" s="35" t="s">
         <v>80</v>
       </c>
       <c r="P28" s="15" t="s">
@@ -3901,10 +4029,10 @@
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
-      <c r="U28" s="36" t="s">
+      <c r="U28" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="72">
         <v>2</v>
       </c>
       <c r="W28" s="15">
@@ -3937,7 +4065,7 @@
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="45"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="48"/>
       <c r="C29" s="15">
         <v>4817</v>
@@ -3973,7 +4101,7 @@
       <c r="N29" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="O29" s="35" t="s">
         <v>81</v>
       </c>
       <c r="P29" s="15" t="s">
@@ -3987,10 +4115,10 @@
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
-      <c r="U29" s="36" t="s">
+      <c r="U29" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V29" s="72">
         <v>1.5</v>
       </c>
       <c r="W29" s="15">
@@ -4023,43 +4151,43 @@
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="45"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="48"/>
-      <c r="C30" s="47">
+      <c r="C30" s="45">
         <v>4812</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="45">
         <v>4</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47" t="s">
+      <c r="I30" s="45"/>
+      <c r="J30" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="45">
         <v>3</v>
       </c>
-      <c r="L30" s="47">
-        <v>0</v>
-      </c>
-      <c r="M30" s="47">
+      <c r="L30" s="45">
+        <v>0</v>
+      </c>
+      <c r="M30" s="45">
         <v>0</v>
       </c>
       <c r="N30" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="36" t="s">
+      <c r="O30" s="35" t="s">
         <v>82</v>
       </c>
       <c r="P30" s="15" t="s">
@@ -4073,10 +4201,10 @@
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
-      <c r="U30" s="36" t="s">
+      <c r="U30" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="72">
         <v>1.9</v>
       </c>
       <c r="W30" s="15">
@@ -4109,34 +4237,38 @@
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="45"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
       <c r="N31" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O31" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="O31" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>9.77</v>
+      </c>
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U31" s="36"/>
-      <c r="V31" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="U31" s="35"/>
+      <c r="V31" s="72"/>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="12"/>
@@ -4149,43 +4281,43 @@
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="45"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="48"/>
-      <c r="C32" s="47">
+      <c r="C32" s="45">
         <v>4814</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="45">
         <v>5</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47" t="s">
+      <c r="H32" s="45"/>
+      <c r="I32" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="J32" s="47" t="s">
+      <c r="J32" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="45">
         <v>3</v>
       </c>
-      <c r="L32" s="47">
+      <c r="L32" s="45">
         <v>1</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="45">
         <v>0</v>
       </c>
       <c r="N32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="35" t="s">
         <v>83</v>
       </c>
       <c r="P32" s="15" t="s">
@@ -4199,10 +4331,10 @@
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
-      <c r="U32" s="36" t="s">
+      <c r="U32" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="V32" s="15">
+      <c r="V32" s="72">
         <v>1.7</v>
       </c>
       <c r="W32" s="15">
@@ -4235,34 +4367,40 @@
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="45"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="51"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
       <c r="N33" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O33" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="O33" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="27">
+        <v>10.07</v>
+      </c>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
       <c r="T33" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U33" s="36"/>
-      <c r="V33" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="U33" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="V33" s="72"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="12"/>
@@ -4275,45 +4413,45 @@
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="45"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="48"/>
-      <c r="C34" s="47">
+      <c r="C34" s="45">
         <v>4818</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="45">
         <v>6</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="45">
         <v>2</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="45">
         <v>1</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34" s="45">
         <v>0</v>
       </c>
       <c r="N34" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O34" s="36" t="s">
+      <c r="O34" s="35" t="s">
         <v>84</v>
       </c>
       <c r="P34" s="15" t="s">
@@ -4327,10 +4465,10 @@
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
-      <c r="U34" s="36" t="s">
+      <c r="U34" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V34" s="72">
         <v>1.7</v>
       </c>
       <c r="W34" s="15">
@@ -4363,34 +4501,40 @@
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="45"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="51"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
       <c r="N35" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O35" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="O35" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>9.77</v>
+      </c>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U35" s="36"/>
-      <c r="V35" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="U35" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="V35" s="72"/>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="12"/>
@@ -4403,7 +4547,7 @@
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="45"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="48"/>
       <c r="C36" s="15">
         <v>4817</v>
@@ -4441,7 +4585,7 @@
       <c r="N36" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O36" s="36" t="s">
+      <c r="O36" s="35" t="s">
         <v>85</v>
       </c>
       <c r="P36" s="15" t="s">
@@ -4455,10 +4599,10 @@
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
-      <c r="U36" s="36" t="s">
+      <c r="U36" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V36" s="72">
         <v>1.7</v>
       </c>
       <c r="W36" s="15">
@@ -4491,7 +4635,7 @@
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="45"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="48"/>
       <c r="C37" s="15">
         <v>4818</v>
@@ -4529,7 +4673,7 @@
       <c r="N37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O37" s="36" t="s">
+      <c r="O37" s="35" t="s">
         <v>86</v>
       </c>
       <c r="P37" s="15" t="s">
@@ -4543,10 +4687,10 @@
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
-      <c r="U37" s="36" t="s">
+      <c r="U37" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="V37" s="15">
+      <c r="V37" s="72">
         <v>1.6</v>
       </c>
       <c r="W37" s="15">
@@ -4579,39 +4723,39 @@
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="45"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="48"/>
-      <c r="C38" s="47">
+      <c r="C38" s="45">
         <v>4818</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="45">
         <v>9</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="47" t="s">
+      <c r="E38" s="49"/>
+      <c r="F38" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47" t="s">
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="J38" s="47" t="s">
+      <c r="J38" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="45">
         <v>1</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L38" s="45">
         <v>1</v>
       </c>
-      <c r="M38" s="47">
+      <c r="M38" s="45">
         <v>0</v>
       </c>
       <c r="N38" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="O38" s="35" t="s">
         <v>87</v>
       </c>
       <c r="P38" s="15" t="s">
@@ -4625,10 +4769,10 @@
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
-      <c r="U38" s="36" t="s">
+      <c r="U38" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="V38" s="15">
+      <c r="V38" s="72">
         <v>1</v>
       </c>
       <c r="W38" s="15">
@@ -4663,34 +4807,40 @@
       <c r="AF38" s="12"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="45"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="51"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
       <c r="N39" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O39" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="O39" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>10.17</v>
+      </c>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
       <c r="T39" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U39" s="36"/>
-      <c r="V39" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="U39" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="V39" s="72"/>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
       <c r="Y39" s="12"/>
@@ -4703,39 +4853,39 @@
       <c r="AF39" s="12"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="45"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="48"/>
-      <c r="C40" s="47">
+      <c r="C40" s="45">
         <v>4818</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="45">
         <v>10</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47" t="s">
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="45">
         <v>1</v>
       </c>
-      <c r="L40" s="47">
+      <c r="L40" s="45">
         <v>1</v>
       </c>
-      <c r="M40" s="47">
+      <c r="M40" s="45">
         <v>0</v>
       </c>
       <c r="N40" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O40" s="36" t="s">
+      <c r="O40" s="35" t="s">
         <v>88</v>
       </c>
       <c r="P40" s="15" t="s">
@@ -4749,10 +4899,10 @@
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
-      <c r="U40" s="36" t="s">
+      <c r="U40" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="V40" s="15">
+      <c r="V40" s="72">
         <v>1.2</v>
       </c>
       <c r="W40" s="15">
@@ -4785,34 +4935,40 @@
       <c r="AF40" s="12"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="46"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="51"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
       <c r="N41" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O41" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="O41" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="27">
+        <v>9.7100000000000009</v>
+      </c>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
       <c r="T41" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U41" s="36"/>
-      <c r="V41" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="U41" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="V41" s="72"/>
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
       <c r="Y41" s="12"/>
@@ -4825,43 +4981,43 @@
       <c r="AF41" s="12"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="45">
         <v>4818</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="45">
         <v>1</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="64" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H42" s="64" t="s">
+      <c r="H42" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47">
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45">
         <v>18</v>
       </c>
-      <c r="L42" s="47">
+      <c r="L42" s="45">
         <v>1</v>
       </c>
-      <c r="M42" s="47">
+      <c r="M42" s="45">
         <v>2</v>
       </c>
       <c r="N42" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O42" s="36" t="s">
+      <c r="O42" s="35" t="s">
         <v>125</v>
       </c>
       <c r="P42" s="15" t="s">
@@ -4875,10 +5031,10 @@
         <v>96</v>
       </c>
       <c r="T42" s="15"/>
-      <c r="U42" s="36" t="s">
+      <c r="U42" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="V42" s="15">
+      <c r="V42" s="72">
         <v>1.2</v>
       </c>
       <c r="W42" s="12">
@@ -4911,34 +5067,40 @@
       <c r="AF42" s="12"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="45"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="51"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
       <c r="N43" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="O43" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+      <c r="O43" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>8.93</v>
+      </c>
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
       <c r="T43" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U43" s="36"/>
-      <c r="V43" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="U43" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="V43" s="72"/>
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
@@ -4951,16 +5113,16 @@
       <c r="AF43" s="12"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="45"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
       <c r="D44" s="15">
         <v>2</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15">
@@ -4975,7 +5137,7 @@
       <c r="N44" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="O44" s="35" t="s">
         <v>126</v>
       </c>
       <c r="P44" s="15" t="s">
@@ -4989,10 +5151,10 @@
         <v>96</v>
       </c>
       <c r="T44" s="15"/>
-      <c r="U44" s="36" t="s">
+      <c r="U44" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="V44" s="15">
+      <c r="V44" s="72">
         <v>1.2</v>
       </c>
       <c r="W44" s="12">
@@ -5027,16 +5189,16 @@
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="46"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="15">
         <v>3</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15">
@@ -5051,7 +5213,7 @@
       <c r="N45" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O45" s="36" t="s">
+      <c r="O45" s="35" t="s">
         <v>127</v>
       </c>
       <c r="P45" s="15" t="s">
@@ -5065,10 +5227,10 @@
         <v>96</v>
       </c>
       <c r="T45" s="15"/>
-      <c r="U45" s="36" t="s">
+      <c r="U45" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="V45" s="15">
+      <c r="V45" s="72">
         <v>1.3</v>
       </c>
       <c r="W45" s="12">
@@ -5101,37 +5263,37 @@
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="54">
         <v>44550</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="F46" s="43" t="s">
         <v>124</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="64">
+      <c r="K46" s="43">
         <v>1</v>
       </c>
-      <c r="L46" s="64"/>
+      <c r="L46" s="43"/>
       <c r="M46" s="15">
         <v>0</v>
       </c>
       <c r="N46" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="O46" s="36" t="s">
+      <c r="O46" s="35" t="s">
         <v>56</v>
       </c>
       <c r="P46" s="15"/>
@@ -5141,10 +5303,10 @@
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
-      <c r="U46" s="40" t="s">
+      <c r="U46" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="V46" s="22">
+      <c r="V46" s="70">
         <v>0</v>
       </c>
       <c r="W46" s="21"/>
@@ -5164,29 +5326,29 @@
       <c r="AF46" s="25"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="45"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="48"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="64"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="64">
+      <c r="K47" s="43">
         <v>1</v>
       </c>
-      <c r="L47" s="64"/>
+      <c r="L47" s="43"/>
       <c r="M47" s="15">
         <v>0</v>
       </c>
       <c r="N47" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O47" s="36" t="s">
+      <c r="O47" s="35" t="s">
         <v>62</v>
       </c>
       <c r="P47" s="15"/>
@@ -5196,10 +5358,10 @@
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
-      <c r="U47" s="36" t="s">
+      <c r="U47" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="V47" s="15">
+      <c r="V47" s="72">
         <v>1.1000000000000001</v>
       </c>
       <c r="W47" s="12">
@@ -5232,29 +5394,29 @@
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A48" s="45"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="48"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="64"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="43"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="64">
+      <c r="K48" s="43">
         <v>1</v>
       </c>
-      <c r="L48" s="64"/>
+      <c r="L48" s="43"/>
       <c r="M48" s="15">
         <v>0</v>
       </c>
       <c r="N48" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O48" s="36" t="s">
+      <c r="O48" s="35" t="s">
         <v>63</v>
       </c>
       <c r="P48" s="15"/>
@@ -5264,10 +5426,10 @@
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
       <c r="T48" s="15"/>
-      <c r="U48" s="36" t="s">
+      <c r="U48" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="V48" s="15">
+      <c r="V48" s="72">
         <v>1.5</v>
       </c>
       <c r="W48" s="12">
@@ -5302,29 +5464,29 @@
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="45"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="48"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47" t="s">
+      <c r="C49" s="45"/>
+      <c r="D49" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="55">
+      <c r="E49" s="54"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="63">
         <v>1</v>
       </c>
-      <c r="L49" s="56"/>
-      <c r="M49" s="47">
+      <c r="L49" s="64"/>
+      <c r="M49" s="45">
         <v>0</v>
       </c>
       <c r="N49" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O49" s="53" t="s">
+      <c r="O49" s="67" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="15"/>
@@ -5334,10 +5496,10 @@
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
-      <c r="U49" s="36" t="s">
+      <c r="U49" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="V49" s="15">
+      <c r="V49" s="72">
         <v>1.1000000000000001</v>
       </c>
       <c r="W49" s="12">
@@ -5370,32 +5532,36 @@
       <c r="AF49" s="12"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A50" s="45"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="49"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="46"/>
       <c r="N50" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O50" s="54"/>
+      <c r="O50" s="68"/>
       <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
+      <c r="Q50" s="15">
+        <v>9.65</v>
+      </c>
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U50" s="36"/>
-      <c r="V50" s="15"/>
+      <c r="U50" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="V50" s="72"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
@@ -5408,29 +5574,29 @@
       <c r="AF50" s="12"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A51" s="46"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="64"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="64">
+      <c r="K51" s="43">
         <v>1</v>
       </c>
-      <c r="L51" s="64"/>
+      <c r="L51" s="43"/>
       <c r="M51" s="15">
         <v>0</v>
       </c>
       <c r="N51" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O51" s="36" t="s">
+      <c r="O51" s="35" t="s">
         <v>65</v>
       </c>
       <c r="P51" s="15"/>
@@ -5440,10 +5606,10 @@
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
-      <c r="U51" s="36" t="s">
+      <c r="U51" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="V51" s="15">
+      <c r="V51" s="72">
         <v>1.1000000000000001</v>
       </c>
       <c r="W51" s="12">
@@ -5506,17 +5672,17 @@
       <c r="J52" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K52" s="64">
+      <c r="K52" s="43">
         <v>1</v>
       </c>
-      <c r="L52" s="64"/>
+      <c r="L52" s="43"/>
       <c r="M52" s="15">
         <v>0</v>
       </c>
       <c r="N52" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O52" s="36" t="s">
+      <c r="O52" s="35" t="s">
         <v>66</v>
       </c>
       <c r="P52" s="15"/>
@@ -5526,10 +5692,10 @@
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="15"/>
-      <c r="U52" s="36" t="s">
+      <c r="U52" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="V52" s="15">
+      <c r="V52" s="72">
         <v>1</v>
       </c>
       <c r="W52" s="12">
@@ -5562,37 +5728,37 @@
       <c r="AF52" s="12"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47" t="s">
+      <c r="C53" s="45"/>
+      <c r="D53" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="64" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47">
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45">
         <v>1</v>
       </c>
-      <c r="L53" s="47">
-        <v>0</v>
-      </c>
-      <c r="M53" s="47">
+      <c r="L53" s="45">
+        <v>0</v>
+      </c>
+      <c r="M53" s="45">
         <v>0</v>
       </c>
       <c r="N53" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O53" s="53" t="s">
+      <c r="O53" s="67" t="s">
         <v>57</v>
       </c>
       <c r="P53" s="15"/>
@@ -5600,8 +5766,8 @@
       <c r="R53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="15"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="72"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="12"/>
@@ -5614,32 +5780,36 @@
       <c r="AF53" s="12"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A54" s="45"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="51"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
       <c r="N54" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O54" s="54"/>
+      <c r="O54" s="68"/>
       <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
+      <c r="Q54" s="15">
+        <v>8.58</v>
+      </c>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U54" s="36"/>
-      <c r="V54" s="15"/>
+      <c r="U54" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="V54" s="72"/>
       <c r="W54" s="13"/>
       <c r="X54" s="13"/>
       <c r="Y54" s="12"/>
@@ -5652,14 +5822,14 @@
       <c r="AF54" s="12"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" s="45"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="48"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="17"/>
-      <c r="F55" s="64"/>
+      <c r="F55" s="43"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -5676,7 +5846,7 @@
       <c r="N55" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O55" s="36" t="s">
+      <c r="O55" s="35" t="s">
         <v>58</v>
       </c>
       <c r="P55" s="15"/>
@@ -5684,8 +5854,8 @@
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="15"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="72"/>
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="12"/>
@@ -5698,14 +5868,14 @@
       <c r="AF55" s="12"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A56" s="45"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="48"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="64"/>
+      <c r="F56" s="43"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -5722,7 +5892,7 @@
       <c r="N56" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O56" s="36" t="s">
+      <c r="O56" s="35" t="s">
         <v>59</v>
       </c>
       <c r="P56" s="15"/>
@@ -5730,8 +5900,8 @@
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="15"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="72"/>
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="12"/>
@@ -5744,14 +5914,14 @@
       <c r="AF56" s="12"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57" s="45"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="48"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="17"/>
-      <c r="F57" s="64"/>
+      <c r="F57" s="43"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -5768,7 +5938,7 @@
       <c r="N57" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O57" s="36" t="s">
+      <c r="O57" s="35" t="s">
         <v>60</v>
       </c>
       <c r="P57" s="15"/>
@@ -5776,8 +5946,8 @@
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="15"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="72"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="12"/>
@@ -5790,14 +5960,14 @@
       <c r="AF57" s="12"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A58" s="46"/>
-      <c r="B58" s="49"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="64"/>
+      <c r="F58" s="43"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -5814,7 +5984,7 @@
       <c r="N58" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="36" t="s">
+      <c r="O58" s="35" t="s">
         <v>61</v>
       </c>
       <c r="P58" s="15"/>
@@ -5822,8 +5992,8 @@
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="15"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="72"/>
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="12"/>
@@ -5836,166 +6006,182 @@
       <c r="AF58" s="12"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60">
+      <c r="C59" s="57"/>
+      <c r="D59" s="57">
         <v>1</v>
       </c>
-      <c r="E59" s="61">
+      <c r="E59" s="59">
         <v>44990</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60">
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57">
         <v>1</v>
       </c>
-      <c r="L59" s="60">
+      <c r="L59" s="57">
         <v>1</v>
       </c>
-      <c r="M59" s="60"/>
-      <c r="N59" s="59" t="s">
+      <c r="M59" s="57"/>
+      <c r="N59" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="O59" s="37" t="s">
+      <c r="O59" s="36" t="s">
         <v>193</v>
       </c>
       <c r="P59" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q59" s="28"/>
+      <c r="Q59" s="28">
+        <v>12.61</v>
+      </c>
       <c r="R59" s="28"/>
       <c r="S59" s="28"/>
       <c r="T59" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U59" s="39"/>
+      <c r="U59" s="73" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="37" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="36" t="s">
         <v>194</v>
       </c>
       <c r="P60" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q60" s="28"/>
+      <c r="Q60" s="28">
+        <v>10.88</v>
+      </c>
       <c r="R60" s="28"/>
       <c r="S60" s="28"/>
       <c r="T60" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U60" s="39"/>
+      <c r="U60" s="73" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60">
+      <c r="C61" s="57"/>
+      <c r="D61" s="57">
         <v>2</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="59">
         <v>44990</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60">
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57">
         <v>1</v>
       </c>
-      <c r="L61" s="60">
+      <c r="L61" s="57">
         <v>1</v>
       </c>
-      <c r="M61" s="60"/>
-      <c r="N61" s="59" t="s">
+      <c r="M61" s="57"/>
+      <c r="N61" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="O61" s="37" t="s">
+      <c r="O61" s="36" t="s">
         <v>195</v>
       </c>
       <c r="P61" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q61" s="28"/>
+      <c r="Q61" s="28">
+        <v>9.7899999999999991</v>
+      </c>
       <c r="R61" s="28"/>
       <c r="S61" s="28"/>
       <c r="T61" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U61" s="39"/>
+      <c r="U61" s="73" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A62" s="59"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="37" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="36" t="s">
         <v>196</v>
       </c>
       <c r="P62" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q62" s="28"/>
+      <c r="Q62" s="28">
+        <v>11</v>
+      </c>
       <c r="R62" s="28"/>
       <c r="S62" s="28"/>
       <c r="T62" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U62" s="39"/>
+      <c r="U62" s="73" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
-      <c r="E63" s="61">
+      <c r="E63" s="59">
         <v>45034</v>
       </c>
-      <c r="F63" s="60" t="s">
+      <c r="F63" s="57" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="32"/>
@@ -6008,27 +6194,31 @@
         <v>205</v>
       </c>
       <c r="N63" s="33"/>
-      <c r="O63" s="39" t="s">
+      <c r="O63" s="38" t="s">
         <v>201</v>
       </c>
       <c r="P63" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q63" s="28"/>
+      <c r="Q63" s="28">
+        <v>11.46</v>
+      </c>
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
       <c r="T63" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U63" s="39"/>
+      <c r="U63" s="73" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A64" s="59"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="60"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
@@ -6037,27 +6227,31 @@
       <c r="L64" s="32"/>
       <c r="M64" s="32"/>
       <c r="N64" s="33"/>
-      <c r="O64" s="39" t="s">
+      <c r="O64" s="38" t="s">
         <v>202</v>
       </c>
       <c r="P64" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q64" s="28"/>
+      <c r="Q64" s="28">
+        <v>11.64</v>
+      </c>
       <c r="R64" s="28"/>
       <c r="S64" s="28"/>
       <c r="T64" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U64" s="39"/>
+      <c r="U64" s="73" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A65" s="59"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="60"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="57"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
@@ -6066,87 +6260,99 @@
       <c r="L65" s="32"/>
       <c r="M65" s="32"/>
       <c r="N65" s="33"/>
-      <c r="O65" s="39" t="s">
+      <c r="O65" s="38" t="s">
         <v>203</v>
       </c>
       <c r="P65" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q65" s="28"/>
+      <c r="Q65" s="28">
+        <v>10.75</v>
+      </c>
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
       <c r="T65" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U65" s="39"/>
+      <c r="U65" s="73" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60" t="s">
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60">
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57">
         <v>1</v>
       </c>
-      <c r="L66" s="60">
+      <c r="L66" s="57">
         <v>1</v>
       </c>
-      <c r="M66" s="60"/>
+      <c r="M66" s="57"/>
       <c r="N66" s="33"/>
-      <c r="O66" s="39" t="s">
+      <c r="O66" s="38" t="s">
         <v>207</v>
       </c>
       <c r="P66" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Q66" s="28"/>
+      <c r="Q66" s="28">
+        <v>10.33</v>
+      </c>
       <c r="R66" s="28"/>
       <c r="S66" s="28"/>
       <c r="T66" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U66" s="39"/>
+        <v>96</v>
+      </c>
+      <c r="U66" s="73" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A67" s="59"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
       <c r="N67" s="33"/>
-      <c r="O67" s="39" t="s">
+      <c r="O67" s="38" t="s">
         <v>208</v>
       </c>
       <c r="P67" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q67" s="28"/>
+      <c r="Q67" s="28">
+        <v>10.47</v>
+      </c>
       <c r="R67" s="28"/>
       <c r="S67" s="28"/>
       <c r="T67" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U67" s="39"/>
+        <v>96</v>
+      </c>
+      <c r="U67" s="73" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
@@ -6171,50 +6377,228 @@
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
       <c r="N68" s="33"/>
-      <c r="O68" s="39" t="s">
+      <c r="O68" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
+      <c r="P68" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="28">
+        <v>13.37</v>
+      </c>
       <c r="R68" s="28"/>
       <c r="S68" s="28"/>
       <c r="T68" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="U68" s="39"/>
+        <v>96</v>
+      </c>
+      <c r="U68" s="73" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="257">
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
+  <mergeCells count="258">
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="G42:G45"/>
     <mergeCell ref="H42:H45"/>
@@ -6239,221 +6623,50 @@
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="B26:B41"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4:Q6 Q8:Q9 Q13:Q14 R3:V10 R12:V58">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Sequence">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Sequence">
       <formula>NOT(ISERROR(SEARCH("Sequence",Q3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="No action">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="No action">
       <formula>NOT(ISERROR(SEARCH("No action",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X58 Z3:Z58">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="70"/>
@@ -6464,20 +6677,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T59:T65">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sequence">
+      <formula>NOT(ISERROR(SEARCH("Sequence",T59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No action">
+      <formula>NOT(ISERROR(SEARCH("No action",T59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T66:T68">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Sequence">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sequence">
       <formula>NOT(ISERROR(SEARCH("Sequence",T66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="No action">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No action">
       <formula>NOT(ISERROR(SEARCH("No action",T66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T59:T65">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sequence">
-      <formula>NOT(ISERROR(SEARCH("Sequence",T59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No action">
-      <formula>NOT(ISERROR(SEARCH("No action",T59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_metadata/AdultHW_census.xlsx
+++ b/01_metadata/AdultHW_census.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\01_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C51CF75-171C-44A0-99D4-DEB3B6958D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520E7552-D55B-4911-831E-B39A5DCFB9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Census" sheetId="2" r:id="rId2"/>
-    <sheet name="Shipping" sheetId="3" r:id="rId3"/>
+    <sheet name="Shipping" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Census!$A$1:$M$58</definedName>
@@ -1280,6 +1280,21 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,97 +1304,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1800,22 +1800,21 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1881,11 +1880,11 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1916,9 +1915,9 @@
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1949,9 +1948,9 @@
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1963,7 +1962,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1980,7 +1979,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1997,7 +1996,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2013,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2031,7 +2030,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2043,7 +2042,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>117</v>
       </c>
@@ -2204,7 +2203,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -2225,7 +2224,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -2246,7 +2245,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -2284,76 +2283,75 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" style="7" customWidth="1"/>
-    <col min="16" max="17" width="9.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.54296875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.81640625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="9.81640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.54296875" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" customWidth="1"/>
-    <col min="25" max="25" width="15.1796875" style="1" customWidth="1"/>
-    <col min="26" max="27" width="8.81640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.08984375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.54296875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.54296875" customWidth="1"/>
-    <col min="31" max="31" width="9.81640625" customWidth="1"/>
-    <col min="32" max="32" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="7" customWidth="1"/>
+    <col min="16" max="17" width="9.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="22" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="47"/>
+      <c r="P1" s="69"/>
       <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
@@ -2366,10 +2364,10 @@
       <c r="T1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="69" t="s">
+      <c r="V1" s="40" t="s">
         <v>187</v>
       </c>
       <c r="W1" s="18" t="s">
@@ -2380,31 +2378,31 @@
         <v>181</v>
       </c>
       <c r="Z1" s="20"/>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47" t="s">
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="52" t="s">
+      <c r="AE1" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="AF1" s="53"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
+      <c r="AF1" s="73"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
       <c r="B2" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2429,7 +2427,7 @@
       <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="47"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="16" t="s">
         <v>52</v>
       </c>
@@ -2448,8 +2446,8 @@
       <c r="T2" s="29">
         <v>2023</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="69" t="s">
+      <c r="U2" s="69"/>
+      <c r="V2" s="40" t="s">
         <v>186</v>
       </c>
       <c r="W2" s="18" t="s">
@@ -2464,14 +2462,14 @@
       <c r="Z2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" s="47"/>
+      <c r="AA2" s="69"/>
       <c r="AB2" s="16" t="s">
         <v>183</v>
       </c>
       <c r="AC2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AD2" s="47"/>
+      <c r="AD2" s="69"/>
       <c r="AE2" s="24" t="s">
         <v>190</v>
       </c>
@@ -2479,37 +2477,37 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48">
         <v>1</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="54">
         <v>38083</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48">
         <v>4</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="48">
         <v>4</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="67" t="s">
         <v>48</v>
       </c>
       <c r="O3" s="35" t="s">
@@ -2529,7 +2527,7 @@
       <c r="U3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="70"/>
+      <c r="V3" s="41"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
@@ -2541,21 +2539,21 @@
       <c r="AE3" s="25"/>
       <c r="AF3" s="25"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="44"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="67"/>
       <c r="O4" s="35" t="s">
         <v>89</v>
       </c>
@@ -2573,7 +2571,7 @@
       <c r="U4" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="70"/>
+      <c r="V4" s="41"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
@@ -2585,20 +2583,20 @@
       <c r="AE4" s="25"/>
       <c r="AF4" s="25"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="26" t="s">
         <v>219</v>
       </c>
@@ -2617,7 +2615,7 @@
         <v>95</v>
       </c>
       <c r="U5" s="39"/>
-      <c r="V5" s="70"/>
+      <c r="V5" s="41"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
@@ -2629,20 +2627,20 @@
       <c r="AE5" s="25"/>
       <c r="AF5" s="25"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="26" t="s">
         <v>219</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>95</v>
       </c>
       <c r="U6" s="39"/>
-      <c r="V6" s="70"/>
+      <c r="V6" s="41"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
@@ -2673,33 +2671,33 @@
       <c r="AE6" s="25"/>
       <c r="AF6" s="25"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48">
         <v>2</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="54">
         <v>38083</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48">
         <v>2</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="48">
         <v>1</v>
       </c>
-      <c r="M7" s="45">
-        <v>0</v>
-      </c>
-      <c r="N7" s="44" t="s">
+      <c r="M7" s="48">
+        <v>0</v>
+      </c>
+      <c r="N7" s="67" t="s">
         <v>48</v>
       </c>
       <c r="O7" s="35" t="s">
@@ -2719,7 +2717,7 @@
       <c r="U7" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="70"/>
+      <c r="V7" s="41"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
@@ -2731,21 +2729,21 @@
       <c r="AE7" s="25"/>
       <c r="AF7" s="25"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="44"/>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="35" t="s">
         <v>90</v>
       </c>
@@ -2763,7 +2761,7 @@
       <c r="U8" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="70"/>
+      <c r="V8" s="41"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
@@ -2775,20 +2773,20 @@
       <c r="AE8" s="25"/>
       <c r="AF8" s="25"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="26" t="s">
         <v>219</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>95</v>
       </c>
       <c r="U9" s="39"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="42"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
@@ -2819,53 +2817,53 @@
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59">
         <v>3</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="68">
         <v>43013</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43">
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59">
         <v>1</v>
       </c>
-      <c r="L10" s="43">
-        <v>0</v>
-      </c>
-      <c r="M10" s="43">
-        <v>0</v>
-      </c>
-      <c r="N10" s="44" t="s">
+      <c r="L10" s="59">
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
+        <v>0</v>
+      </c>
+      <c r="N10" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="55" t="s">
+      <c r="O10" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="59">
         <v>13.6</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="71" t="s">
         <v>96</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="55" t="s">
+      <c r="U10" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="64">
+      <c r="V10" s="61">
         <v>1.1000000000000001</v>
       </c>
       <c r="W10" s="15">
@@ -2884,42 +2882,42 @@
         <f>X10+Z10</f>
         <v>123.41999999999999</v>
       </c>
-      <c r="AB10" s="43" t="s">
+      <c r="AB10" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="AC10" s="45">
+      <c r="AC10" s="48">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AD10" s="45">
+      <c r="AD10" s="48">
         <f>V10+AC10</f>
         <v>10.799999999999999</v>
       </c>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="56"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="71"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="66"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="63"/>
       <c r="W11" s="15">
         <v>3521376</v>
       </c>
@@ -2936,39 +2934,39 @@
         <f>X11+Z11</f>
         <v>126.18</v>
       </c>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48">
         <v>4</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48">
         <v>2</v>
       </c>
-      <c r="L12" s="45">
-        <v>0</v>
-      </c>
-      <c r="M12" s="45">
+      <c r="L12" s="48">
+        <v>0</v>
+      </c>
+      <c r="M12" s="48">
         <v>1</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="67" t="s">
         <v>48</v>
       </c>
       <c r="O12" s="35" t="s">
@@ -2988,7 +2986,7 @@
       <c r="U12" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="70"/>
+      <c r="V12" s="41"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
@@ -3000,21 +2998,21 @@
       <c r="AE12" s="25"/>
       <c r="AF12" s="25"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="44"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="35" t="s">
         <v>91</v>
       </c>
@@ -3032,7 +3030,7 @@
       <c r="U13" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="70"/>
+      <c r="V13" s="41"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -3044,20 +3042,20 @@
       <c r="AE13" s="25"/>
       <c r="AF13" s="25"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
       <c r="N14" s="26" t="s">
         <v>219</v>
       </c>
@@ -3076,7 +3074,7 @@
         <v>95</v>
       </c>
       <c r="U14" s="39"/>
-      <c r="V14" s="70"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
@@ -3088,9 +3086,9 @@
       <c r="AE14" s="25"/>
       <c r="AF14" s="25"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="48"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
         <v>5</v>
@@ -3134,7 +3132,7 @@
       <c r="U15" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="V15" s="72">
+      <c r="V15" s="43">
         <v>1.8</v>
       </c>
       <c r="W15" s="15">
@@ -3166,39 +3164,39 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48">
         <v>6</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="54">
         <v>44441</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48">
         <v>1</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="48">
         <v>2</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="48">
         <v>0</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="48" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="15">
@@ -3212,7 +3210,7 @@
       <c r="U16" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="V16" s="72">
+      <c r="V16" s="43">
         <v>1.8</v>
       </c>
       <c r="W16" s="15">
@@ -3244,25 +3242,25 @@
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
       <c r="N17" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O17" s="68"/>
-      <c r="P17" s="46"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="49"/>
       <c r="Q17" s="15">
         <v>9.57</v>
       </c>
@@ -3271,10 +3269,10 @@
       <c r="T17" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U17" s="73" t="s">
+      <c r="U17" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="V17" s="72"/>
+      <c r="V17" s="43"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="12"/>
@@ -3286,20 +3284,20 @@
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
       <c r="N18" s="26" t="s">
         <v>219</v>
       </c>
@@ -3317,10 +3315,10 @@
       <c r="T18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U18" s="73" t="s">
+      <c r="U18" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="V18" s="72"/>
+      <c r="V18" s="43"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="12"/>
@@ -3332,20 +3330,20 @@
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
       <c r="N19" s="26" t="s">
         <v>219</v>
       </c>
@@ -3363,10 +3361,10 @@
       <c r="T19" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="V19" s="72"/>
+      <c r="V19" s="43"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="12"/>
@@ -3378,9 +3376,9 @@
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
-      <c r="B20" s="48"/>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
         <v>7</v>
@@ -3424,7 +3422,7 @@
       <c r="U20" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="V20" s="72">
+      <c r="V20" s="43">
         <v>1.7</v>
       </c>
       <c r="W20" s="15">
@@ -3456,9 +3454,9 @@
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
-      <c r="B21" s="48"/>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15">
         <v>8</v>
@@ -3502,7 +3500,7 @@
       <c r="U21" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="V21" s="72">
+      <c r="V21" s="43">
         <v>1.1000000000000001</v>
       </c>
       <c r="W21" s="15">
@@ -3538,9 +3536,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
-      <c r="B22" s="48"/>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
         <v>9</v>
@@ -3584,7 +3582,7 @@
       <c r="U22" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="V22" s="72">
+      <c r="V22" s="43">
         <v>1.7</v>
       </c>
       <c r="W22" s="15">
@@ -3616,9 +3614,9 @@
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="62"/>
-      <c r="B23" s="46"/>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15">
         <v>10</v>
@@ -3633,10 +3631,10 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="43">
+      <c r="K23" s="59">
         <v>7</v>
       </c>
-      <c r="L23" s="43"/>
+      <c r="L23" s="59"/>
       <c r="M23" s="15">
         <v>0</v>
       </c>
@@ -3660,7 +3658,7 @@
       <c r="U23" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="V23" s="72">
+      <c r="V23" s="43">
         <v>1.3</v>
       </c>
       <c r="W23" s="15">
@@ -3696,35 +3694,35 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43">
+      <c r="C24" s="59"/>
+      <c r="D24" s="59">
         <v>1</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="43" t="s">
+      <c r="E24" s="68"/>
+      <c r="F24" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43">
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59">
         <v>1</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="59">
         <v>1</v>
       </c>
-      <c r="M24" s="43">
-        <v>0</v>
-      </c>
-      <c r="N24" s="44" t="s">
+      <c r="M24" s="59">
+        <v>0</v>
+      </c>
+      <c r="N24" s="67" t="s">
         <v>48</v>
       </c>
       <c r="O24" s="35" t="s">
@@ -3744,7 +3742,7 @@
       <c r="U24" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="V24" s="72">
+      <c r="V24" s="43">
         <v>1.7</v>
       </c>
       <c r="W24" s="15">
@@ -3776,21 +3774,21 @@
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="67"/>
       <c r="O25" s="35" t="s">
         <v>68</v>
       </c>
@@ -3808,7 +3806,7 @@
       <c r="U25" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="V25" s="72">
+      <c r="V25" s="43">
         <v>1.6</v>
       </c>
       <c r="W25" s="15">
@@ -3840,42 +3838,42 @@
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="60" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45">
+      <c r="C26" s="48"/>
+      <c r="D26" s="48">
         <v>1</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="48">
         <v>2</v>
       </c>
-      <c r="L26" s="45">
-        <v>0</v>
-      </c>
-      <c r="M26" s="45">
+      <c r="L26" s="48">
+        <v>0</v>
+      </c>
+      <c r="M26" s="48">
         <v>0</v>
       </c>
       <c r="N26" s="30" t="s">
@@ -3898,7 +3896,7 @@
       <c r="U26" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="V26" s="72">
+      <c r="V26" s="43">
         <v>1.7</v>
       </c>
       <c r="W26" s="15">
@@ -3930,20 +3928,20 @@
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="61"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
       <c r="N27" s="26" t="s">
         <v>219</v>
       </c>
@@ -3961,10 +3959,10 @@
       <c r="T27" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U27" s="73" t="s">
+      <c r="U27" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="V27" s="72"/>
+      <c r="V27" s="43"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="12"/>
@@ -3976,9 +3974,9 @@
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="61"/>
-      <c r="B28" s="48"/>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="15">
         <v>4814</v>
       </c>
@@ -4032,7 +4030,7 @@
       <c r="U28" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="V28" s="72">
+      <c r="V28" s="43">
         <v>2</v>
       </c>
       <c r="W28" s="15">
@@ -4064,9 +4062,9 @@
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="61"/>
-      <c r="B29" s="48"/>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="15">
         <v>4817</v>
       </c>
@@ -4118,7 +4116,7 @@
       <c r="U29" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="V29" s="72">
+      <c r="V29" s="43">
         <v>1.5</v>
       </c>
       <c r="W29" s="15">
@@ -4150,38 +4148,38 @@
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="61"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="48">
         <v>4812</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="48">
         <v>4</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45" t="s">
+      <c r="I30" s="48"/>
+      <c r="J30" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="48">
         <v>3</v>
       </c>
-      <c r="L30" s="45">
-        <v>0</v>
-      </c>
-      <c r="M30" s="45">
+      <c r="L30" s="48">
+        <v>0</v>
+      </c>
+      <c r="M30" s="48">
         <v>0</v>
       </c>
       <c r="N30" s="30" t="s">
@@ -4204,7 +4202,7 @@
       <c r="U30" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="V30" s="72">
+      <c r="V30" s="43">
         <v>1.9</v>
       </c>
       <c r="W30" s="15">
@@ -4236,20 +4234,20 @@
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="61"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
       <c r="N31" s="26" t="s">
         <v>219</v>
       </c>
@@ -4268,7 +4266,7 @@
         <v>95</v>
       </c>
       <c r="U31" s="35"/>
-      <c r="V31" s="72"/>
+      <c r="V31" s="43"/>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="12"/>
@@ -4280,38 +4278,38 @@
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="61"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="45">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="48">
         <v>4814</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="48">
         <v>5</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45" t="s">
+      <c r="H32" s="48"/>
+      <c r="I32" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="48">
         <v>3</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="48">
         <v>1</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="48">
         <v>0</v>
       </c>
       <c r="N32" s="30" t="s">
@@ -4334,7 +4332,7 @@
       <c r="U32" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="V32" s="72">
+      <c r="V32" s="43">
         <v>1.7</v>
       </c>
       <c r="W32" s="15">
@@ -4366,20 +4364,20 @@
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
       <c r="N33" s="26" t="s">
         <v>219</v>
       </c>
@@ -4397,10 +4395,10 @@
       <c r="T33" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U33" s="73" t="s">
+      <c r="U33" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="V33" s="72"/>
+      <c r="V33" s="43"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="12"/>
@@ -4412,40 +4410,40 @@
       <c r="AE33" s="12"/>
       <c r="AF33" s="12"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="61"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="45">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="48">
         <v>4818</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="48">
         <v>6</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="48">
         <v>2</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="48">
         <v>1</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="48">
         <v>0</v>
       </c>
       <c r="N34" s="30" t="s">
@@ -4468,7 +4466,7 @@
       <c r="U34" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="72">
+      <c r="V34" s="43">
         <v>1.7</v>
       </c>
       <c r="W34" s="15">
@@ -4500,20 +4498,20 @@
       <c r="AE34" s="12"/>
       <c r="AF34" s="12"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="61"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
       <c r="N35" s="26" t="s">
         <v>219</v>
       </c>
@@ -4531,10 +4529,10 @@
       <c r="T35" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U35" s="73" t="s">
+      <c r="U35" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="V35" s="72"/>
+      <c r="V35" s="43"/>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="12"/>
@@ -4546,9 +4544,9 @@
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="48"/>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="15">
         <v>4817</v>
       </c>
@@ -4602,7 +4600,7 @@
       <c r="U36" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="V36" s="72">
+      <c r="V36" s="43">
         <v>1.7</v>
       </c>
       <c r="W36" s="15">
@@ -4634,9 +4632,9 @@
       <c r="AE36" s="12"/>
       <c r="AF36" s="12"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="61"/>
-      <c r="B37" s="48"/>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="15">
         <v>4818</v>
       </c>
@@ -4690,7 +4688,7 @@
       <c r="U37" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="V37" s="72">
+      <c r="V37" s="43">
         <v>1.6</v>
       </c>
       <c r="W37" s="15">
@@ -4722,34 +4720,34 @@
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="61"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="45">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="48">
         <v>4818</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="48">
         <v>9</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="45" t="s">
+      <c r="E38" s="54"/>
+      <c r="F38" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45" t="s">
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="48">
         <v>1</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="48">
         <v>1</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="48">
         <v>0</v>
       </c>
       <c r="N38" s="30" t="s">
@@ -4772,7 +4770,7 @@
       <c r="U38" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="V38" s="72">
+      <c r="V38" s="43">
         <v>1</v>
       </c>
       <c r="W38" s="15">
@@ -4806,20 +4804,20 @@
       </c>
       <c r="AF38" s="12"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="61"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
       <c r="N39" s="26" t="s">
         <v>219</v>
       </c>
@@ -4837,10 +4835,10 @@
       <c r="T39" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U39" s="73" t="s">
+      <c r="U39" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="V39" s="72"/>
+      <c r="V39" s="43"/>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
       <c r="Y39" s="12"/>
@@ -4852,34 +4850,34 @@
       <c r="AE39" s="12"/>
       <c r="AF39" s="12"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="61"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="45">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="48">
         <v>4818</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="48">
         <v>10</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45" t="s">
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="45">
+      <c r="K40" s="48">
         <v>1</v>
       </c>
-      <c r="L40" s="45">
+      <c r="L40" s="48">
         <v>1</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="48">
         <v>0</v>
       </c>
       <c r="N40" s="30" t="s">
@@ -4902,7 +4900,7 @@
       <c r="U40" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="V40" s="72">
+      <c r="V40" s="43">
         <v>1.2</v>
       </c>
       <c r="W40" s="15">
@@ -4934,20 +4932,20 @@
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="62"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
       <c r="N41" s="26" t="s">
         <v>219</v>
       </c>
@@ -4965,10 +4963,10 @@
       <c r="T41" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U41" s="73" t="s">
+      <c r="U41" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="V41" s="72"/>
+      <c r="V41" s="43"/>
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
       <c r="Y41" s="12"/>
@@ -4980,38 +4978,38 @@
       <c r="AE41" s="12"/>
       <c r="AF41" s="12"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="60" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="48">
         <v>4818</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="48">
         <v>1</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="43" t="s">
+      <c r="E42" s="54"/>
+      <c r="F42" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45">
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48">
         <v>18</v>
       </c>
-      <c r="L42" s="45">
+      <c r="L42" s="48">
         <v>1</v>
       </c>
-      <c r="M42" s="45">
+      <c r="M42" s="48">
         <v>2</v>
       </c>
       <c r="N42" s="30" t="s">
@@ -5034,7 +5032,7 @@
       <c r="U42" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="V42" s="72">
+      <c r="V42" s="43">
         <v>1.2</v>
       </c>
       <c r="W42" s="12">
@@ -5066,20 +5064,20 @@
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="61"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
       <c r="N43" s="26" t="s">
         <v>219</v>
       </c>
@@ -5097,10 +5095,10 @@
       <c r="T43" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U43" s="73" t="s">
+      <c r="U43" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="V43" s="72"/>
+      <c r="V43" s="43"/>
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
@@ -5112,17 +5110,17 @@
       <c r="AE43" s="12"/>
       <c r="AF43" s="12"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="61"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="15">
         <v>2</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15">
@@ -5154,7 +5152,7 @@
       <c r="U44" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="V44" s="72">
+      <c r="V44" s="43">
         <v>1.2</v>
       </c>
       <c r="W44" s="12">
@@ -5188,17 +5186,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="62"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="15">
         <v>3</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15">
@@ -5230,7 +5228,7 @@
       <c r="U45" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="V45" s="72">
+      <c r="V45" s="43">
         <v>1.3</v>
       </c>
       <c r="W45" s="12">
@@ -5262,31 +5260,31 @@
       <c r="AE45" s="12"/>
       <c r="AF45" s="12"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="60" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="54">
+      <c r="E46" s="68">
         <v>44550</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="59" t="s">
         <v>124</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="43">
+      <c r="K46" s="59">
         <v>1</v>
       </c>
-      <c r="L46" s="43"/>
+      <c r="L46" s="59"/>
       <c r="M46" s="15">
         <v>0</v>
       </c>
@@ -5306,7 +5304,7 @@
       <c r="U46" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="V46" s="70">
+      <c r="V46" s="41">
         <v>0</v>
       </c>
       <c r="W46" s="21"/>
@@ -5325,23 +5323,23 @@
       <c r="AE46" s="25"/>
       <c r="AF46" s="25"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="61"/>
-      <c r="B47" s="48"/>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="43"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="43">
+      <c r="K47" s="59">
         <v>1</v>
       </c>
-      <c r="L47" s="43"/>
+      <c r="L47" s="59"/>
       <c r="M47" s="15">
         <v>0</v>
       </c>
@@ -5361,7 +5359,7 @@
       <c r="U47" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="V47" s="72">
+      <c r="V47" s="43">
         <v>1.1000000000000001</v>
       </c>
       <c r="W47" s="12">
@@ -5393,23 +5391,23 @@
       <c r="AE47" s="12"/>
       <c r="AF47" s="12"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A48" s="61"/>
-      <c r="B48" s="48"/>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="43"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="43">
+      <c r="K48" s="59">
         <v>1</v>
       </c>
-      <c r="L48" s="43"/>
+      <c r="L48" s="59"/>
       <c r="M48" s="15">
         <v>0</v>
       </c>
@@ -5429,7 +5427,7 @@
       <c r="U48" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="V48" s="72">
+      <c r="V48" s="43">
         <v>1.5</v>
       </c>
       <c r="W48" s="12">
@@ -5463,30 +5461,30 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="61"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45" t="s">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="63">
+      <c r="E49" s="68"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="60">
         <v>1</v>
       </c>
-      <c r="L49" s="64"/>
-      <c r="M49" s="45">
+      <c r="L49" s="61"/>
+      <c r="M49" s="48">
         <v>0</v>
       </c>
       <c r="N49" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O49" s="67" t="s">
+      <c r="O49" s="57" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="15"/>
@@ -5499,7 +5497,7 @@
       <c r="U49" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="V49" s="72">
+      <c r="V49" s="43">
         <v>1.1000000000000001</v>
       </c>
       <c r="W49" s="12">
@@ -5531,24 +5529,24 @@
       <c r="AE49" s="12"/>
       <c r="AF49" s="12"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A50" s="61"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="46"/>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="49"/>
       <c r="N50" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O50" s="68"/>
+      <c r="O50" s="58"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="15">
         <v>9.65</v>
@@ -5558,10 +5556,10 @@
       <c r="T50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U50" s="73" t="s">
+      <c r="U50" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="V50" s="72"/>
+      <c r="V50" s="43"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
@@ -5573,23 +5571,23 @@
       <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A51" s="62"/>
-      <c r="B51" s="46"/>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="52"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="43"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="43">
+      <c r="K51" s="59">
         <v>1</v>
       </c>
-      <c r="L51" s="43"/>
+      <c r="L51" s="59"/>
       <c r="M51" s="15">
         <v>0</v>
       </c>
@@ -5609,7 +5607,7 @@
       <c r="U51" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="V51" s="72">
+      <c r="V51" s="43">
         <v>1.1000000000000001</v>
       </c>
       <c r="W51" s="12">
@@ -5641,7 +5639,7 @@
       <c r="AE51" s="12"/>
       <c r="AF51" s="12"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>42</v>
       </c>
@@ -5672,10 +5670,10 @@
       <c r="J52" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K52" s="43">
+      <c r="K52" s="59">
         <v>1</v>
       </c>
-      <c r="L52" s="43"/>
+      <c r="L52" s="59"/>
       <c r="M52" s="15">
         <v>0</v>
       </c>
@@ -5695,7 +5693,7 @@
       <c r="U52" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="V52" s="72">
+      <c r="V52" s="43">
         <v>1</v>
       </c>
       <c r="W52" s="12">
@@ -5727,38 +5725,38 @@
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A53" s="60" t="s">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45" t="s">
+      <c r="C53" s="48"/>
+      <c r="D53" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="43" t="s">
+      <c r="E53" s="54"/>
+      <c r="F53" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45">
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48">
         <v>1</v>
       </c>
-      <c r="L53" s="45">
-        <v>0</v>
-      </c>
-      <c r="M53" s="45">
+      <c r="L53" s="48">
+        <v>0</v>
+      </c>
+      <c r="M53" s="48">
         <v>0</v>
       </c>
       <c r="N53" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O53" s="67" t="s">
+      <c r="O53" s="57" t="s">
         <v>57</v>
       </c>
       <c r="P53" s="15"/>
@@ -5767,7 +5765,7 @@
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
       <c r="U53" s="35"/>
-      <c r="V53" s="72"/>
+      <c r="V53" s="43"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="12"/>
@@ -5779,24 +5777,24 @@
       <c r="AE53" s="12"/>
       <c r="AF53" s="12"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A54" s="61"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
       <c r="N54" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O54" s="68"/>
+      <c r="O54" s="58"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15">
         <v>8.58</v>
@@ -5806,10 +5804,10 @@
       <c r="T54" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U54" s="73" t="s">
+      <c r="U54" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="V54" s="72"/>
+      <c r="V54" s="43"/>
       <c r="W54" s="13"/>
       <c r="X54" s="13"/>
       <c r="Y54" s="12"/>
@@ -5821,15 +5819,15 @@
       <c r="AE54" s="12"/>
       <c r="AF54" s="12"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" s="61"/>
-      <c r="B55" s="48"/>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="51"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="17"/>
-      <c r="F55" s="43"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -5855,7 +5853,7 @@
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
       <c r="U55" s="35"/>
-      <c r="V55" s="72"/>
+      <c r="V55" s="43"/>
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="12"/>
@@ -5867,15 +5865,15 @@
       <c r="AE55" s="12"/>
       <c r="AF55" s="12"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A56" s="61"/>
-      <c r="B56" s="48"/>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="51"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="43"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -5901,7 +5899,7 @@
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
       <c r="U56" s="35"/>
-      <c r="V56" s="72"/>
+      <c r="V56" s="43"/>
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="12"/>
@@ -5913,15 +5911,15 @@
       <c r="AE56" s="12"/>
       <c r="AF56" s="12"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57" s="61"/>
-      <c r="B57" s="48"/>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="51"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E57" s="17"/>
-      <c r="F57" s="43"/>
+      <c r="F57" s="59"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -5947,7 +5945,7 @@
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
       <c r="U57" s="35"/>
-      <c r="V57" s="72"/>
+      <c r="V57" s="43"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="12"/>
@@ -5959,15 +5957,15 @@
       <c r="AE57" s="12"/>
       <c r="AF57" s="12"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A58" s="62"/>
-      <c r="B58" s="46"/>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="43"/>
+      <c r="F58" s="59"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -5993,7 +5991,7 @@
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
       <c r="U58" s="35"/>
-      <c r="V58" s="72"/>
+      <c r="V58" s="43"/>
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="12"/>
@@ -6005,35 +6003,35 @@
       <c r="AE58" s="12"/>
       <c r="AF58" s="12"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A59" s="58" t="s">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57">
+      <c r="C59" s="65"/>
+      <c r="D59" s="65">
         <v>1</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E59" s="66">
         <v>44990</v>
       </c>
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57">
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65">
         <v>1</v>
       </c>
-      <c r="L59" s="57">
+      <c r="L59" s="65">
         <v>1</v>
       </c>
-      <c r="M59" s="57"/>
-      <c r="N59" s="58" t="s">
+      <c r="M59" s="65"/>
+      <c r="N59" s="64" t="s">
         <v>199</v>
       </c>
       <c r="O59" s="36" t="s">
@@ -6050,25 +6048,25 @@
       <c r="T59" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U59" s="73" t="s">
+      <c r="U59" s="44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A60" s="58"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="58"/>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" s="64"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="64"/>
       <c r="O60" s="36" t="s">
         <v>194</v>
       </c>
@@ -6083,39 +6081,39 @@
       <c r="T60" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U60" s="73" t="s">
+      <c r="U60" s="44" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A61" s="58" t="s">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57">
+      <c r="C61" s="65"/>
+      <c r="D61" s="65">
         <v>2</v>
       </c>
-      <c r="E61" s="59">
+      <c r="E61" s="66">
         <v>44990</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57">
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65">
         <v>1</v>
       </c>
-      <c r="L61" s="57">
+      <c r="L61" s="65">
         <v>1</v>
       </c>
-      <c r="M61" s="57"/>
-      <c r="N61" s="58" t="s">
+      <c r="M61" s="65"/>
+      <c r="N61" s="64" t="s">
         <v>200</v>
       </c>
       <c r="O61" s="36" t="s">
@@ -6132,25 +6130,25 @@
       <c r="T61" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U61" s="73" t="s">
+      <c r="U61" s="44" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A62" s="58"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="58"/>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="64"/>
       <c r="O62" s="36" t="s">
         <v>196</v>
       </c>
@@ -6165,23 +6163,23 @@
       <c r="T62" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U62" s="73" t="s">
+      <c r="U62" s="44" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A63" s="58" t="s">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="65" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
-      <c r="E63" s="59">
+      <c r="E63" s="66">
         <v>45034</v>
       </c>
-      <c r="F63" s="57" t="s">
+      <c r="F63" s="65" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="32"/>
@@ -6208,17 +6206,17 @@
       <c r="T63" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U63" s="73" t="s">
+      <c r="U63" s="44" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A64" s="58"/>
-      <c r="B64" s="57"/>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" s="64"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="57"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="65"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
@@ -6241,17 +6239,17 @@
       <c r="T64" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U64" s="73" t="s">
+      <c r="U64" s="44" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A65" s="58"/>
-      <c r="B65" s="57"/>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="64"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="57"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="65"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
@@ -6274,34 +6272,34 @@
       <c r="T65" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="U65" s="73" t="s">
+      <c r="U65" s="44" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A66" s="58" t="s">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57" t="s">
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57">
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65">
         <v>1</v>
       </c>
-      <c r="L66" s="57">
+      <c r="L66" s="65">
         <v>1</v>
       </c>
-      <c r="M66" s="57"/>
+      <c r="M66" s="65"/>
       <c r="N66" s="33"/>
       <c r="O66" s="38" t="s">
         <v>207</v>
@@ -6317,24 +6315,24 @@
       <c r="T66" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U66" s="73" t="s">
+      <c r="U66" s="44" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A67" s="58"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="64"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
       <c r="N67" s="33"/>
       <c r="O67" s="38" t="s">
         <v>208</v>
@@ -6350,11 +6348,11 @@
       <c r="T67" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U67" s="73" t="s">
+      <c r="U67" s="44" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>213</v>
       </c>
@@ -6391,12 +6389,246 @@
       <c r="T68" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="U68" s="73" t="s">
+      <c r="U68" s="44" t="s">
         <v>238</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="258">
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="B53:B58"/>
@@ -6421,240 +6653,6 @@
     <mergeCell ref="K40:K41"/>
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4:Q6 Q8:Q9 Q13:Q14 R3:V10 R12:V58">
@@ -6706,9 +6704,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -6716,7 +6714,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>69</v>
       </c>
@@ -6724,7 +6722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>71</v>
       </c>
@@ -6732,7 +6730,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
@@ -6740,7 +6738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>73</v>
       </c>
@@ -6748,7 +6746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>74</v>
       </c>
@@ -6756,7 +6754,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>75</v>
       </c>
@@ -6764,7 +6762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>76</v>
       </c>
@@ -6772,7 +6770,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
@@ -6780,7 +6778,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -6788,7 +6786,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>79</v>
       </c>
@@ -6796,7 +6794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>80</v>
       </c>
@@ -6804,7 +6802,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>81</v>
       </c>
@@ -6812,7 +6810,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>82</v>
       </c>
@@ -6820,7 +6818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>83</v>
       </c>
@@ -6828,7 +6826,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>84</v>
       </c>
@@ -6836,7 +6834,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>85</v>
       </c>
@@ -6844,7 +6842,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
@@ -6852,7 +6850,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>87</v>
       </c>
@@ -6860,7 +6858,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>88</v>
       </c>

--- a/01_metadata/AdultHW_census.xlsx
+++ b/01_metadata/AdultHW_census.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpow2134\Documents\GitHub\heartworm_genome\01_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520E7552-D55B-4911-831E-B39A5DCFB9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357F3EC-DB2D-466D-B29D-D6421C55BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{58ED805E-037D-4674-8501-93BE1E8942EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="252">
   <si>
     <t>HWs from Swaid</t>
   </si>
@@ -840,6 +840,9 @@
   </si>
   <si>
     <t>Fragment</t>
+  </si>
+  <si>
+    <t>09/2020</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1304,12 +1307,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1319,16 +1373,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,50 +1385,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2283,8 +2292,8 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,51 +2316,51 @@
     <col min="18" max="18" width="13.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="14.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="14.5703125" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="6.42578125" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="15.140625" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="27" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="22" customWidth="1"/>
     <col min="31" max="31" width="9.85546875" customWidth="1"/>
     <col min="32" max="32" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="69"/>
+      <c r="P1" s="54"/>
       <c r="Q1" s="16" t="s">
         <v>92</v>
       </c>
@@ -2364,7 +2373,7 @@
       <c r="T1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="54" t="s">
         <v>139</v>
       </c>
       <c r="V1" s="40" t="s">
@@ -2378,31 +2387,31 @@
         <v>181</v>
       </c>
       <c r="Z1" s="20"/>
-      <c r="AA1" s="69" t="s">
+      <c r="AA1" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="AB1" s="69" t="s">
+      <c r="AB1" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69" t="s">
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="72" t="s">
+      <c r="AE1" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="AF1" s="73"/>
+      <c r="AF1" s="60"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2427,7 +2436,7 @@
       <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="69"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="16" t="s">
         <v>52</v>
       </c>
@@ -2446,7 +2455,7 @@
       <c r="T2" s="29">
         <v>2023</v>
       </c>
-      <c r="U2" s="69"/>
+      <c r="U2" s="54"/>
       <c r="V2" s="40" t="s">
         <v>186</v>
       </c>
@@ -2462,14 +2471,14 @@
       <c r="Z2" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" s="69"/>
+      <c r="AA2" s="54"/>
       <c r="AB2" s="16" t="s">
         <v>183</v>
       </c>
       <c r="AC2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AD2" s="69"/>
+      <c r="AD2" s="54"/>
       <c r="AE2" s="24" t="s">
         <v>190</v>
       </c>
@@ -2478,36 +2487,36 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52">
         <v>1</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="56">
         <v>38083</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52">
         <v>4</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="52">
         <v>4</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="49" t="s">
         <v>48</v>
       </c>
       <c r="O3" s="35" t="s">
@@ -2540,20 +2549,20 @@
       <c r="AF3" s="25"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="67"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="49"/>
       <c r="O4" s="35" t="s">
         <v>89</v>
       </c>
@@ -2584,19 +2593,19 @@
       <c r="AF4" s="25"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
       <c r="N5" s="26" t="s">
         <v>219</v>
       </c>
@@ -2628,19 +2637,19 @@
       <c r="AF5" s="25"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="26" t="s">
         <v>219</v>
       </c>
@@ -2672,32 +2681,32 @@
       <c r="AF6" s="25"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48">
+      <c r="A7" s="68"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52">
         <v>2</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="56">
         <v>38083</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52">
         <v>2</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="52">
         <v>1</v>
       </c>
-      <c r="M7" s="48">
-        <v>0</v>
-      </c>
-      <c r="N7" s="67" t="s">
+      <c r="M7" s="52">
+        <v>0</v>
+      </c>
+      <c r="N7" s="49" t="s">
         <v>48</v>
       </c>
       <c r="O7" s="35" t="s">
@@ -2730,20 +2739,20 @@
       <c r="AF7" s="25"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="67"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="49"/>
       <c r="O8" s="35" t="s">
         <v>90</v>
       </c>
@@ -2774,19 +2783,19 @@
       <c r="AF8" s="25"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="26" t="s">
         <v>219</v>
       </c>
@@ -2818,52 +2827,52 @@
       <c r="AF9" s="25"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59">
+      <c r="A10" s="68"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48">
         <v>3</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="61">
         <v>43013</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59">
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <v>1</v>
       </c>
-      <c r="L10" s="59">
-        <v>0</v>
-      </c>
-      <c r="M10" s="59">
-        <v>0</v>
-      </c>
-      <c r="N10" s="67" t="s">
+      <c r="L10" s="48">
+        <v>0</v>
+      </c>
+      <c r="M10" s="48">
+        <v>0</v>
+      </c>
+      <c r="N10" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="70" t="s">
+      <c r="O10" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="59" t="s">
+      <c r="P10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="59">
+      <c r="Q10" s="48">
         <v>13.6</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="63" t="s">
         <v>96</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="70" t="s">
+      <c r="U10" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="61">
+      <c r="V10" s="50">
         <v>1.1000000000000001</v>
       </c>
       <c r="W10" s="15">
@@ -2882,13 +2891,13 @@
         <f>X10+Z10</f>
         <v>123.41999999999999</v>
       </c>
-      <c r="AB10" s="59" t="s">
+      <c r="AB10" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="AC10" s="48">
+      <c r="AC10" s="52">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AD10" s="48">
+      <c r="AD10" s="52">
         <f>V10+AC10</f>
         <v>10.799999999999999</v>
       </c>
@@ -2896,28 +2905,28 @@
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="71"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="63"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="63"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="51"/>
       <c r="W11" s="15">
         <v>3521376</v>
       </c>
@@ -2934,39 +2943,39 @@
         <f>X11+Z11</f>
         <v>126.18</v>
       </c>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48">
+      <c r="A12" s="68"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52">
         <v>4</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48">
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52">
         <v>2</v>
       </c>
-      <c r="L12" s="48">
-        <v>0</v>
-      </c>
-      <c r="M12" s="48">
+      <c r="L12" s="52">
+        <v>0</v>
+      </c>
+      <c r="M12" s="52">
         <v>1</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="49" t="s">
         <v>48</v>
       </c>
       <c r="O12" s="35" t="s">
@@ -2999,20 +3008,20 @@
       <c r="AF12" s="25"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="67"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="35" t="s">
         <v>91</v>
       </c>
@@ -3043,19 +3052,19 @@
       <c r="AF13" s="25"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
       <c r="N14" s="26" t="s">
         <v>219</v>
       </c>
@@ -3087,8 +3096,8 @@
       <c r="AF14" s="25"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
         <v>5</v>
@@ -3165,38 +3174,38 @@
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48">
+      <c r="A16" s="68"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52">
         <v>6</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="56">
         <v>44441</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48">
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52">
         <v>1</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="52">
         <v>2</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="52">
         <v>0</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="57" t="s">
+      <c r="O16" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="48" t="s">
+      <c r="P16" s="52" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="15">
@@ -3243,24 +3252,24 @@
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O17" s="58"/>
-      <c r="P17" s="49"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="53"/>
       <c r="Q17" s="15">
         <v>9.57</v>
       </c>
@@ -3285,19 +3294,19 @@
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
       <c r="N18" s="26" t="s">
         <v>219</v>
       </c>
@@ -3331,19 +3340,19 @@
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
       <c r="N19" s="26" t="s">
         <v>219</v>
       </c>
@@ -3377,8 +3386,8 @@
       <c r="AF19" s="12"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
         <v>7</v>
@@ -3455,8 +3464,8 @@
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15">
         <v>8</v>
@@ -3537,8 +3546,8 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
         <v>9</v>
@@ -3615,8 +3624,8 @@
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15">
         <v>10</v>
@@ -3631,10 +3640,10 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="59">
+      <c r="K23" s="48">
         <v>7</v>
       </c>
-      <c r="L23" s="59"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="15">
         <v>0</v>
       </c>
@@ -3695,34 +3704,34 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48">
         <v>1</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="59" t="s">
+      <c r="E24" s="61"/>
+      <c r="F24" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59">
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48">
         <v>1</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="48">
         <v>1</v>
       </c>
-      <c r="M24" s="59">
-        <v>0</v>
-      </c>
-      <c r="N24" s="67" t="s">
+      <c r="M24" s="48">
+        <v>0</v>
+      </c>
+      <c r="N24" s="49" t="s">
         <v>48</v>
       </c>
       <c r="O24" s="35" t="s">
@@ -3775,20 +3784,20 @@
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="67"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
       <c r="O25" s="35" t="s">
         <v>68</v>
       </c>
@@ -3839,41 +3848,41 @@
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52">
         <v>1</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="52">
         <v>2</v>
       </c>
-      <c r="L26" s="48">
-        <v>0</v>
-      </c>
-      <c r="M26" s="48">
+      <c r="L26" s="52">
+        <v>0</v>
+      </c>
+      <c r="M26" s="52">
         <v>0</v>
       </c>
       <c r="N26" s="30" t="s">
@@ -3929,19 +3938,19 @@
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
       <c r="N27" s="26" t="s">
         <v>219</v>
       </c>
@@ -3975,8 +3984,8 @@
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="15">
         <v>4814</v>
       </c>
@@ -4063,8 +4072,8 @@
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="15">
         <v>4817</v>
       </c>
@@ -4149,37 +4158,37 @@
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="48">
+      <c r="A30" s="68"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="52">
         <v>4812</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="52">
         <v>4</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48" t="s">
+      <c r="I30" s="52"/>
+      <c r="J30" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="52">
         <v>3</v>
       </c>
-      <c r="L30" s="48">
-        <v>0</v>
-      </c>
-      <c r="M30" s="48">
+      <c r="L30" s="52">
+        <v>0</v>
+      </c>
+      <c r="M30" s="52">
         <v>0</v>
       </c>
       <c r="N30" s="30" t="s">
@@ -4235,19 +4244,19 @@
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
       <c r="N31" s="26" t="s">
         <v>219</v>
       </c>
@@ -4279,37 +4288,37 @@
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="48">
+      <c r="A32" s="68"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="52">
         <v>4814</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="52">
         <v>5</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="G32" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48" t="s">
+      <c r="H32" s="52"/>
+      <c r="I32" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="K32" s="48">
+      <c r="K32" s="52">
         <v>3</v>
       </c>
-      <c r="L32" s="48">
+      <c r="L32" s="52">
         <v>1</v>
       </c>
-      <c r="M32" s="48">
+      <c r="M32" s="52">
         <v>0</v>
       </c>
       <c r="N32" s="30" t="s">
@@ -4365,19 +4374,19 @@
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
       <c r="N33" s="26" t="s">
         <v>219</v>
       </c>
@@ -4411,39 +4420,39 @@
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="48">
+      <c r="A34" s="68"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="52">
         <v>4818</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="52">
         <v>6</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="52">
         <v>2</v>
       </c>
-      <c r="L34" s="48">
+      <c r="L34" s="52">
         <v>1</v>
       </c>
-      <c r="M34" s="48">
+      <c r="M34" s="52">
         <v>0</v>
       </c>
       <c r="N34" s="30" t="s">
@@ -4499,19 +4508,19 @@
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
       <c r="N35" s="26" t="s">
         <v>219</v>
       </c>
@@ -4545,8 +4554,8 @@
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="53"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="15">
         <v>4817</v>
       </c>
@@ -4633,8 +4642,8 @@
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="15">
         <v>4818</v>
       </c>
@@ -4721,33 +4730,33 @@
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="48">
+      <c r="A38" s="68"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="52">
         <v>4818</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="52">
         <v>9</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="48" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48" t="s">
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="K38" s="48">
+      <c r="K38" s="52">
         <v>1</v>
       </c>
-      <c r="L38" s="48">
+      <c r="L38" s="52">
         <v>1</v>
       </c>
-      <c r="M38" s="48">
+      <c r="M38" s="52">
         <v>0</v>
       </c>
       <c r="N38" s="30" t="s">
@@ -4805,19 +4814,19 @@
       <c r="AF38" s="12"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
       <c r="N39" s="26" t="s">
         <v>219</v>
       </c>
@@ -4851,33 +4860,33 @@
       <c r="AF39" s="12"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="48">
+      <c r="A40" s="68"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="52">
         <v>4818</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="52">
         <v>10</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48" t="s">
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K40" s="52">
         <v>1</v>
       </c>
-      <c r="L40" s="48">
+      <c r="L40" s="52">
         <v>1</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M40" s="52">
         <v>0</v>
       </c>
       <c r="N40" s="30" t="s">
@@ -4933,19 +4942,19 @@
       <c r="AF40" s="12"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
       <c r="N41" s="26" t="s">
         <v>219</v>
       </c>
@@ -4979,37 +4988,37 @@
       <c r="AF41" s="12"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="52">
         <v>4818</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="52">
         <v>1</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="59" t="s">
+      <c r="E42" s="56"/>
+      <c r="F42" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="G42" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48">
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52">
         <v>18</v>
       </c>
-      <c r="L42" s="48">
+      <c r="L42" s="52">
         <v>1</v>
       </c>
-      <c r="M42" s="48">
+      <c r="M42" s="52">
         <v>2</v>
       </c>
       <c r="N42" s="30" t="s">
@@ -5065,19 +5074,19 @@
       <c r="AF42" s="12"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
       <c r="N43" s="26" t="s">
         <v>219</v>
       </c>
@@ -5111,16 +5120,16 @@
       <c r="AF43" s="12"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="15">
         <v>2</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15">
@@ -5187,16 +5196,16 @@
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="15">
         <v>3</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15">
@@ -5261,30 +5270,30 @@
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="61">
         <v>44550</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="48" t="s">
         <v>124</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="59">
+      <c r="K46" s="48">
         <v>1</v>
       </c>
-      <c r="L46" s="59"/>
+      <c r="L46" s="48"/>
       <c r="M46" s="15">
         <v>0</v>
       </c>
@@ -5324,22 +5333,22 @@
       <c r="AF46" s="25"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="68"/>
-      <c r="F47" s="59"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="59">
+      <c r="K47" s="48">
         <v>1</v>
       </c>
-      <c r="L47" s="59"/>
+      <c r="L47" s="48"/>
       <c r="M47" s="15">
         <v>0</v>
       </c>
@@ -5392,22 +5401,22 @@
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="53"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="68"/>
-      <c r="F48" s="59"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="59">
+      <c r="K48" s="48">
         <v>1</v>
       </c>
-      <c r="L48" s="59"/>
+      <c r="L48" s="48"/>
       <c r="M48" s="15">
         <v>0</v>
       </c>
@@ -5462,29 +5471,29 @@
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48" t="s">
+      <c r="A49" s="68"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="60">
+      <c r="E49" s="61"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="70">
         <v>1</v>
       </c>
-      <c r="L49" s="61"/>
-      <c r="M49" s="48">
+      <c r="L49" s="50"/>
+      <c r="M49" s="52">
         <v>0</v>
       </c>
       <c r="N49" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O49" s="57" t="s">
+      <c r="O49" s="72" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="15"/>
@@ -5530,23 +5539,23 @@
       <c r="AF49" s="12"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="49"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="53"/>
       <c r="N50" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O50" s="58"/>
+      <c r="O50" s="73"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="15">
         <v>9.65</v>
@@ -5572,22 +5581,22 @@
       <c r="AF50" s="12"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="59"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="48"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="59">
+      <c r="K51" s="48">
         <v>1</v>
       </c>
-      <c r="L51" s="59"/>
+      <c r="L51" s="48"/>
       <c r="M51" s="15">
         <v>0</v>
       </c>
@@ -5670,10 +5679,10 @@
       <c r="J52" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K52" s="59">
+      <c r="K52" s="48">
         <v>1</v>
       </c>
-      <c r="L52" s="59"/>
+      <c r="L52" s="48"/>
       <c r="M52" s="15">
         <v>0</v>
       </c>
@@ -5726,37 +5735,39 @@
       <c r="AF52" s="12"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48" t="s">
+      <c r="C53" s="52"/>
+      <c r="D53" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="59" t="s">
+      <c r="E53" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48">
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52">
         <v>1</v>
       </c>
-      <c r="L53" s="48">
-        <v>0</v>
-      </c>
-      <c r="M53" s="48">
+      <c r="L53" s="52">
+        <v>0</v>
+      </c>
+      <c r="M53" s="52">
         <v>0</v>
       </c>
       <c r="N53" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="O53" s="57" t="s">
+      <c r="O53" s="72" t="s">
         <v>57</v>
       </c>
       <c r="P53" s="15"/>
@@ -5778,23 +5789,23 @@
       <c r="AF53" s="12"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
       <c r="N54" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="O54" s="58"/>
+      <c r="O54" s="73"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15">
         <v>8.58</v>
@@ -5820,14 +5831,16 @@
       <c r="AF54" s="12"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="53"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="59"/>
+      <c r="E55" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="48"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -5866,14 +5879,14 @@
       <c r="AF55" s="12"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="53"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="59"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="48"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -5912,14 +5925,16 @@
       <c r="AF56" s="12"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="53"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="59"/>
+      <c r="E57" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" s="48"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -5958,14 +5973,14 @@
       <c r="AF57" s="12"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="49"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="59"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="48"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -6004,34 +6019,34 @@
       <c r="AF58" s="12"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65">
+      <c r="C59" s="64"/>
+      <c r="D59" s="64">
         <v>1</v>
       </c>
       <c r="E59" s="66">
         <v>44990</v>
       </c>
-      <c r="F59" s="65" t="s">
+      <c r="F59" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65">
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64">
         <v>1</v>
       </c>
-      <c r="L59" s="65">
+      <c r="L59" s="64">
         <v>1</v>
       </c>
-      <c r="M59" s="65"/>
-      <c r="N59" s="64" t="s">
+      <c r="M59" s="64"/>
+      <c r="N59" s="65" t="s">
         <v>199</v>
       </c>
       <c r="O59" s="36" t="s">
@@ -6053,20 +6068,20 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="64"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="65"/>
       <c r="O60" s="36" t="s">
         <v>194</v>
       </c>
@@ -6086,34 +6101,34 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65">
+      <c r="C61" s="64"/>
+      <c r="D61" s="64">
         <v>2</v>
       </c>
       <c r="E61" s="66">
         <v>44990</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65">
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64">
         <v>1</v>
       </c>
-      <c r="L61" s="65">
+      <c r="L61" s="64">
         <v>1</v>
       </c>
-      <c r="M61" s="65"/>
-      <c r="N61" s="64" t="s">
+      <c r="M61" s="64"/>
+      <c r="N61" s="65" t="s">
         <v>200</v>
       </c>
       <c r="O61" s="36" t="s">
@@ -6135,20 +6150,20 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="64"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="65"/>
       <c r="O62" s="36" t="s">
         <v>196</v>
       </c>
@@ -6168,10 +6183,10 @@
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="64" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="32"/>
@@ -6179,7 +6194,7 @@
       <c r="E63" s="66">
         <v>45034</v>
       </c>
-      <c r="F63" s="65" t="s">
+      <c r="F63" s="64" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="32"/>
@@ -6211,12 +6226,12 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
       <c r="E64" s="66"/>
-      <c r="F64" s="65"/>
+      <c r="F64" s="64"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
@@ -6244,12 +6259,12 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="65"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="66"/>
-      <c r="F65" s="65"/>
+      <c r="F65" s="64"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
@@ -6277,29 +6292,29 @@
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65" t="s">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65">
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64">
         <v>1</v>
       </c>
-      <c r="L66" s="65">
+      <c r="L66" s="64">
         <v>1</v>
       </c>
-      <c r="M66" s="65"/>
+      <c r="M66" s="64"/>
       <c r="N66" s="33"/>
       <c r="O66" s="38" t="s">
         <v>207</v>
@@ -6320,19 +6335,19 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
       <c r="N67" s="33"/>
       <c r="O67" s="38" t="s">
         <v>208</v>
@@ -6394,39 +6409,211 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="258">
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="K1:M1"/>
+  <mergeCells count="260">
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="G42:G45"/>
     <mergeCell ref="H42:H45"/>
@@ -6451,208 +6638,38 @@
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="B26:B41"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4:Q6 Q8:Q9 Q13:Q14 R3:V10 R12:V58">
